--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201909\その他払出\集計画面\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B007C21-F049-45DD-90ED-9EF8C3A06551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91E529-EC3A-4595-A2C5-835E0FBF6DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2123,6 +2123,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2132,6 +2135,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2162,67 +2206,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2238,6 +2226,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2257,17 +2260,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3200,23 +3200,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>113156</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>199350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 11">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B77DBE4-9E5A-4534-9610-CA1B5FB43875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE42450-9B52-40D1-B826-289BB8AB39A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,49 +3225,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="1107281"/>
-          <a:ext cx="3609975" cy="3295650"/>
+          <a:off x="371475" y="1095375"/>
+          <a:ext cx="9152381" cy="5400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3959,108 +3929,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="107"/>
-      <c r="AI32" s="107"/>
-      <c r="AJ32" s="107"/>
-      <c r="AK32" s="107"/>
-      <c r="AL32" s="107"/>
-      <c r="AM32" s="107"/>
-      <c r="AN32" s="107"/>
-      <c r="AO32" s="107"/>
-      <c r="AP32" s="107"/>
-      <c r="AQ32" s="107"/>
-      <c r="AR32" s="107"/>
-      <c r="AS32" s="107"/>
-      <c r="AT32" s="107"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="107"/>
-      <c r="AW32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="108"/>
+      <c r="AS32" s="108"/>
+      <c r="AT32" s="108"/>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="108"/>
+      <c r="AW32" s="108"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="108"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="108"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="108"/>
-      <c r="AJ33" s="108"/>
-      <c r="AK33" s="108"/>
-      <c r="AL33" s="108"/>
-      <c r="AM33" s="108"/>
-      <c r="AN33" s="108"/>
-      <c r="AO33" s="108"/>
-      <c r="AP33" s="108"/>
-      <c r="AQ33" s="108"/>
-      <c r="AR33" s="108"/>
-      <c r="AS33" s="108"/>
-      <c r="AT33" s="108"/>
-      <c r="AU33" s="108"/>
-      <c r="AV33" s="108"/>
-      <c r="AW33" s="108"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109"/>
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="109"/>
+      <c r="AM33" s="109"/>
+      <c r="AN33" s="109"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="109"/>
+      <c r="AQ33" s="109"/>
+      <c r="AR33" s="109"/>
+      <c r="AS33" s="109"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="109"/>
+      <c r="AV33" s="109"/>
+      <c r="AW33" s="109"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4098,55 +4068,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="109"/>
-      <c r="X35" s="109"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="109"/>
-      <c r="AJ35" s="109"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="109"/>
-      <c r="AM35" s="109"/>
-      <c r="AN35" s="109"/>
-      <c r="AO35" s="109"/>
-      <c r="AP35" s="109"/>
-      <c r="AQ35" s="109"/>
-      <c r="AR35" s="109"/>
-      <c r="AS35" s="109"/>
-      <c r="AT35" s="109"/>
-      <c r="AU35" s="109"/>
-      <c r="AV35" s="109"/>
-      <c r="AW35" s="109"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="110"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="110"/>
+      <c r="AM35" s="110"/>
+      <c r="AN35" s="110"/>
+      <c r="AO35" s="110"/>
+      <c r="AP35" s="110"/>
+      <c r="AQ35" s="110"/>
+      <c r="AR35" s="110"/>
+      <c r="AS35" s="110"/>
+      <c r="AT35" s="110"/>
+      <c r="AU35" s="110"/>
+      <c r="AV35" s="110"/>
+      <c r="AW35" s="110"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4181,1770 +4151,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="114" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="114" t="s">
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="112" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112" t="s">
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112" t="s">
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112" t="s">
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="112"/>
-      <c r="AW3" s="112"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="113"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AU4" s="113"/>
-      <c r="AV4" s="113"/>
-      <c r="AW4" s="113"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="121">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113">
         <v>43725</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="120" t="s">
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="125" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="125"/>
-      <c r="AN5" s="120" t="s">
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="120"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="120"/>
-      <c r="AW6" s="120"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="125"/>
-      <c r="AM7" s="125"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="125"/>
-      <c r="AI8" s="125"/>
-      <c r="AJ8" s="125"/>
-      <c r="AK8" s="125"/>
-      <c r="AL8" s="125"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="120"/>
-      <c r="AO8" s="120"/>
-      <c r="AP8" s="120"/>
-      <c r="AQ8" s="120"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="120"/>
-      <c r="AV8" s="120"/>
-      <c r="AW8" s="120"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="125"/>
-      <c r="AJ9" s="125"/>
-      <c r="AK9" s="125"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="120"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="120"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="125"/>
-      <c r="AJ10" s="125"/>
-      <c r="AK10" s="125"/>
-      <c r="AL10" s="125"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="120"/>
-      <c r="AW10" s="120"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="123"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128"/>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="128"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="127"/>
-      <c r="AJ12" s="127"/>
-      <c r="AK12" s="127"/>
-      <c r="AL12" s="127"/>
-      <c r="AM12" s="127"/>
-      <c r="AN12" s="120"/>
-      <c r="AO12" s="120"/>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="120"/>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="120"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="127"/>
-      <c r="AJ15" s="127"/>
-      <c r="AK15" s="127"/>
-      <c r="AL15" s="127"/>
-      <c r="AM15" s="127"/>
-      <c r="AN15" s="120"/>
-      <c r="AO15" s="120"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="127"/>
-      <c r="AM16" s="127"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
-      <c r="AU16" s="120"/>
-      <c r="AV16" s="120"/>
-      <c r="AW16" s="120"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="127"/>
-      <c r="AN17" s="120"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
-      <c r="AR17" s="120"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="120"/>
-      <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
-      <c r="AI18" s="127"/>
-      <c r="AJ18" s="127"/>
-      <c r="AK18" s="127"/>
-      <c r="AL18" s="127"/>
-      <c r="AM18" s="127"/>
-      <c r="AN18" s="120"/>
-      <c r="AO18" s="120"/>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="120"/>
-      <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="111"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="127"/>
-      <c r="AL19" s="127"/>
-      <c r="AM19" s="127"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="120"/>
-      <c r="AO20" s="120"/>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="120"/>
-      <c r="AR20" s="120"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="120"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="127"/>
-      <c r="AK21" s="127"/>
-      <c r="AL21" s="127"/>
-      <c r="AM21" s="127"/>
-      <c r="AN21" s="120"/>
-      <c r="AO21" s="120"/>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="120"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="120"/>
-      <c r="AU21" s="120"/>
-      <c r="AV21" s="120"/>
-      <c r="AW21" s="120"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="127"/>
-      <c r="AJ22" s="127"/>
-      <c r="AK22" s="127"/>
-      <c r="AL22" s="127"/>
-      <c r="AM22" s="127"/>
-      <c r="AN22" s="120"/>
-      <c r="AO22" s="120"/>
-      <c r="AP22" s="120"/>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="120"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="120"/>
-      <c r="AW22" s="120"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="111"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="127"/>
-      <c r="AJ23" s="127"/>
-      <c r="AK23" s="127"/>
-      <c r="AL23" s="127"/>
-      <c r="AM23" s="127"/>
-      <c r="AN23" s="120"/>
-      <c r="AO23" s="120"/>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="120"/>
-      <c r="AR23" s="120"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="120"/>
-      <c r="AU23" s="120"/>
-      <c r="AV23" s="120"/>
-      <c r="AW23" s="120"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="127"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="127"/>
-      <c r="AL24" s="127"/>
-      <c r="AM24" s="127"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="120"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="120"/>
-      <c r="AU24" s="120"/>
-      <c r="AV24" s="120"/>
-      <c r="AW24" s="120"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="127"/>
-      <c r="AJ25" s="127"/>
-      <c r="AK25" s="127"/>
-      <c r="AL25" s="127"/>
-      <c r="AM25" s="127"/>
-      <c r="AN25" s="120"/>
-      <c r="AO25" s="120"/>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="120"/>
-      <c r="AS25" s="120"/>
-      <c r="AT25" s="120"/>
-      <c r="AU25" s="120"/>
-      <c r="AV25" s="120"/>
-      <c r="AW25" s="120"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="127"/>
-      <c r="AL26" s="127"/>
-      <c r="AM26" s="127"/>
-      <c r="AN26" s="120"/>
-      <c r="AO26" s="120"/>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="120"/>
-      <c r="AR26" s="120"/>
-      <c r="AS26" s="120"/>
-      <c r="AT26" s="120"/>
-      <c r="AU26" s="120"/>
-      <c r="AV26" s="120"/>
-      <c r="AW26" s="120"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="111"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="127"/>
-      <c r="AJ27" s="127"/>
-      <c r="AK27" s="127"/>
-      <c r="AL27" s="127"/>
-      <c r="AM27" s="127"/>
-      <c r="AN27" s="120"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="120"/>
-      <c r="AT27" s="120"/>
-      <c r="AU27" s="120"/>
-      <c r="AV27" s="120"/>
-      <c r="AW27" s="120"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="117"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="127"/>
-      <c r="AI28" s="127"/>
-      <c r="AJ28" s="127"/>
-      <c r="AK28" s="127"/>
-      <c r="AL28" s="127"/>
-      <c r="AM28" s="127"/>
-      <c r="AN28" s="120"/>
-      <c r="AO28" s="120"/>
-      <c r="AP28" s="120"/>
-      <c r="AQ28" s="120"/>
-      <c r="AR28" s="120"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+      <c r="AP28" s="111"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="127"/>
-      <c r="AJ29" s="127"/>
-      <c r="AK29" s="127"/>
-      <c r="AL29" s="127"/>
-      <c r="AM29" s="127"/>
-      <c r="AN29" s="120"/>
-      <c r="AO29" s="120"/>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="120"/>
-      <c r="AR29" s="120"/>
-      <c r="AS29" s="120"/>
-      <c r="AT29" s="120"/>
-      <c r="AU29" s="120"/>
-      <c r="AV29" s="120"/>
-      <c r="AW29" s="120"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="111"/>
+      <c r="AP29" s="111"/>
+      <c r="AQ29" s="111"/>
+      <c r="AR29" s="111"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="127"/>
-      <c r="AJ30" s="127"/>
-      <c r="AK30" s="127"/>
-      <c r="AL30" s="127"/>
-      <c r="AM30" s="127"/>
-      <c r="AN30" s="120"/>
-      <c r="AO30" s="120"/>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="120"/>
-      <c r="AR30" s="120"/>
-      <c r="AS30" s="120"/>
-      <c r="AT30" s="120"/>
-      <c r="AU30" s="120"/>
-      <c r="AV30" s="120"/>
-      <c r="AW30" s="120"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="111"/>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="111"/>
+      <c r="AQ30" s="111"/>
+      <c r="AR30" s="111"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="127"/>
-      <c r="AJ31" s="127"/>
-      <c r="AK31" s="127"/>
-      <c r="AL31" s="127"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="120"/>
-      <c r="AO31" s="120"/>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="120"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="120"/>
-      <c r="AU31" s="120"/>
-      <c r="AV31" s="120"/>
-      <c r="AW31" s="120"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="111"/>
+      <c r="AO31" s="111"/>
+      <c r="AP31" s="111"/>
+      <c r="AQ31" s="111"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="120"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="120"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="120"/>
-      <c r="AU32" s="120"/>
-      <c r="AV32" s="120"/>
-      <c r="AW32" s="120"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="111"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="127"/>
-      <c r="AJ33" s="127"/>
-      <c r="AK33" s="127"/>
-      <c r="AL33" s="127"/>
-      <c r="AM33" s="127"/>
-      <c r="AN33" s="120"/>
-      <c r="AO33" s="120"/>
-      <c r="AP33" s="120"/>
-      <c r="AQ33" s="120"/>
-      <c r="AR33" s="120"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="120"/>
-      <c r="AU33" s="120"/>
-      <c r="AV33" s="120"/>
-      <c r="AW33" s="120"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="111"/>
+      <c r="AT33" s="111"/>
+      <c r="AU33" s="111"/>
+      <c r="AV33" s="111"/>
+      <c r="AW33" s="111"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="134"/>
-      <c r="P34" s="134"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="134"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="127"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="127"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="127"/>
-      <c r="AH34" s="127"/>
-      <c r="AI34" s="127"/>
-      <c r="AJ34" s="127"/>
-      <c r="AK34" s="127"/>
-      <c r="AL34" s="127"/>
-      <c r="AM34" s="127"/>
-      <c r="AN34" s="120"/>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="120"/>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="120"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="111"/>
+      <c r="AW34" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5961,239 +6164,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6274,14 +6244,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="142">
+      <c r="AO1" s="138">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="144"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="140"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6290,17 +6260,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="139" t="str">
+      <c r="AZ1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="141"/>
+      <c r="BA1" s="146"/>
+      <c r="BB1" s="146"/>
+      <c r="BC1" s="146"/>
+      <c r="BD1" s="146"/>
+      <c r="BE1" s="146"/>
+      <c r="BF1" s="146"/>
+      <c r="BG1" s="147"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6353,11 +6323,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="143"/>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="144"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="140"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6366,14 +6336,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="140"/>
-      <c r="BE2" s="140"/>
-      <c r="BF2" s="140"/>
-      <c r="BG2" s="141"/>
+      <c r="AZ2" s="145"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="146"/>
+      <c r="BD2" s="146"/>
+      <c r="BE2" s="146"/>
+      <c r="BF2" s="146"/>
+      <c r="BG2" s="147"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7594,10 +7564,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="146"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7680,10 +7650,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="135">
+      <c r="B42" s="143">
         <v>1</v>
       </c>
-      <c r="C42" s="136"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7715,16 +7685,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="137" t="s">
+      <c r="AE42" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="137"/>
-      <c r="AH42" s="138"/>
-      <c r="AI42" s="137"/>
-      <c r="AJ42" s="138"/>
-      <c r="AK42" s="137"/>
-      <c r="AL42" s="138"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="137"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="137"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="137"/>
       <c r="AM42" s="83" t="s">
         <v>111</v>
       </c>
@@ -7758,10 +7728,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="135">
+      <c r="B43" s="143">
         <v>1</v>
       </c>
-      <c r="C43" s="136"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="93" t="s">
         <v>94</v>
       </c>
@@ -7793,16 +7763,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="137" t="s">
+      <c r="AE43" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="137"/>
-      <c r="AH43" s="138"/>
-      <c r="AI43" s="137"/>
-      <c r="AJ43" s="138"/>
-      <c r="AK43" s="137"/>
-      <c r="AL43" s="138"/>
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="137"/>
       <c r="AM43" s="83" t="s">
         <v>141</v>
       </c>
@@ -7836,10 +7806,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="135">
+      <c r="B44" s="143">
         <v>2</v>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="144"/>
       <c r="D44" s="82" t="s">
         <v>109</v>
       </c>
@@ -7871,16 +7841,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="137" t="s">
+      <c r="AE44" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="138"/>
-      <c r="AG44" s="137"/>
-      <c r="AH44" s="138"/>
-      <c r="AI44" s="137"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="137"/>
-      <c r="AL44" s="138"/>
+      <c r="AF44" s="137"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="137"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="137"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="137"/>
       <c r="AM44" s="83" t="s">
         <v>110</v>
       </c>
@@ -7919,14 +7889,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK44:AL44"/>
@@ -7939,6 +7901,14 @@
     <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="AG43:AH43"/>
     <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE44:AF44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7959,7 +7929,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DI5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft"/>
@@ -8062,20 +8032,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="142">
+      <c r="CD1" s="138">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="149"/>
-      <c r="CF1" s="149"/>
-      <c r="CG1" s="149"/>
-      <c r="CH1" s="149"/>
-      <c r="CI1" s="149"/>
-      <c r="CJ1" s="149"/>
-      <c r="CK1" s="149"/>
-      <c r="CL1" s="149"/>
-      <c r="CM1" s="149"/>
-      <c r="CN1" s="150"/>
+      <c r="CE1" s="150"/>
+      <c r="CF1" s="150"/>
+      <c r="CG1" s="150"/>
+      <c r="CH1" s="150"/>
+      <c r="CI1" s="150"/>
+      <c r="CJ1" s="150"/>
+      <c r="CK1" s="150"/>
+      <c r="CL1" s="150"/>
+      <c r="CM1" s="150"/>
+      <c r="CN1" s="151"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8084,23 +8054,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="139" t="str">
+      <c r="CU1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="147"/>
-      <c r="CW1" s="147"/>
-      <c r="CX1" s="147"/>
-      <c r="CY1" s="147"/>
-      <c r="CZ1" s="147"/>
-      <c r="DA1" s="147"/>
-      <c r="DB1" s="147"/>
-      <c r="DC1" s="147"/>
-      <c r="DD1" s="147"/>
-      <c r="DE1" s="147"/>
-      <c r="DF1" s="147"/>
-      <c r="DG1" s="147"/>
-      <c r="DH1" s="148"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="148"/>
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148"/>
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148"/>
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="149"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8155,39 +8125,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="152" t="str">
+      <c r="AT2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="149"/>
-      <c r="BA2" s="149"/>
-      <c r="BB2" s="149"/>
-      <c r="BC2" s="149"/>
-      <c r="BD2" s="149"/>
-      <c r="BE2" s="149"/>
-      <c r="BF2" s="149"/>
-      <c r="BG2" s="149"/>
-      <c r="BH2" s="149"/>
-      <c r="BI2" s="149"/>
-      <c r="BJ2" s="149"/>
-      <c r="BK2" s="149"/>
-      <c r="BL2" s="149"/>
-      <c r="BM2" s="149"/>
-      <c r="BN2" s="149"/>
-      <c r="BO2" s="149"/>
-      <c r="BP2" s="149"/>
-      <c r="BQ2" s="149"/>
-      <c r="BR2" s="149"/>
-      <c r="BS2" s="149"/>
-      <c r="BT2" s="149"/>
-      <c r="BU2" s="149"/>
-      <c r="BV2" s="149"/>
-      <c r="BW2" s="150"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="150"/>
+      <c r="BA2" s="150"/>
+      <c r="BB2" s="150"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="150"/>
+      <c r="BE2" s="150"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="150"/>
+      <c r="BH2" s="150"/>
+      <c r="BI2" s="150"/>
+      <c r="BJ2" s="150"/>
+      <c r="BK2" s="150"/>
+      <c r="BL2" s="150"/>
+      <c r="BM2" s="150"/>
+      <c r="BN2" s="150"/>
+      <c r="BO2" s="150"/>
+      <c r="BP2" s="150"/>
+      <c r="BQ2" s="150"/>
+      <c r="BR2" s="150"/>
+      <c r="BS2" s="150"/>
+      <c r="BT2" s="150"/>
+      <c r="BU2" s="150"/>
+      <c r="BV2" s="150"/>
+      <c r="BW2" s="151"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8196,17 +8166,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="151"/>
-      <c r="CE2" s="147"/>
-      <c r="CF2" s="147"/>
-      <c r="CG2" s="147"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="147"/>
-      <c r="CJ2" s="147"/>
-      <c r="CK2" s="147"/>
-      <c r="CL2" s="147"/>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="148"/>
+      <c r="CD2" s="152"/>
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="148"/>
+      <c r="CK2" s="148"/>
+      <c r="CL2" s="148"/>
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="149"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8215,20 +8185,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="139"/>
-      <c r="CV2" s="147"/>
-      <c r="CW2" s="147"/>
-      <c r="CX2" s="147"/>
-      <c r="CY2" s="147"/>
-      <c r="CZ2" s="147"/>
-      <c r="DA2" s="147"/>
-      <c r="DB2" s="147"/>
-      <c r="DC2" s="147"/>
-      <c r="DD2" s="147"/>
-      <c r="DE2" s="147"/>
-      <c r="DF2" s="147"/>
-      <c r="DG2" s="147"/>
-      <c r="DH2" s="148"/>
+      <c r="CU2" s="145"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="148"/>
+      <c r="DA2" s="148"/>
+      <c r="DB2" s="148"/>
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8431,37 +8401,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="153" t="s">
+      <c r="I6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="153" t="s">
+      <c r="J6" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="112" t="s">
+      <c r="K6" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8469,24 +8439,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="153" t="s">
+      <c r="Q6" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8496,7 +8466,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="153"/>
+      <c r="Q7" s="156"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8654,37 +8624,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="128" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="153" t="s">
+      <c r="J13" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="112" t="s">
+      <c r="K13" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="112" t="s">
+      <c r="L13" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8699,17 +8669,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="155"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8843,37 +8813,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="112" t="s">
+      <c r="H21" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="153" t="s">
+      <c r="I21" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="153" t="s">
+      <c r="J21" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="112" t="s">
+      <c r="L21" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -8881,24 +8851,24 @@
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
-      <c r="Q21" s="153" t="s">
+      <c r="Q21" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
       <c r="N22" s="42" t="s">
         <v>64</v>
       </c>
@@ -8908,7 +8878,7 @@
       <c r="P22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="153"/>
+      <c r="Q22" s="156"/>
     </row>
     <row r="23" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
@@ -9203,6 +9173,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I21:I22"/>
@@ -9219,26 +9209,6 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9315,14 +9285,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="142">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="149"/>
-      <c r="AM1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9331,16 +9301,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
-      <c r="AX1" s="147"/>
-      <c r="AY1" s="147"/>
-      <c r="AZ1" s="148"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9368,32 +9338,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="152" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="148"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9402,13 +9372,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="148"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9753,7 +9723,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="72"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="156" t="s">
+      <c r="M11" s="107" t="s">
         <v>176</v>
       </c>
       <c r="N11" s="94"/>
@@ -18553,14 +18523,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="142">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="149"/>
-      <c r="AM1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -18569,16 +18539,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
-      <c r="AX1" s="147"/>
-      <c r="AY1" s="147"/>
-      <c r="AZ1" s="148"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -18606,32 +18576,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="152" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="148"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -18640,13 +18610,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="148"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -23372,14 +23342,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="142">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="149"/>
-      <c r="AM1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -23388,16 +23358,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
-      <c r="AX1" s="147"/>
-      <c r="AY1" s="147"/>
-      <c r="AZ1" s="148"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -23425,32 +23395,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="152" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="148"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -23459,13 +23429,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="148"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -34579,6 +34549,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34736,22 +34721,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34767,21 +34754,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91E529-EC3A-4595-A2C5-835E0FBF6DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A091F-982B-4A23-BA35-8D8E551B1C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2135,47 +2135,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,11 +2165,67 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2226,21 +2241,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2260,13 +2260,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3207,16 +3207,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>113156</xdr:colOff>
+      <xdr:colOff>94108</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>199350</xdr:rowOff>
+      <xdr:rowOff>180302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE42450-9B52-40D1-B826-289BB8AB39A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DAD5F0-A3D9-435B-9B2F-082B5B1E86DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,7 +3233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="9152381" cy="5400000"/>
+          <a:ext cx="9133333" cy="5380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4151,1779 +4151,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="130" t="s">
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="128" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128" t="s">
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128" t="s">
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128" t="s">
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="112">
+      <c r="B5" s="122">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123">
         <v>43725</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="111" t="s">
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="123" t="s">
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="111" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
       <c r="Q6" s="125"/>
       <c r="R6" s="125"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="125"/>
       <c r="N8" s="125"/>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="121"/>
+      <c r="AO8" s="121"/>
+      <c r="AP8" s="121"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="125"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="121"/>
+      <c r="AP9" s="121"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="121"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
       <c r="M10" s="125"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="121"/>
+      <c r="AO10" s="121"/>
+      <c r="AP10" s="121"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="121"/>
+      <c r="AV10" s="121"/>
+      <c r="AW10" s="121"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="128"/>
+      <c r="AK13" s="128"/>
+      <c r="AL13" s="128"/>
+      <c r="AM13" s="128"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="128"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="128"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="128"/>
+      <c r="AJ16" s="128"/>
+      <c r="AK16" s="128"/>
+      <c r="AL16" s="128"/>
+      <c r="AM16" s="128"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="128"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="121"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="121"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="111"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="128"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128"/>
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="121"/>
+      <c r="AO18" s="121"/>
+      <c r="AP18" s="121"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="121"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="121"/>
+      <c r="AV18" s="121"/>
+      <c r="AW18" s="121"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="128"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="121"/>
+      <c r="AO19" s="121"/>
+      <c r="AP19" s="121"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="121"/>
+      <c r="AS19" s="121"/>
+      <c r="AT19" s="121"/>
+      <c r="AU19" s="121"/>
+      <c r="AV19" s="121"/>
+      <c r="AW19" s="121"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="121"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="121"/>
+      <c r="AS20" s="121"/>
+      <c r="AT20" s="121"/>
+      <c r="AU20" s="121"/>
+      <c r="AV20" s="121"/>
+      <c r="AW20" s="121"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="111"/>
-      <c r="AO21" s="111"/>
-      <c r="AP21" s="111"/>
-      <c r="AQ21" s="111"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="111"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="111"/>
-      <c r="AW21" s="111"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="121"/>
+      <c r="AO21" s="121"/>
+      <c r="AP21" s="121"/>
+      <c r="AQ21" s="121"/>
+      <c r="AR21" s="121"/>
+      <c r="AS21" s="121"/>
+      <c r="AT21" s="121"/>
+      <c r="AU21" s="121"/>
+      <c r="AV21" s="121"/>
+      <c r="AW21" s="121"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="111"/>
-      <c r="AQ22" s="111"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="111"/>
-      <c r="AW22" s="111"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="121"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="121"/>
+      <c r="AQ22" s="121"/>
+      <c r="AR22" s="121"/>
+      <c r="AS22" s="121"/>
+      <c r="AT22" s="121"/>
+      <c r="AU22" s="121"/>
+      <c r="AV22" s="121"/>
+      <c r="AW22" s="121"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111"/>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="121"/>
+      <c r="AO23" s="121"/>
+      <c r="AP23" s="121"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="121"/>
+      <c r="AS23" s="121"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="121"/>
+      <c r="AV23" s="121"/>
+      <c r="AW23" s="121"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="128"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="128"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="121"/>
+      <c r="AS24" s="121"/>
+      <c r="AT24" s="121"/>
+      <c r="AU24" s="121"/>
+      <c r="AV24" s="121"/>
+      <c r="AW24" s="121"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="111"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="121"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="121"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="121"/>
+      <c r="AS25" s="121"/>
+      <c r="AT25" s="121"/>
+      <c r="AU25" s="121"/>
+      <c r="AV25" s="121"/>
+      <c r="AW25" s="121"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="111"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="111"/>
-      <c r="AQ26" s="111"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="111"/>
-      <c r="AU26" s="111"/>
-      <c r="AV26" s="111"/>
-      <c r="AW26" s="111"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="121"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="121"/>
+      <c r="AQ26" s="121"/>
+      <c r="AR26" s="121"/>
+      <c r="AS26" s="121"/>
+      <c r="AT26" s="121"/>
+      <c r="AU26" s="121"/>
+      <c r="AV26" s="121"/>
+      <c r="AW26" s="121"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="128"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="128"/>
+      <c r="AM27" s="128"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="121"/>
+      <c r="AP27" s="121"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="121"/>
+      <c r="AS27" s="121"/>
+      <c r="AT27" s="121"/>
+      <c r="AU27" s="121"/>
+      <c r="AV27" s="121"/>
+      <c r="AW27" s="121"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="111"/>
-      <c r="AP28" s="111"/>
-      <c r="AQ28" s="111"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="121"/>
+      <c r="AO28" s="121"/>
+      <c r="AP28" s="121"/>
+      <c r="AQ28" s="121"/>
+      <c r="AR28" s="121"/>
+      <c r="AS28" s="121"/>
+      <c r="AT28" s="121"/>
+      <c r="AU28" s="121"/>
+      <c r="AV28" s="121"/>
+      <c r="AW28" s="121"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="111"/>
-      <c r="AO29" s="111"/>
-      <c r="AP29" s="111"/>
-      <c r="AQ29" s="111"/>
-      <c r="AR29" s="111"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="111"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="111"/>
-      <c r="AW29" s="111"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="128"/>
+      <c r="AM29" s="128"/>
+      <c r="AN29" s="121"/>
+      <c r="AO29" s="121"/>
+      <c r="AP29" s="121"/>
+      <c r="AQ29" s="121"/>
+      <c r="AR29" s="121"/>
+      <c r="AS29" s="121"/>
+      <c r="AT29" s="121"/>
+      <c r="AU29" s="121"/>
+      <c r="AV29" s="121"/>
+      <c r="AW29" s="121"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="111"/>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="111"/>
-      <c r="AQ30" s="111"/>
-      <c r="AR30" s="111"/>
-      <c r="AS30" s="111"/>
-      <c r="AT30" s="111"/>
-      <c r="AU30" s="111"/>
-      <c r="AV30" s="111"/>
-      <c r="AW30" s="111"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="128"/>
+      <c r="AK30" s="128"/>
+      <c r="AL30" s="128"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="121"/>
+      <c r="AO30" s="121"/>
+      <c r="AP30" s="121"/>
+      <c r="AQ30" s="121"/>
+      <c r="AR30" s="121"/>
+      <c r="AS30" s="121"/>
+      <c r="AT30" s="121"/>
+      <c r="AU30" s="121"/>
+      <c r="AV30" s="121"/>
+      <c r="AW30" s="121"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="117"/>
-      <c r="AG31" s="117"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="111"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="111"/>
-      <c r="AQ31" s="111"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="128"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="128"/>
+      <c r="AM31" s="128"/>
+      <c r="AN31" s="121"/>
+      <c r="AO31" s="121"/>
+      <c r="AP31" s="121"/>
+      <c r="AQ31" s="121"/>
+      <c r="AR31" s="121"/>
+      <c r="AS31" s="121"/>
+      <c r="AT31" s="121"/>
+      <c r="AU31" s="121"/>
+      <c r="AV31" s="121"/>
+      <c r="AW31" s="121"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="117"/>
-      <c r="AG32" s="117"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="111"/>
-      <c r="AQ32" s="111"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="121"/>
+      <c r="AO32" s="121"/>
+      <c r="AP32" s="121"/>
+      <c r="AQ32" s="121"/>
+      <c r="AR32" s="121"/>
+      <c r="AS32" s="121"/>
+      <c r="AT32" s="121"/>
+      <c r="AU32" s="121"/>
+      <c r="AV32" s="121"/>
+      <c r="AW32" s="121"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="111"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="111"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="111"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="111"/>
-      <c r="AW33" s="111"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="128"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="121"/>
+      <c r="AS33" s="121"/>
+      <c r="AT33" s="121"/>
+      <c r="AU33" s="121"/>
+      <c r="AV33" s="121"/>
+      <c r="AW33" s="121"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="111"/>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="111"/>
-      <c r="AQ34" s="111"/>
-      <c r="AR34" s="111"/>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="111"/>
-      <c r="AU34" s="111"/>
-      <c r="AV34" s="111"/>
-      <c r="AW34" s="111"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="128"/>
+      <c r="AJ34" s="128"/>
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="128"/>
+      <c r="AM34" s="128"/>
+      <c r="AN34" s="121"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="121"/>
+      <c r="AQ34" s="121"/>
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="121"/>
+      <c r="AU34" s="121"/>
+      <c r="AV34" s="121"/>
+      <c r="AW34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5940,230 +6155,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6244,14 +6244,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="138">
+      <c r="AO1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="140"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
+      <c r="AR1" s="144"/>
+      <c r="AS1" s="145"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6260,17 +6260,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="145" t="str">
+      <c r="AZ1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="146"/>
-      <c r="BB1" s="146"/>
-      <c r="BC1" s="146"/>
-      <c r="BD1" s="146"/>
-      <c r="BE1" s="146"/>
-      <c r="BF1" s="146"/>
-      <c r="BG1" s="147"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="138"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6323,11 +6323,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="140"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="145"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6336,14 +6336,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="146"/>
-      <c r="BB2" s="146"/>
-      <c r="BC2" s="146"/>
-      <c r="BD2" s="146"/>
-      <c r="BE2" s="146"/>
-      <c r="BF2" s="146"/>
-      <c r="BG2" s="147"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="137"/>
+      <c r="BD2" s="137"/>
+      <c r="BE2" s="137"/>
+      <c r="BF2" s="137"/>
+      <c r="BG2" s="138"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="147"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7650,10 +7650,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="143">
+      <c r="B42" s="141">
         <v>1</v>
       </c>
-      <c r="C42" s="144"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7685,16 +7685,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="136" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="137"/>
-      <c r="AG42" s="136"/>
-      <c r="AH42" s="137"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="137"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
         <v>111</v>
       </c>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="143">
+      <c r="B43" s="141">
         <v>1</v>
       </c>
-      <c r="C43" s="144"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="93" t="s">
         <v>94</v>
       </c>
@@ -7763,16 +7763,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="136" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="137"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="137"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
         <v>141</v>
       </c>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="143">
+      <c r="B44" s="141">
         <v>2</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="82" t="s">
         <v>109</v>
       </c>
@@ -7841,16 +7841,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="136" t="s">
+      <c r="AE44" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="137"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="137"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="137"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="137"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="140"/>
       <c r="AM44" s="83" t="s">
         <v>110</v>
       </c>
@@ -7889,6 +7889,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK44:AL44"/>
@@ -7905,10 +7909,6 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE44:AF44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8032,7 +8032,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="138">
+      <c r="CD1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="145" t="str">
+      <c r="CU1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="145"/>
+      <c r="CU2" s="136"/>
       <c r="CV2" s="148"/>
       <c r="CW2" s="148"/>
       <c r="CX2" s="148"/>
@@ -8401,37 +8401,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="156" t="s">
+      <c r="J6" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8439,24 +8439,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="156" t="s">
+      <c r="Q6" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="156"/>
+      <c r="Q7" s="154"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8624,37 +8624,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="128" t="s">
+      <c r="E13" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="128" t="s">
+      <c r="F13" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="128" t="s">
+      <c r="H13" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="154" t="s">
+      <c r="I13" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="156" t="s">
+      <c r="J13" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="128" t="s">
+      <c r="L13" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="128" t="s">
+      <c r="M13" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8662,24 +8662,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="154" t="s">
+      <c r="Q13" s="155" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8689,7 +8689,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="155"/>
+      <c r="Q14" s="156"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -8813,37 +8813,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="E21" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="128" t="s">
+      <c r="F21" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="128" t="s">
+      <c r="G21" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="156" t="s">
+      <c r="I21" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="156" t="s">
+      <c r="J21" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="128" t="s">
+      <c r="K21" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="128" t="s">
+      <c r="L21" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="128" t="s">
+      <c r="M21" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -8851,24 +8851,24 @@
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
-      <c r="Q21" s="156" t="s">
+      <c r="Q21" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="42" t="s">
         <v>64</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="P22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="156"/>
+      <c r="Q22" s="154"/>
     </row>
     <row r="23" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
@@ -9173,26 +9173,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I21:I22"/>
@@ -9209,6 +9189,26 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9285,7 +9285,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -9301,7 +9301,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -18523,7 +18523,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -18539,7 +18539,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -18610,7 +18610,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -23342,7 +23342,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -23358,7 +23358,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -23429,7 +23429,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -34555,15 +34555,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34721,6 +34712,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -34731,14 +34731,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34754,4 +34746,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A091F-982B-4A23-BA35-8D8E551B1C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7201B-87DC-4D32-828F-8EE03EB14EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="187">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -798,36 +798,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>＜利用テーブル＞</t>
-    <rPh sb="1" eb="3">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>＜結合条件＞</t>
-    <rPh sb="1" eb="3">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>＜主な検索項目＞</t>
-    <rPh sb="1" eb="2">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>＝</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -845,21 +815,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>＜集計項目＞</t>
-    <rPh sb="1" eb="3">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>W0008(対象データが存在しません。)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>yyyy/MM/dd</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -984,19 +940,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Withdrawal category</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Process code</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Process abbreviation</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Withdrawal count</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1038,10 +986,6 @@
   <si>
     <t>検索結果を表示する。</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・工程マスタ</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>画面．対象年月</t>
@@ -1106,18 +1050,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>品名マスタ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>品名略称を取得する</t>
     <rPh sb="5" eb="7">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・品名マスタ</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1132,10 +1068,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ASC</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1144,10 +1076,6 @@
     <rPh sb="0" eb="2">
       <t>コウジュン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DESC</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1171,16 +1099,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>品名マスタの品名略称</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>検索結果を昇順で表示する</t>
   </si>
   <si>
@@ -1189,14 +1107,6 @@
       <t>コウジュン</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・品名マスタ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>・品名マスタ.品名略称</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>昇順</t>
@@ -1268,43 +1178,13 @@
     <t>受払データ</t>
   </si>
   <si>
-    <t>受払データの工程コード</t>
-  </si>
-  <si>
-    <t>・受払データ.品名コード = 品名マスタ.品名コード</t>
-  </si>
-  <si>
-    <t>・受払データ.工程コード = 工程マスタ.工程コード</t>
-  </si>
-  <si>
     <t>・受払データ.払出区分</t>
   </si>
   <si>
     <t>・受払データ.品名コード</t>
   </si>
   <si>
-    <t>・受払データ.工程コード</t>
-  </si>
-  <si>
-    <t>・受払データ.受払年月日</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.工程コード(昇順)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・受払データ.品名コード(昇順)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&lt;抽出項目&gt;</t>
-    <rPh sb="1" eb="3">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1316,19 +1196,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・品名マスタ.品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・工程マスタ.工程略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・count(*)</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1339,6 +1207,160 @@
     <rPh sb="2" eb="4">
       <t>ケンスウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Asc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Payment CD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Payment quantity total</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・生産品名マスタ</t>
+  </si>
+  <si>
+    <t>生産品名マスタ</t>
+  </si>
+  <si>
+    <t>生産品名マスタの品名略称</t>
+    <rPh sb="8" eb="10">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・生産品名マスタ.品名略称</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・COUNT(受払データ.品名コード)　AS 数量</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>＜検索項目＞</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>＜テーブル関係＞</t>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・LEFT JOIN 工程マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・LEFT JOIN 生産品名マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データ.品名コード = 生産品名マスタ.品名コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データ.大工程コード= 工程マスタ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>＜検索条件＞</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・受払データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>環境変数．事業所コード</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>＜集計条件＞</t>
+    <rPh sb="1" eb="3">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・受払データ.大工程コード(昇順)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※ 最大三つ項目の昇順を設定可能とする。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※ 最大三つ項目の降順を設定可能とする。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データの大工程コード</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払データ.受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'8'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・受払データ.受払年月日の年月</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1821,7 +1843,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2123,9 +2145,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2206,26 +2225,11 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2241,6 +2245,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2268,6 +2287,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3929,108 +3957,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
+      <c r="A32" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="107"/>
+      <c r="AJ32" s="107"/>
+      <c r="AK32" s="107"/>
+      <c r="AL32" s="107"/>
+      <c r="AM32" s="107"/>
+      <c r="AN32" s="107"/>
+      <c r="AO32" s="107"/>
+      <c r="AP32" s="107"/>
+      <c r="AQ32" s="107"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="107"/>
+      <c r="AT32" s="107"/>
+      <c r="AU32" s="107"/>
+      <c r="AV32" s="107"/>
+      <c r="AW32" s="107"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="109"/>
-      <c r="AP33" s="109"/>
-      <c r="AQ33" s="109"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="109"/>
-      <c r="AV33" s="109"/>
-      <c r="AW33" s="109"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="108"/>
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="108"/>
+      <c r="AP33" s="108"/>
+      <c r="AQ33" s="108"/>
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="108"/>
+      <c r="AU33" s="108"/>
+      <c r="AV33" s="108"/>
+      <c r="AW33" s="108"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4068,55 +4096,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="110"/>
-      <c r="AJ35" s="110"/>
-      <c r="AK35" s="110"/>
-      <c r="AL35" s="110"/>
-      <c r="AM35" s="110"/>
-      <c r="AN35" s="110"/>
-      <c r="AO35" s="110"/>
-      <c r="AP35" s="110"/>
-      <c r="AQ35" s="110"/>
-      <c r="AR35" s="110"/>
-      <c r="AS35" s="110"/>
-      <c r="AT35" s="110"/>
-      <c r="AU35" s="110"/>
-      <c r="AV35" s="110"/>
-      <c r="AW35" s="110"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="109"/>
+      <c r="AM35" s="109"/>
+      <c r="AN35" s="109"/>
+      <c r="AO35" s="109"/>
+      <c r="AP35" s="109"/>
+      <c r="AQ35" s="109"/>
+      <c r="AR35" s="109"/>
+      <c r="AS35" s="109"/>
+      <c r="AT35" s="109"/>
+      <c r="AU35" s="109"/>
+      <c r="AV35" s="109"/>
+      <c r="AW35" s="109"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4151,1767 +4179,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="110"/>
+      <c r="AW1" s="110"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="111"/>
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AU2" s="111"/>
+      <c r="AV2" s="111"/>
+      <c r="AW2" s="111"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="115" t="s">
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="113" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113" t="s">
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113" t="s">
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="112"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="112"/>
+      <c r="AL3" s="112"/>
+      <c r="AM3" s="112"/>
+      <c r="AN3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113" t="s">
+      <c r="AO3" s="112"/>
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="112"/>
+      <c r="AR3" s="112"/>
+      <c r="AS3" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="112"/>
+      <c r="AV3" s="112"/>
+      <c r="AW3" s="112"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="122">
+      <c r="B5" s="121">
         <v>1</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123">
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122">
         <v>43725</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124" t="s">
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="121" t="s">
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="121"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="125"/>
+      <c r="AN5" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120"/>
+      <c r="AW5" s="120"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="125"/>
+      <c r="AJ7" s="125"/>
+      <c r="AK7" s="125"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="125"/>
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="120"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="125"/>
+      <c r="AI8" s="125"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="125"/>
+      <c r="AL8" s="125"/>
+      <c r="AM8" s="125"/>
+      <c r="AN8" s="120"/>
+      <c r="AO8" s="120"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="120"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="125"/>
+      <c r="AJ9" s="125"/>
+      <c r="AK9" s="125"/>
+      <c r="AL9" s="125"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="120"/>
+      <c r="AO9" s="120"/>
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="120"/>
+      <c r="AR9" s="120"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="120"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="121"/>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="121"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="125"/>
+      <c r="AJ10" s="125"/>
+      <c r="AK10" s="125"/>
+      <c r="AL10" s="125"/>
+      <c r="AM10" s="125"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="120"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="120"/>
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="128"/>
+      <c r="AJ11" s="128"/>
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="128"/>
+      <c r="AM11" s="128"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="120"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="120"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="121"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="127"/>
+      <c r="AJ12" s="127"/>
+      <c r="AK12" s="127"/>
+      <c r="AL12" s="127"/>
+      <c r="AM12" s="127"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="121"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="127"/>
+      <c r="AJ13" s="127"/>
+      <c r="AK13" s="127"/>
+      <c r="AL13" s="127"/>
+      <c r="AM13" s="127"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="121"/>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="121"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="125"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="127"/>
+      <c r="AK15" s="127"/>
+      <c r="AL15" s="127"/>
+      <c r="AM15" s="127"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="128"/>
-      <c r="AL16" s="128"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="127"/>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="127"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="121"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="127"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="128"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="128"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="121"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="127"/>
+      <c r="AJ18" s="127"/>
+      <c r="AK18" s="127"/>
+      <c r="AL18" s="127"/>
+      <c r="AM18" s="127"/>
+      <c r="AN18" s="120"/>
+      <c r="AO18" s="120"/>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="120"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="120"/>
+      <c r="AU18" s="120"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="128"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="121"/>
-      <c r="AO19" s="121"/>
-      <c r="AP19" s="121"/>
-      <c r="AQ19" s="121"/>
-      <c r="AR19" s="121"/>
-      <c r="AS19" s="121"/>
-      <c r="AT19" s="121"/>
-      <c r="AU19" s="121"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="127"/>
+      <c r="AK19" s="127"/>
+      <c r="AL19" s="127"/>
+      <c r="AM19" s="127"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
-      <c r="AJ20" s="128"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="128"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="121"/>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="121"/>
-      <c r="AR20" s="121"/>
-      <c r="AS20" s="121"/>
-      <c r="AT20" s="121"/>
-      <c r="AU20" s="121"/>
-      <c r="AV20" s="121"/>
-      <c r="AW20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="121"/>
-      <c r="AO21" s="121"/>
-      <c r="AP21" s="121"/>
-      <c r="AQ21" s="121"/>
-      <c r="AR21" s="121"/>
-      <c r="AS21" s="121"/>
-      <c r="AT21" s="121"/>
-      <c r="AU21" s="121"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="127"/>
+      <c r="AK21" s="127"/>
+      <c r="AL21" s="127"/>
+      <c r="AM21" s="127"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="121"/>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="121"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="127"/>
+      <c r="AJ22" s="127"/>
+      <c r="AK22" s="127"/>
+      <c r="AL22" s="127"/>
+      <c r="AM22" s="127"/>
+      <c r="AN22" s="120"/>
+      <c r="AO22" s="120"/>
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="121"/>
-      <c r="AO23" s="121"/>
-      <c r="AP23" s="121"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="121"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="121"/>
-      <c r="AV23" s="121"/>
-      <c r="AW23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="127"/>
+      <c r="AJ23" s="127"/>
+      <c r="AK23" s="127"/>
+      <c r="AL23" s="127"/>
+      <c r="AM23" s="127"/>
+      <c r="AN23" s="120"/>
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
-      <c r="AJ24" s="128"/>
-      <c r="AK24" s="128"/>
-      <c r="AL24" s="128"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="121"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="121"/>
-      <c r="AR24" s="121"/>
-      <c r="AS24" s="121"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="121"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="127"/>
+      <c r="AI24" s="127"/>
+      <c r="AJ24" s="127"/>
+      <c r="AK24" s="127"/>
+      <c r="AL24" s="127"/>
+      <c r="AM24" s="127"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="121"/>
-      <c r="AO25" s="121"/>
-      <c r="AP25" s="121"/>
-      <c r="AQ25" s="121"/>
-      <c r="AR25" s="121"/>
-      <c r="AS25" s="121"/>
-      <c r="AT25" s="121"/>
-      <c r="AU25" s="121"/>
-      <c r="AV25" s="121"/>
-      <c r="AW25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="127"/>
+      <c r="AJ25" s="127"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="120"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="120"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="120"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="121"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="121"/>
-      <c r="AR26" s="121"/>
-      <c r="AS26" s="121"/>
-      <c r="AT26" s="121"/>
-      <c r="AU26" s="121"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="127"/>
+      <c r="AK26" s="127"/>
+      <c r="AL26" s="127"/>
+      <c r="AM26" s="127"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="120"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="120"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="128"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="121"/>
-      <c r="AO27" s="121"/>
-      <c r="AP27" s="121"/>
-      <c r="AQ27" s="121"/>
-      <c r="AR27" s="121"/>
-      <c r="AS27" s="121"/>
-      <c r="AT27" s="121"/>
-      <c r="AU27" s="121"/>
-      <c r="AV27" s="121"/>
-      <c r="AW27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="127"/>
+      <c r="AJ27" s="127"/>
+      <c r="AK27" s="127"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="127"/>
+      <c r="AN27" s="120"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="128"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="121"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="121"/>
-      <c r="AR28" s="121"/>
-      <c r="AS28" s="121"/>
-      <c r="AT28" s="121"/>
-      <c r="AU28" s="121"/>
-      <c r="AV28" s="121"/>
-      <c r="AW28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="127"/>
+      <c r="AJ28" s="127"/>
+      <c r="AK28" s="127"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="127"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
-      <c r="AJ29" s="128"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="128"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="121"/>
-      <c r="AO29" s="121"/>
-      <c r="AP29" s="121"/>
-      <c r="AQ29" s="121"/>
-      <c r="AR29" s="121"/>
-      <c r="AS29" s="121"/>
-      <c r="AT29" s="121"/>
-      <c r="AU29" s="121"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="127"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="127"/>
+      <c r="AH29" s="127"/>
+      <c r="AI29" s="127"/>
+      <c r="AJ29" s="127"/>
+      <c r="AK29" s="127"/>
+      <c r="AL29" s="127"/>
+      <c r="AM29" s="127"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="121"/>
-      <c r="AR30" s="121"/>
-      <c r="AS30" s="121"/>
-      <c r="AT30" s="121"/>
-      <c r="AU30" s="121"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="127"/>
+      <c r="AH30" s="127"/>
+      <c r="AI30" s="127"/>
+      <c r="AJ30" s="127"/>
+      <c r="AK30" s="127"/>
+      <c r="AL30" s="127"/>
+      <c r="AM30" s="127"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="120"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="128"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="128"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
-      <c r="AU31" s="121"/>
-      <c r="AV31" s="121"/>
-      <c r="AW31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="127"/>
+      <c r="AI31" s="127"/>
+      <c r="AJ31" s="127"/>
+      <c r="AK31" s="127"/>
+      <c r="AL31" s="127"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="120"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="120"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="128"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="121"/>
-      <c r="AO32" s="121"/>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="121"/>
-      <c r="AT32" s="121"/>
-      <c r="AU32" s="121"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="120"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
-      <c r="AU33" s="121"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="127"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="127"/>
+      <c r="AJ33" s="127"/>
+      <c r="AK33" s="127"/>
+      <c r="AL33" s="127"/>
+      <c r="AM33" s="127"/>
+      <c r="AN33" s="120"/>
+      <c r="AO33" s="120"/>
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="120"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
-      <c r="AJ34" s="128"/>
-      <c r="AK34" s="128"/>
-      <c r="AL34" s="128"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="121"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="121"/>
-      <c r="AU34" s="121"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="127"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="127"/>
+      <c r="AH34" s="127"/>
+      <c r="AI34" s="127"/>
+      <c r="AJ34" s="127"/>
+      <c r="AK34" s="127"/>
+      <c r="AL34" s="127"/>
+      <c r="AM34" s="127"/>
+      <c r="AN34" s="120"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -6244,14 +6272,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="143">
+      <c r="AO1" s="137">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="144"/>
-      <c r="AQ1" s="144"/>
-      <c r="AR1" s="144"/>
-      <c r="AS1" s="145"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="139"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6260,17 +6288,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="136" t="str">
+      <c r="AZ1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="138"/>
+      <c r="BA1" s="145"/>
+      <c r="BB1" s="145"/>
+      <c r="BC1" s="145"/>
+      <c r="BD1" s="145"/>
+      <c r="BE1" s="145"/>
+      <c r="BF1" s="145"/>
+      <c r="BG1" s="146"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6295,14 +6323,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -6323,11 +6351,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="145"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="139"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6336,14 +6364,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="138"/>
+      <c r="AZ2" s="144"/>
+      <c r="BA2" s="145"/>
+      <c r="BB2" s="145"/>
+      <c r="BC2" s="145"/>
+      <c r="BD2" s="145"/>
+      <c r="BE2" s="145"/>
+      <c r="BF2" s="145"/>
+      <c r="BG2" s="146"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6424,7 +6452,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -7195,7 +7223,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -7276,11 +7304,11 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S32" s="9"/>
       <c r="AD32" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
@@ -7360,7 +7388,7 @@
     </row>
     <row r="36" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L36" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -7369,7 +7397,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -7386,7 +7414,7 @@
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7564,10 +7592,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="147"/>
+      <c r="C41" s="141"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7650,10 +7678,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="141">
+      <c r="B42" s="142">
         <v>1</v>
       </c>
-      <c r="C42" s="142"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7664,7 +7692,7 @@
       <c r="I42" s="86"/>
       <c r="J42" s="102"/>
       <c r="K42" s="101" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L42" s="86"/>
       <c r="M42" s="86"/>
@@ -7685,18 +7713,18 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="135"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="135"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="135"/>
+      <c r="AL42" s="136"/>
       <c r="AM42" s="83" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AN42" s="84"/>
       <c r="AO42" s="84"/>
@@ -7728,10 +7756,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="141">
+      <c r="B43" s="142">
         <v>1</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="143"/>
       <c r="D43" s="93" t="s">
         <v>94</v>
       </c>
@@ -7742,7 +7770,7 @@
       <c r="I43" s="86"/>
       <c r="J43" s="87"/>
       <c r="K43" s="82" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -7763,18 +7791,18 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="135"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="135"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="135"/>
+      <c r="AL43" s="136"/>
       <c r="AM43" s="83" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN43" s="84"/>
       <c r="AO43" s="84"/>
@@ -7806,12 +7834,12 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="141">
+      <c r="B44" s="142">
         <v>2</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="143"/>
       <c r="D44" s="82" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
@@ -7820,7 +7848,7 @@
       <c r="I44" s="86"/>
       <c r="J44" s="87"/>
       <c r="K44" s="82" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
@@ -7841,18 +7869,18 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="139" t="s">
+      <c r="AE44" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="140"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="135"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="135"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="135"/>
+      <c r="AL44" s="136"/>
       <c r="AM44" s="83" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AN44" s="84"/>
       <c r="AO44" s="84"/>
@@ -7889,10 +7917,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK44:AL44"/>
@@ -7909,6 +7933,10 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE44:AF44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8032,20 +8060,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="143">
+      <c r="CD1" s="137">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="150"/>
-      <c r="CF1" s="150"/>
-      <c r="CG1" s="150"/>
-      <c r="CH1" s="150"/>
-      <c r="CI1" s="150"/>
-      <c r="CJ1" s="150"/>
-      <c r="CK1" s="150"/>
-      <c r="CL1" s="150"/>
-      <c r="CM1" s="150"/>
-      <c r="CN1" s="151"/>
+      <c r="CE1" s="149"/>
+      <c r="CF1" s="149"/>
+      <c r="CG1" s="149"/>
+      <c r="CH1" s="149"/>
+      <c r="CI1" s="149"/>
+      <c r="CJ1" s="149"/>
+      <c r="CK1" s="149"/>
+      <c r="CL1" s="149"/>
+      <c r="CM1" s="149"/>
+      <c r="CN1" s="150"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8054,23 +8082,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="136" t="str">
+      <c r="CU1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="148"/>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148"/>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148"/>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148"/>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="149"/>
+      <c r="CV1" s="147"/>
+      <c r="CW1" s="147"/>
+      <c r="CX1" s="147"/>
+      <c r="CY1" s="147"/>
+      <c r="CZ1" s="147"/>
+      <c r="DA1" s="147"/>
+      <c r="DB1" s="147"/>
+      <c r="DC1" s="147"/>
+      <c r="DD1" s="147"/>
+      <c r="DE1" s="147"/>
+      <c r="DF1" s="147"/>
+      <c r="DG1" s="147"/>
+      <c r="DH1" s="148"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8125,39 +8153,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="153" t="str">
+      <c r="AT2" s="152" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="150"/>
-      <c r="BI2" s="150"/>
-      <c r="BJ2" s="150"/>
-      <c r="BK2" s="150"/>
-      <c r="BL2" s="150"/>
-      <c r="BM2" s="150"/>
-      <c r="BN2" s="150"/>
-      <c r="BO2" s="150"/>
-      <c r="BP2" s="150"/>
-      <c r="BQ2" s="150"/>
-      <c r="BR2" s="150"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="150"/>
-      <c r="BV2" s="150"/>
-      <c r="BW2" s="151"/>
+      <c r="AU2" s="149"/>
+      <c r="AV2" s="149"/>
+      <c r="AW2" s="149"/>
+      <c r="AX2" s="149"/>
+      <c r="AY2" s="149"/>
+      <c r="AZ2" s="149"/>
+      <c r="BA2" s="149"/>
+      <c r="BB2" s="149"/>
+      <c r="BC2" s="149"/>
+      <c r="BD2" s="149"/>
+      <c r="BE2" s="149"/>
+      <c r="BF2" s="149"/>
+      <c r="BG2" s="149"/>
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="149"/>
+      <c r="BL2" s="149"/>
+      <c r="BM2" s="149"/>
+      <c r="BN2" s="149"/>
+      <c r="BO2" s="149"/>
+      <c r="BP2" s="149"/>
+      <c r="BQ2" s="149"/>
+      <c r="BR2" s="149"/>
+      <c r="BS2" s="149"/>
+      <c r="BT2" s="149"/>
+      <c r="BU2" s="149"/>
+      <c r="BV2" s="149"/>
+      <c r="BW2" s="150"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8166,17 +8194,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="152"/>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="148"/>
-      <c r="CK2" s="148"/>
-      <c r="CL2" s="148"/>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="149"/>
+      <c r="CD2" s="151"/>
+      <c r="CE2" s="147"/>
+      <c r="CF2" s="147"/>
+      <c r="CG2" s="147"/>
+      <c r="CH2" s="147"/>
+      <c r="CI2" s="147"/>
+      <c r="CJ2" s="147"/>
+      <c r="CK2" s="147"/>
+      <c r="CL2" s="147"/>
+      <c r="CM2" s="147"/>
+      <c r="CN2" s="148"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8185,20 +8213,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="136"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="148"/>
-      <c r="DA2" s="148"/>
-      <c r="DB2" s="148"/>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
+      <c r="CU2" s="144"/>
+      <c r="CV2" s="147"/>
+      <c r="CW2" s="147"/>
+      <c r="CX2" s="147"/>
+      <c r="CY2" s="147"/>
+      <c r="CZ2" s="147"/>
+      <c r="DA2" s="147"/>
+      <c r="DB2" s="147"/>
+      <c r="DC2" s="147"/>
+      <c r="DD2" s="147"/>
+      <c r="DE2" s="147"/>
+      <c r="DF2" s="147"/>
+      <c r="DG2" s="147"/>
+      <c r="DH2" s="148"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8281,7 +8309,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A1:XFD4"/>
@@ -8401,37 +8429,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="112" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8439,24 +8467,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="153" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8466,7 +8494,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="154"/>
+      <c r="Q7" s="153"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8478,10 +8506,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8521,16 +8549,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>33</v>
@@ -8560,7 +8588,7 @@
         <v>33</v>
       </c>
       <c r="Q9" s="106" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -8569,16 +8597,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>33</v>
@@ -8608,7 +8636,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="106" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -8624,37 +8652,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="155" t="s">
+      <c r="I13" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="113" t="s">
+      <c r="K13" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="113" t="s">
+      <c r="L13" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="113" t="s">
+      <c r="M13" s="112" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8662,24 +8690,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="155" t="s">
+      <c r="Q13" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8689,7 +8717,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="156"/>
+      <c r="Q14" s="155"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -8701,10 +8729,10 @@
         <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>96</v>
@@ -8719,10 +8747,10 @@
         <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>34</v>
@@ -8750,10 +8778,10 @@
         <v>98</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>96</v>
@@ -8771,7 +8799,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>33</v>
@@ -8791,7 +8819,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C17" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -8813,37 +8841,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="154" t="s">
+      <c r="I21" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="113" t="s">
+      <c r="L21" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="113" t="s">
+      <c r="M21" s="112" t="s">
         <v>32</v>
       </c>
       <c r="N21" s="68" t="s">
@@ -8851,24 +8879,24 @@
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
-      <c r="Q21" s="154" t="s">
+      <c r="Q21" s="153" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
       <c r="N22" s="42" t="s">
         <v>64</v>
       </c>
@@ -8878,7 +8906,7 @@
       <c r="P22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="154"/>
+      <c r="Q22" s="153"/>
     </row>
     <row r="23" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
@@ -8960,10 +8988,10 @@
         <v>49</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>42</v>
@@ -8993,7 +9021,7 @@
         <v>34</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>34</v>
@@ -9009,10 +9037,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>42</v>
@@ -9042,7 +9070,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -9058,10 +9086,10 @@
         <v>51</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -9091,7 +9119,7 @@
         <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -9104,13 +9132,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>42</v>
@@ -9139,11 +9167,11 @@
       <c r="O28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9285,14 +9313,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="137">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="150"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9301,16 +9329,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
+      <c r="AX1" s="147"/>
+      <c r="AY1" s="147"/>
+      <c r="AZ1" s="148"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9338,32 +9366,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="152" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="148"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9372,13 +9400,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="148"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9572,7 +9600,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
       <c r="L8" s="21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -9623,7 +9651,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="72"/>
       <c r="L9" s="23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -9723,8 +9751,8 @@
       <c r="J11" s="23"/>
       <c r="K11" s="72"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="107" t="s">
-        <v>176</v>
+      <c r="M11" s="94" t="s">
+        <v>169</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9769,7 +9797,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="23"/>
       <c r="N12" s="94" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O12" s="94"/>
       <c r="P12" s="94"/>
@@ -9813,7 +9841,7 @@
       <c r="K13" s="72"/>
       <c r="L13" s="23"/>
       <c r="N13" s="94" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="O13" s="94"/>
       <c r="P13" s="94"/>
@@ -9901,7 +9929,7 @@
       <c r="K15" s="72"/>
       <c r="L15" s="23"/>
       <c r="N15" s="94" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="O15" s="94"/>
       <c r="P15" s="94"/>
@@ -9945,7 +9973,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="23"/>
       <c r="N16" s="94" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="O16" s="94"/>
       <c r="P16" s="94"/>
@@ -10031,7 +10059,7 @@
       <c r="K18" s="72"/>
       <c r="L18" s="23"/>
       <c r="M18" s="94" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="N18" s="94"/>
       <c r="O18" s="94"/>
@@ -10076,7 +10104,7 @@
       <c r="K19" s="72"/>
       <c r="L19" s="23"/>
       <c r="N19" s="94" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O19" s="94"/>
       <c r="P19" s="94"/>
@@ -10120,7 +10148,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="23"/>
       <c r="N20" s="94" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="O20" s="94"/>
       <c r="P20" s="94"/>
@@ -10163,10 +10191,10 @@
       <c r="J21" s="23"/>
       <c r="K21" s="72"/>
       <c r="L21" s="23"/>
-      <c r="N21" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="O21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94" t="s">
+        <v>174</v>
+      </c>
       <c r="P21" s="94"/>
       <c r="Q21" s="94"/>
       <c r="R21" s="94"/>
@@ -10207,8 +10235,9 @@
       <c r="J22" s="23"/>
       <c r="K22" s="72"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
+      <c r="N22" s="94" t="s">
+        <v>172</v>
+      </c>
       <c r="O22" s="94"/>
       <c r="P22" s="94"/>
       <c r="Q22" s="94"/>
@@ -10218,12 +10247,6 @@
       <c r="U22" s="94"/>
       <c r="V22" s="94"/>
       <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
@@ -10256,11 +10279,10 @@
       <c r="J23" s="23"/>
       <c r="K23" s="72"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="94" t="s">
-        <v>100</v>
-      </c>
       <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
+      <c r="O23" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="P23" s="94"/>
       <c r="Q23" s="94"/>
       <c r="R23" s="94"/>
@@ -10269,12 +10291,6 @@
       <c r="U23" s="94"/>
       <c r="V23" s="94"/>
       <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
@@ -10307,24 +10323,6 @@
       <c r="J24" s="23"/>
       <c r="K24" s="72"/>
       <c r="L24" s="23"/>
-      <c r="N24" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
@@ -10357,9 +10355,10 @@
       <c r="J25" s="23"/>
       <c r="K25" s="72"/>
       <c r="L25" s="23"/>
-      <c r="N25" s="94" t="s">
-        <v>169</v>
-      </c>
+      <c r="M25" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
       <c r="Q25" s="94"/>
@@ -10407,6 +10406,26 @@
       <c r="J26" s="23"/>
       <c r="K26" s="72"/>
       <c r="L26" s="23"/>
+      <c r="N26" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="X26" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y26" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
@@ -10430,19 +10449,13 @@
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="94"/>
+      <c r="L27" s="156"/>
+      <c r="N27" s="94" t="s">
+        <v>184</v>
+      </c>
       <c r="O27" s="94"/>
       <c r="P27" s="94"/>
       <c r="Q27" s="94"/>
@@ -10452,30 +10465,19 @@
       <c r="U27" s="94"/>
       <c r="V27" s="94"/>
       <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
+      <c r="X27" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y27" s="157" t="s">
+        <v>185</v>
+      </c>
       <c r="AA27" s="94"/>
       <c r="AB27" s="94"/>
       <c r="AC27" s="94"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="158"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10491,7 +10493,7 @@
       <c r="K28" s="72"/>
       <c r="L28" s="23"/>
       <c r="N28" s="94" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="O28" s="94"/>
       <c r="P28" s="94"/>
@@ -10502,10 +10504,10 @@
       <c r="U28" s="94"/>
       <c r="V28" s="94"/>
       <c r="X28" s="94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y28" s="94" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Z28" s="94"/>
       <c r="AA28" s="94"/>
@@ -10543,7 +10545,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="23"/>
       <c r="N29" s="94" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
@@ -10554,10 +10556,10 @@
       <c r="U29" s="94"/>
       <c r="V29" s="94"/>
       <c r="X29" s="94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y29" s="94" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Z29" s="94"/>
       <c r="AA29" s="94"/>
@@ -10622,7 +10624,7 @@
       <c r="G31" s="71"/>
       <c r="L31" s="71"/>
       <c r="M31" s="94" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="AM31" s="94"/>
       <c r="AN31" s="94"/>
@@ -10637,7 +10639,7 @@
       <c r="G32" s="71"/>
       <c r="L32" s="71"/>
       <c r="N32" s="94" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="AM32" s="94"/>
       <c r="AN32" s="94"/>
@@ -10652,7 +10654,7 @@
       <c r="G33" s="71"/>
       <c r="L33" s="71"/>
       <c r="N33" s="94" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM33" s="94"/>
       <c r="AN33" s="94"/>
@@ -10667,7 +10669,7 @@
       <c r="G34" s="71"/>
       <c r="L34" s="71"/>
       <c r="N34" s="94" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AM34" s="94"/>
       <c r="AN34" s="94"/>
@@ -10682,7 +10684,7 @@
       <c r="G35" s="71"/>
       <c r="L35" s="71"/>
       <c r="N35" s="94" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AM35" s="94"/>
       <c r="AN35" s="94"/>
@@ -10736,7 +10738,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="23"/>
       <c r="M37" s="94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
@@ -10771,7 +10773,7 @@
       <c r="K38" s="72"/>
       <c r="L38" s="23"/>
       <c r="N38" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
@@ -10806,7 +10808,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="23"/>
       <c r="N39" s="16" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
@@ -10882,20 +10884,20 @@
         <v>2</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
       <c r="G41" s="20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="22"/>
       <c r="L41" s="20" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
@@ -10939,10 +10941,12 @@
       <c r="C42" s="71"/>
       <c r="F42" s="72"/>
       <c r="G42" s="71" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K42" s="72"/>
-      <c r="L42" s="71"/>
+      <c r="L42" s="71" t="s">
+        <v>181</v>
+      </c>
       <c r="AV42" s="72"/>
     </row>
     <row r="43" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10994,20 +10998,20 @@
         <v>3</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
       <c r="G44" s="20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="22"/>
       <c r="L44" s="20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
@@ -11051,10 +11055,12 @@
       <c r="C45" s="71"/>
       <c r="F45" s="72"/>
       <c r="G45" s="71" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K45" s="72"/>
-      <c r="L45" s="71"/>
+      <c r="L45" s="71" t="s">
+        <v>182</v>
+      </c>
       <c r="AV45" s="72"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -11106,20 +11112,20 @@
         <v>4</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="22"/>
       <c r="G47" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="22"/>
       <c r="L47" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
@@ -18523,14 +18529,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="137">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="150"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -18539,16 +18545,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
+      <c r="AX1" s="147"/>
+      <c r="AY1" s="147"/>
+      <c r="AZ1" s="148"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -18576,32 +18582,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="152" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="148"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -18610,13 +18616,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="148"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -18882,7 +18888,7 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
@@ -18959,7 +18965,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -19063,7 +19069,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -19167,7 +19173,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
@@ -23342,14 +23348,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="137">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="150"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -23358,16 +23364,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
+      <c r="AX1" s="147"/>
+      <c r="AY1" s="147"/>
+      <c r="AZ1" s="148"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -23395,32 +23401,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="152" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="148"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -23429,13 +23435,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="148"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -23604,7 +23610,7 @@
     <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
       <c r="B6" s="32" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="53"/>

--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9F7A4B-929B-498D-BB11-DE57DA1BFA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29BC3E-3166-4AB5-A72F-7BAF7C497B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1105,13 +1105,6 @@
     <t>受払データ</t>
   </si>
   <si>
-    <t>・受払データ.払出区分</t>
-  </si>
-  <si>
-    <t>・受払データ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・工程マスタ.工程略称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1134,10 +1127,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・COUNT(受払データ.品名コード)　AS 数量</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>＜検索項目＞</t>
     <rPh sb="1" eb="3">
       <t>ケンサク</t>
@@ -1169,10 +1158,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・受払データ.事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>＜集計条件＞</t>
     <rPh sb="1" eb="3">
       <t>シュウケイ</t>
@@ -1183,14 +1168,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・受払データ.大工程コード(昇順)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>※ 最大三つ項目の昇順を設定可能とする。</t>
     <rPh sb="4" eb="5">
       <t>ミ</t>
@@ -1215,18 +1192,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・受払データ.受払区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.受払年月日の年月</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ON 受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程マスタ.大工程コード</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1252,10 +1217,6 @@
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.パック品名略称</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1294,26 +1255,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>受払データのパック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.製品半製品区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>パラメータ.対象年月</t>
     <rPh sb="6" eb="8">
       <t>タイショウ</t>
@@ -1339,6 +1280,202 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>※1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最新受払データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・RANK() OVER (PARTITION BY 事業所コード,個体NO ORDER BY シーケンス DESC) AS RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払年月日</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>＜利用テーブル＞</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>受払データ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・生産品名マスタ.品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・COUNT(最新受払データ.品名コード)　AS 数量</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ(※1)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払年月日の年月</t>
+    <rPh sb="15" eb="17">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.大工程コード(昇順)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・生産品名マスタ.品名略称(昇順)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・LEFT JOIN 生産品名マスタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 最新受払データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.品名略称</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1349,7 +1486,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +1717,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1827,7 +1971,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2144,6 +2288,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,47 +2359,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2269,14 +2413,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4160,1770 +4313,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="116" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="116" t="s">
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="114" t="s">
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114" t="s">
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114" t="s">
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114" t="s">
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="123">
+      <c r="B5" s="113">
         <v>1</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114">
         <v>43725</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125" t="s">
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="122" t="s">
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="127" t="s">
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="122" t="s">
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122"/>
-      <c r="AW5" s="122"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="126"/>
       <c r="N6" s="126"/>
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
       <c r="Q6" s="126"/>
       <c r="R6" s="126"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122"/>
-      <c r="AR6" s="122"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="122"/>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="122"/>
-      <c r="AW6" s="122"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="124"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="124"/>
+      <c r="AM6" s="124"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="126"/>
       <c r="N7" s="126"/>
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="126"/>
       <c r="R7" s="126"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="122"/>
-      <c r="AP7" s="122"/>
-      <c r="AQ7" s="122"/>
-      <c r="AR7" s="122"/>
-      <c r="AS7" s="122"/>
-      <c r="AT7" s="122"/>
-      <c r="AU7" s="122"/>
-      <c r="AV7" s="122"/>
-      <c r="AW7" s="122"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="126"/>
       <c r="N8" s="126"/>
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
       <c r="Q8" s="126"/>
       <c r="R8" s="126"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="122"/>
-      <c r="AO8" s="122"/>
-      <c r="AP8" s="122"/>
-      <c r="AQ8" s="122"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="122"/>
-      <c r="AU8" s="122"/>
-      <c r="AV8" s="122"/>
-      <c r="AW8" s="122"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="126"/>
       <c r="N9" s="126"/>
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
       <c r="Q9" s="126"/>
       <c r="R9" s="126"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="122"/>
-      <c r="AR9" s="122"/>
-      <c r="AS9" s="122"/>
-      <c r="AT9" s="122"/>
-      <c r="AU9" s="122"/>
-      <c r="AV9" s="122"/>
-      <c r="AW9" s="122"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112"/>
+      <c r="AQ9" s="112"/>
+      <c r="AR9" s="112"/>
+      <c r="AS9" s="112"/>
+      <c r="AT9" s="112"/>
+      <c r="AU9" s="112"/>
+      <c r="AV9" s="112"/>
+      <c r="AW9" s="112"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="126"/>
       <c r="N10" s="126"/>
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
       <c r="Q10" s="126"/>
       <c r="R10" s="126"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="122"/>
-      <c r="AO10" s="122"/>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="122"/>
-      <c r="AR10" s="122"/>
-      <c r="AS10" s="122"/>
-      <c r="AT10" s="122"/>
-      <c r="AU10" s="122"/>
-      <c r="AV10" s="122"/>
-      <c r="AW10" s="122"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="112"/>
+      <c r="AV10" s="112"/>
+      <c r="AW10" s="112"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="130"/>
-      <c r="AJ11" s="130"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="122"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="129"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="129"/>
-      <c r="AJ12" s="129"/>
-      <c r="AK12" s="129"/>
-      <c r="AL12" s="129"/>
-      <c r="AM12" s="129"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="122"/>
-      <c r="AP12" s="122"/>
-      <c r="AQ12" s="122"/>
-      <c r="AR12" s="122"/>
-      <c r="AS12" s="122"/>
-      <c r="AT12" s="122"/>
-      <c r="AU12" s="122"/>
-      <c r="AV12" s="122"/>
-      <c r="AW12" s="122"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="112"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="112"/>
+      <c r="AQ12" s="112"/>
+      <c r="AR12" s="112"/>
+      <c r="AS12" s="112"/>
+      <c r="AT12" s="112"/>
+      <c r="AU12" s="112"/>
+      <c r="AV12" s="112"/>
+      <c r="AW12" s="112"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="129"/>
-      <c r="AK13" s="129"/>
-      <c r="AL13" s="129"/>
-      <c r="AM13" s="129"/>
-      <c r="AN13" s="122"/>
-      <c r="AO13" s="122"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="122"/>
-      <c r="AR13" s="122"/>
-      <c r="AS13" s="122"/>
-      <c r="AT13" s="122"/>
-      <c r="AU13" s="122"/>
-      <c r="AV13" s="122"/>
-      <c r="AW13" s="122"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="112"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="112"/>
+      <c r="AR13" s="112"/>
+      <c r="AS13" s="112"/>
+      <c r="AT13" s="112"/>
+      <c r="AU13" s="112"/>
+      <c r="AV13" s="112"/>
+      <c r="AW13" s="112"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="122"/>
-      <c r="AO14" s="122"/>
-      <c r="AP14" s="122"/>
-      <c r="AQ14" s="122"/>
-      <c r="AR14" s="122"/>
-      <c r="AS14" s="122"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="122"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="122"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="112"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="112"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="122"/>
-      <c r="AP15" s="122"/>
-      <c r="AQ15" s="122"/>
-      <c r="AR15" s="122"/>
-      <c r="AS15" s="122"/>
-      <c r="AT15" s="122"/>
-      <c r="AU15" s="122"/>
-      <c r="AV15" s="122"/>
-      <c r="AW15" s="122"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="112"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
+      <c r="AR15" s="112"/>
+      <c r="AS15" s="112"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="112"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="112"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
-      <c r="AB16" s="129"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="129"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="122"/>
-      <c r="AP16" s="122"/>
-      <c r="AQ16" s="122"/>
-      <c r="AR16" s="122"/>
-      <c r="AS16" s="122"/>
-      <c r="AT16" s="122"/>
-      <c r="AU16" s="122"/>
-      <c r="AV16" s="122"/>
-      <c r="AW16" s="122"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="112"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="112"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="112"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="129"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="122"/>
-      <c r="AP17" s="122"/>
-      <c r="AQ17" s="122"/>
-      <c r="AR17" s="122"/>
-      <c r="AS17" s="122"/>
-      <c r="AT17" s="122"/>
-      <c r="AU17" s="122"/>
-      <c r="AV17" s="122"/>
-      <c r="AW17" s="122"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="112"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="129"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="122"/>
-      <c r="AR18" s="122"/>
-      <c r="AS18" s="122"/>
-      <c r="AT18" s="122"/>
-      <c r="AU18" s="122"/>
-      <c r="AV18" s="122"/>
-      <c r="AW18" s="122"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="112"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="129"/>
-      <c r="AJ19" s="129"/>
-      <c r="AK19" s="129"/>
-      <c r="AL19" s="129"/>
-      <c r="AM19" s="129"/>
-      <c r="AN19" s="122"/>
-      <c r="AO19" s="122"/>
-      <c r="AP19" s="122"/>
-      <c r="AQ19" s="122"/>
-      <c r="AR19" s="122"/>
-      <c r="AS19" s="122"/>
-      <c r="AT19" s="122"/>
-      <c r="AU19" s="122"/>
-      <c r="AV19" s="122"/>
-      <c r="AW19" s="122"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="112"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="112"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="112"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="129"/>
-      <c r="AK20" s="129"/>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="129"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="122"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="122"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="122"/>
-      <c r="AT20" s="122"/>
-      <c r="AU20" s="122"/>
-      <c r="AV20" s="122"/>
-      <c r="AW20" s="122"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="112"/>
+      <c r="AO20" s="112"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="112"/>
+      <c r="AR20" s="112"/>
+      <c r="AS20" s="112"/>
+      <c r="AT20" s="112"/>
+      <c r="AU20" s="112"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="112"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
-      <c r="AC21" s="129"/>
-      <c r="AD21" s="129"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="129"/>
-      <c r="AK21" s="129"/>
-      <c r="AL21" s="129"/>
-      <c r="AM21" s="129"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="122"/>
-      <c r="AP21" s="122"/>
-      <c r="AQ21" s="122"/>
-      <c r="AR21" s="122"/>
-      <c r="AS21" s="122"/>
-      <c r="AT21" s="122"/>
-      <c r="AU21" s="122"/>
-      <c r="AV21" s="122"/>
-      <c r="AW21" s="122"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="112"/>
+      <c r="AO21" s="112"/>
+      <c r="AP21" s="112"/>
+      <c r="AQ21" s="112"/>
+      <c r="AR21" s="112"/>
+      <c r="AS21" s="112"/>
+      <c r="AT21" s="112"/>
+      <c r="AU21" s="112"/>
+      <c r="AV21" s="112"/>
+      <c r="AW21" s="112"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="129"/>
-      <c r="AK22" s="129"/>
-      <c r="AL22" s="129"/>
-      <c r="AM22" s="129"/>
-      <c r="AN22" s="122"/>
-      <c r="AO22" s="122"/>
-      <c r="AP22" s="122"/>
-      <c r="AQ22" s="122"/>
-      <c r="AR22" s="122"/>
-      <c r="AS22" s="122"/>
-      <c r="AT22" s="122"/>
-      <c r="AU22" s="122"/>
-      <c r="AV22" s="122"/>
-      <c r="AW22" s="122"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="112"/>
+      <c r="AO22" s="112"/>
+      <c r="AP22" s="112"/>
+      <c r="AQ22" s="112"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="112"/>
+      <c r="AT22" s="112"/>
+      <c r="AU22" s="112"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="112"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="129"/>
-      <c r="AJ23" s="129"/>
-      <c r="AK23" s="129"/>
-      <c r="AL23" s="129"/>
-      <c r="AM23" s="129"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="122"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="122"/>
-      <c r="AR23" s="122"/>
-      <c r="AS23" s="122"/>
-      <c r="AT23" s="122"/>
-      <c r="AU23" s="122"/>
-      <c r="AV23" s="122"/>
-      <c r="AW23" s="122"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="118"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="112"/>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="112"/>
+      <c r="AU23" s="112"/>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="112"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="129"/>
-      <c r="AJ24" s="129"/>
-      <c r="AK24" s="129"/>
-      <c r="AL24" s="129"/>
-      <c r="AM24" s="129"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="122"/>
-      <c r="AP24" s="122"/>
-      <c r="AQ24" s="122"/>
-      <c r="AR24" s="122"/>
-      <c r="AS24" s="122"/>
-      <c r="AT24" s="122"/>
-      <c r="AU24" s="122"/>
-      <c r="AV24" s="122"/>
-      <c r="AW24" s="122"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="129"/>
-      <c r="AK25" s="129"/>
-      <c r="AL25" s="129"/>
-      <c r="AM25" s="129"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="122"/>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="122"/>
-      <c r="AR25" s="122"/>
-      <c r="AS25" s="122"/>
-      <c r="AT25" s="122"/>
-      <c r="AU25" s="122"/>
-      <c r="AV25" s="122"/>
-      <c r="AW25" s="122"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="118"/>
+      <c r="AL25" s="118"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="112"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
+      <c r="AT25" s="112"/>
+      <c r="AU25" s="112"/>
+      <c r="AV25" s="112"/>
+      <c r="AW25" s="112"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="129"/>
-      <c r="AK26" s="129"/>
-      <c r="AL26" s="129"/>
-      <c r="AM26" s="129"/>
-      <c r="AN26" s="122"/>
-      <c r="AO26" s="122"/>
-      <c r="AP26" s="122"/>
-      <c r="AQ26" s="122"/>
-      <c r="AR26" s="122"/>
-      <c r="AS26" s="122"/>
-      <c r="AT26" s="122"/>
-      <c r="AU26" s="122"/>
-      <c r="AV26" s="122"/>
-      <c r="AW26" s="122"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="118"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="112"/>
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="112"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="129"/>
-      <c r="AJ27" s="129"/>
-      <c r="AK27" s="129"/>
-      <c r="AL27" s="129"/>
-      <c r="AM27" s="129"/>
-      <c r="AN27" s="122"/>
-      <c r="AO27" s="122"/>
-      <c r="AP27" s="122"/>
-      <c r="AQ27" s="122"/>
-      <c r="AR27" s="122"/>
-      <c r="AS27" s="122"/>
-      <c r="AT27" s="122"/>
-      <c r="AU27" s="122"/>
-      <c r="AV27" s="122"/>
-      <c r="AW27" s="122"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="118"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="118"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="112"/>
+      <c r="AT27" s="112"/>
+      <c r="AU27" s="112"/>
+      <c r="AV27" s="112"/>
+      <c r="AW27" s="112"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="129"/>
-      <c r="AJ28" s="129"/>
-      <c r="AK28" s="129"/>
-      <c r="AL28" s="129"/>
-      <c r="AM28" s="129"/>
-      <c r="AN28" s="122"/>
-      <c r="AO28" s="122"/>
-      <c r="AP28" s="122"/>
-      <c r="AQ28" s="122"/>
-      <c r="AR28" s="122"/>
-      <c r="AS28" s="122"/>
-      <c r="AT28" s="122"/>
-      <c r="AU28" s="122"/>
-      <c r="AV28" s="122"/>
-      <c r="AW28" s="122"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="112"/>
+      <c r="AO28" s="112"/>
+      <c r="AP28" s="112"/>
+      <c r="AQ28" s="112"/>
+      <c r="AR28" s="112"/>
+      <c r="AS28" s="112"/>
+      <c r="AT28" s="112"/>
+      <c r="AU28" s="112"/>
+      <c r="AV28" s="112"/>
+      <c r="AW28" s="112"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="129"/>
-      <c r="AK29" s="129"/>
-      <c r="AL29" s="129"/>
-      <c r="AM29" s="129"/>
-      <c r="AN29" s="122"/>
-      <c r="AO29" s="122"/>
-      <c r="AP29" s="122"/>
-      <c r="AQ29" s="122"/>
-      <c r="AR29" s="122"/>
-      <c r="AS29" s="122"/>
-      <c r="AT29" s="122"/>
-      <c r="AU29" s="122"/>
-      <c r="AV29" s="122"/>
-      <c r="AW29" s="122"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="112"/>
+      <c r="AO29" s="112"/>
+      <c r="AP29" s="112"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="112"/>
+      <c r="AS29" s="112"/>
+      <c r="AT29" s="112"/>
+      <c r="AU29" s="112"/>
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="112"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="129"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="129"/>
-      <c r="AK30" s="129"/>
-      <c r="AL30" s="129"/>
-      <c r="AM30" s="129"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="122"/>
-      <c r="AP30" s="122"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="122"/>
-      <c r="AS30" s="122"/>
-      <c r="AT30" s="122"/>
-      <c r="AU30" s="122"/>
-      <c r="AV30" s="122"/>
-      <c r="AW30" s="122"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="118"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118"/>
+      <c r="AL30" s="118"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="112"/>
+      <c r="AO30" s="112"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="112"/>
+      <c r="AS30" s="112"/>
+      <c r="AT30" s="112"/>
+      <c r="AU30" s="112"/>
+      <c r="AV30" s="112"/>
+      <c r="AW30" s="112"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="129"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="129"/>
-      <c r="AJ31" s="129"/>
-      <c r="AK31" s="129"/>
-      <c r="AL31" s="129"/>
-      <c r="AM31" s="129"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="122"/>
-      <c r="AS31" s="122"/>
-      <c r="AT31" s="122"/>
-      <c r="AU31" s="122"/>
-      <c r="AV31" s="122"/>
-      <c r="AW31" s="122"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="118"/>
+      <c r="AF31" s="118"/>
+      <c r="AG31" s="118"/>
+      <c r="AH31" s="118"/>
+      <c r="AI31" s="118"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="118"/>
+      <c r="AL31" s="118"/>
+      <c r="AM31" s="118"/>
+      <c r="AN31" s="112"/>
+      <c r="AO31" s="112"/>
+      <c r="AP31" s="112"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="112"/>
+      <c r="AS31" s="112"/>
+      <c r="AT31" s="112"/>
+      <c r="AU31" s="112"/>
+      <c r="AV31" s="112"/>
+      <c r="AW31" s="112"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="129"/>
-      <c r="AK32" s="129"/>
-      <c r="AL32" s="129"/>
-      <c r="AM32" s="129"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="122"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="122"/>
-      <c r="AR32" s="122"/>
-      <c r="AS32" s="122"/>
-      <c r="AT32" s="122"/>
-      <c r="AU32" s="122"/>
-      <c r="AV32" s="122"/>
-      <c r="AW32" s="122"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="112"/>
+      <c r="AO32" s="112"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="112"/>
+      <c r="AS32" s="112"/>
+      <c r="AT32" s="112"/>
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="112"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="129"/>
-      <c r="AJ33" s="129"/>
-      <c r="AK33" s="129"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="129"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="122"/>
-      <c r="AP33" s="122"/>
-      <c r="AQ33" s="122"/>
-      <c r="AR33" s="122"/>
-      <c r="AS33" s="122"/>
-      <c r="AT33" s="122"/>
-      <c r="AU33" s="122"/>
-      <c r="AV33" s="122"/>
-      <c r="AW33" s="122"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="118"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="112"/>
+      <c r="AO33" s="112"/>
+      <c r="AP33" s="112"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="112"/>
+      <c r="AS33" s="112"/>
+      <c r="AT33" s="112"/>
+      <c r="AU33" s="112"/>
+      <c r="AV33" s="112"/>
+      <c r="AW33" s="112"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="136"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="129"/>
-      <c r="W34" s="129"/>
-      <c r="X34" s="129"/>
-      <c r="Y34" s="129"/>
-      <c r="Z34" s="129"/>
-      <c r="AA34" s="129"/>
-      <c r="AB34" s="129"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="129"/>
-      <c r="AE34" s="129"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="129"/>
-      <c r="AH34" s="129"/>
-      <c r="AI34" s="129"/>
-      <c r="AJ34" s="129"/>
-      <c r="AK34" s="129"/>
-      <c r="AL34" s="129"/>
-      <c r="AM34" s="129"/>
-      <c r="AN34" s="122"/>
-      <c r="AO34" s="122"/>
-      <c r="AP34" s="122"/>
-      <c r="AQ34" s="122"/>
-      <c r="AR34" s="122"/>
-      <c r="AS34" s="122"/>
-      <c r="AT34" s="122"/>
-      <c r="AU34" s="122"/>
-      <c r="AV34" s="122"/>
-      <c r="AW34" s="122"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="118"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="118"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="118"/>
+      <c r="AL34" s="118"/>
+      <c r="AM34" s="118"/>
+      <c r="AN34" s="112"/>
+      <c r="AO34" s="112"/>
+      <c r="AP34" s="112"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="112"/>
+      <c r="AS34" s="112"/>
+      <c r="AT34" s="112"/>
+      <c r="AU34" s="112"/>
+      <c r="AV34" s="112"/>
+      <c r="AW34" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5940,239 +6326,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8325,37 +8478,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="114" t="s">
+      <c r="L6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="129" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8363,24 +8516,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="155" t="s">
+      <c r="Q6" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8390,7 +8543,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="155"/>
+      <c r="Q7" s="157"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8404,8 +8557,8 @@
       <c r="E8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>171</v>
+      <c r="F8" s="160" t="s">
+        <v>161</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8451,7 +8604,7 @@
         <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>128</v>
@@ -8499,7 +8652,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>128</v>
@@ -8548,37 +8701,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="156" t="s">
+      <c r="I13" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="155" t="s">
+      <c r="J13" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="114" t="s">
+      <c r="L13" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="129" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8586,24 +8739,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="156" t="s">
+      <c r="Q13" s="155" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8613,7 +8766,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="157"/>
+      <c r="Q14" s="156"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -8629,10 +8782,10 @@
         <v>115</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>34</v>
@@ -8641,7 +8794,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -8656,7 +8809,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>33</v>
@@ -8673,13 +8826,13 @@
         <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>34</v>
@@ -8703,7 +8856,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>33</v>
@@ -8728,37 +8881,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="155" t="s">
+      <c r="I20" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="155" t="s">
+      <c r="J20" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="114" t="s">
+      <c r="K20" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="114" t="s">
+      <c r="L20" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="114" t="s">
+      <c r="M20" s="129" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -8766,24 +8919,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="155" t="s">
+      <c r="Q20" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -8793,7 +8946,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="155"/>
+      <c r="Q21" s="157"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -8908,7 +9061,7 @@
         <v>34</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -9006,7 +9159,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -9025,7 +9178,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -9058,7 +9211,7 @@
         <v>34</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9088,6 +9241,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -9104,26 +9277,6 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9142,7 +9295,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ49"/>
+  <dimension ref="A1:AZ75"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -9629,17 +9782,13 @@
     <row r="11" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="71" t="s">
+        <v>171</v>
+      </c>
       <c r="M11" s="93" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
@@ -9651,41 +9800,37 @@
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
       <c r="AV11" s="72"/>
     </row>
     <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
       <c r="F12" s="72"/>
       <c r="G12" s="71"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="23"/>
-      <c r="N12" s="93" t="s">
-        <v>159</v>
-      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="93"/>
       <c r="O12" s="93"/>
       <c r="P12" s="93"/>
       <c r="Q12" s="93"/>
@@ -9695,516 +9840,200 @@
       <c r="U12" s="93"/>
       <c r="V12" s="93"/>
       <c r="W12" s="93"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
       <c r="AV12" s="72"/>
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
       <c r="F13" s="72"/>
       <c r="G13" s="71"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
       <c r="AV13" s="72"/>
     </row>
     <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
       <c r="F14" s="72"/>
       <c r="G14" s="71"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="23"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
       <c r="AV14" s="72"/>
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
       <c r="F15" s="72"/>
       <c r="G15" s="71"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
       <c r="AV15" s="72"/>
     </row>
     <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="23"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
       <c r="AV16" s="72"/>
     </row>
     <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
       <c r="F17" s="72"/>
       <c r="G17" s="71"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
       <c r="AV17" s="72"/>
     </row>
     <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
       <c r="F18" s="72"/>
       <c r="G18" s="71"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
       <c r="AV18" s="72"/>
     </row>
     <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
       <c r="F19" s="72"/>
       <c r="G19" s="71"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
       <c r="AV19" s="72"/>
     </row>
     <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
       <c r="F20" s="72"/>
       <c r="G20" s="71"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="23"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
       <c r="AV20" s="72"/>
     </row>
     <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
       <c r="F21" s="72"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="93"/>
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="93"/>
       <c r="AV21" s="72"/>
     </row>
     <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
       <c r="F22" s="72"/>
       <c r="G22" s="71"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="23"/>
-      <c r="AU22" s="23"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
       <c r="AV22" s="72"/>
     </row>
     <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
       <c r="F23" s="72"/>
       <c r="G23" s="71"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="X23" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
+        <v>178</v>
+      </c>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="93"/>
       <c r="AV23" s="72"/>
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10212,11 +10041,9 @@
       <c r="C24" s="71"/>
       <c r="F24" s="72"/>
       <c r="G24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="106"/>
-      <c r="N24" s="93" t="s">
-        <v>163</v>
-      </c>
+      <c r="L24" s="71"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
       <c r="O24" s="93"/>
       <c r="P24" s="93"/>
       <c r="Q24" s="93"/>
@@ -10226,36 +10053,36 @@
       <c r="U24" s="93"/>
       <c r="V24" s="93"/>
       <c r="W24" s="93"/>
-      <c r="X24" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y24" s="107" t="s">
-        <v>168</v>
-      </c>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
       <c r="AA24" s="93"/>
       <c r="AB24" s="93"/>
       <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
       <c r="AG24" s="93"/>
       <c r="AH24" s="93"/>
       <c r="AI24" s="93"/>
-      <c r="AJ24" s="108"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
       <c r="AV24" s="72"/>
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
       <c r="F25" s="72"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="23"/>
-      <c r="N25" s="93" t="s">
-        <v>164</v>
-      </c>
+      <c r="L25" s="71"/>
+      <c r="M25" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25" s="93"/>
       <c r="O25" s="93"/>
       <c r="P25" s="93"/>
       <c r="Q25" s="93"/>
@@ -10264,51 +10091,35 @@
       <c r="T25" s="93"/>
       <c r="U25" s="93"/>
       <c r="V25" s="93"/>
-      <c r="X25" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y25" s="93" t="s">
-        <v>182</v>
-      </c>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
       <c r="Z25" s="93"/>
       <c r="AA25" s="93"/>
       <c r="AB25" s="93"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="93"/>
       <c r="AV25" s="72"/>
     </row>
     <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
       <c r="F26" s="72"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="71"/>
       <c r="N26" s="93" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
@@ -10318,68 +10129,65 @@
       <c r="T26" s="93"/>
       <c r="U26" s="93"/>
       <c r="V26" s="93"/>
-      <c r="X26" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y26" s="93" t="s">
-        <v>183</v>
-      </c>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
       <c r="Z26" s="93"/>
       <c r="AA26" s="93"/>
       <c r="AB26" s="93"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="93"/>
+      <c r="AM26" s="93"/>
+      <c r="AO26" s="93"/>
+      <c r="AP26" s="93"/>
       <c r="AV26" s="72"/>
     </row>
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="93"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="159"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="159"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="159"/>
+      <c r="AD27" s="159"/>
+      <c r="AE27" s="159"/>
+      <c r="AF27" s="159"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="159"/>
+      <c r="AJ27" s="159"/>
+      <c r="AK27" s="159"/>
+      <c r="AL27" s="159"/>
+      <c r="AM27" s="159"/>
+      <c r="AN27" s="159"/>
+      <c r="AO27" s="159"/>
+      <c r="AP27" s="159"/>
+      <c r="AQ27" s="159"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10387,152 +10195,369 @@
       <c r="C28" s="71"/>
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM28" s="93"/>
-      <c r="AN28" s="93"/>
-      <c r="AO28" s="93"/>
-      <c r="AP28" s="93"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="159"/>
+      <c r="AJ28" s="159"/>
+      <c r="AK28" s="159"/>
+      <c r="AL28" s="159"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="159"/>
+      <c r="AO28" s="159"/>
+      <c r="AP28" s="159"/>
+      <c r="AQ28" s="159"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="72"/>
       <c r="G29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="N29" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM29" s="93"/>
-      <c r="AN29" s="93"/>
-      <c r="AO29" s="93"/>
-      <c r="AP29" s="93"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
       <c r="AV29" s="72"/>
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="72"/>
       <c r="G30" s="71"/>
-      <c r="L30" s="71"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="23"/>
       <c r="N30" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM30" s="93"/>
-      <c r="AN30" s="93"/>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="93"/>
+        <v>187</v>
+      </c>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
       <c r="AV30" s="72"/>
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="72"/>
       <c r="G31" s="71"/>
-      <c r="L31" s="71"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="23"/>
       <c r="N31" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="AM31" s="93"/>
-      <c r="AN31" s="93"/>
-      <c r="AO31" s="93"/>
-      <c r="AP31" s="93"/>
+        <v>145</v>
+      </c>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="23"/>
       <c r="AV31" s="72"/>
     </row>
     <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="72"/>
       <c r="G32" s="71"/>
-      <c r="L32" s="71"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="23"/>
       <c r="N32" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM32" s="93"/>
-      <c r="AN32" s="93"/>
-      <c r="AO32" s="93"/>
-      <c r="AP32" s="93"/>
+        <v>188</v>
+      </c>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
       <c r="AV32" s="72"/>
     </row>
     <row r="33" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="72"/>
       <c r="G33" s="71"/>
-      <c r="L33" s="71"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="23"/>
       <c r="N33" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM33" s="93"/>
-      <c r="AN33" s="93"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="93"/>
+        <v>189</v>
+      </c>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
       <c r="AV33" s="72"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B34" s="71"/>
       <c r="C34" s="71"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="72"/>
       <c r="G34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="N34" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM34" s="93"/>
-      <c r="AN34" s="93"/>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="23"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
       <c r="AV34" s="72"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="72"/>
       <c r="G35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="N35" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM35" s="93"/>
-      <c r="AN35" s="93"/>
-      <c r="AO35" s="93"/>
-      <c r="AP35" s="93"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23"/>
       <c r="AV35" s="72"/>
     </row>
     <row r="36" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="71"/>
       <c r="C36" s="71"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
       <c r="F36" s="72"/>
       <c r="G36" s="71"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
       <c r="K36" s="72"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="93"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
+      <c r="N36" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
       <c r="AV36" s="72"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10547,9 +10572,18 @@
       <c r="J37" s="23"/>
       <c r="K37" s="72"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="93" t="s">
-        <v>99</v>
-      </c>
+      <c r="N37" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
       <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
@@ -10582,8 +10616,23 @@
       <c r="J38" s="23"/>
       <c r="K38" s="72"/>
       <c r="L38" s="23"/>
-      <c r="N38" s="16" t="s">
-        <v>158</v>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
@@ -10608,154 +10657,95 @@
     <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
       <c r="F39" s="72"/>
       <c r="G39" s="71"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="71"/>
       <c r="N39" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="23"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="23"/>
-      <c r="AO39" s="23"/>
-      <c r="AP39" s="23"/>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="23"/>
-      <c r="AU39" s="23"/>
+        <v>205</v>
+      </c>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
       <c r="AV39" s="72"/>
     </row>
     <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="26"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="X40" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y40" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV40" s="72"/>
     </row>
     <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="20">
-        <v>2</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="21"/>
-      <c r="AV41" s="22"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="X41" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y41" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV41" s="72"/>
     </row>
     <row r="42" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
       <c r="F42" s="72"/>
-      <c r="G42" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="K42" s="72"/>
-      <c r="L42" s="71" t="s">
-        <v>160</v>
+      <c r="G42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="X42" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="AV42" s="72"/>
     </row>
@@ -10764,315 +10754,1025 @@
       <c r="C43" s="71"/>
       <c r="F43" s="72"/>
       <c r="G43" s="71"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
-      <c r="AP43" s="25"/>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="25"/>
-      <c r="AS43" s="25"/>
-      <c r="AT43" s="25"/>
-      <c r="AU43" s="25"/>
-      <c r="AV43" s="26"/>
+      <c r="L43" s="71"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="X43" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y43" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV43" s="72"/>
     </row>
     <row r="44" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B44" s="20">
-        <v>3</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="21"/>
-      <c r="AQ44" s="21"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="21"/>
-      <c r="AT44" s="21"/>
-      <c r="AU44" s="21"/>
-      <c r="AV44" s="22"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="X44" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV44" s="72"/>
     </row>
     <row r="45" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="72"/>
-      <c r="G45" s="71" t="s">
-        <v>139</v>
-      </c>
+      <c r="G45" s="71"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="72"/>
-      <c r="L45" s="71" t="s">
-        <v>161</v>
-      </c>
+      <c r="L45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
       <c r="AV45" s="72"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="72"/>
       <c r="G46" s="71"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="72"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="25"/>
-      <c r="AT46" s="25"/>
-      <c r="AU46" s="25"/>
-      <c r="AV46" s="26"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="93"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="72"/>
     </row>
     <row r="47" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B47" s="20">
-        <v>4</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21"/>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21"/>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="22"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="71"/>
+      <c r="K47" s="72"/>
+      <c r="N47" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="X47" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z47" s="93"/>
+      <c r="AA47" s="93"/>
+      <c r="AB47" s="93"/>
+      <c r="AV47" s="72"/>
     </row>
     <row r="48" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
       <c r="F48" s="72"/>
-      <c r="G48" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="G48" s="71"/>
       <c r="K48" s="72"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-      <c r="AF48" s="23"/>
-      <c r="AG48" s="23"/>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="23"/>
-      <c r="AJ48" s="23"/>
-      <c r="AK48" s="23"/>
-      <c r="AL48" s="23"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="23"/>
-      <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="23"/>
-      <c r="AR48" s="23"/>
-      <c r="AS48" s="23"/>
-      <c r="AT48" s="23"/>
-      <c r="AU48" s="23"/>
+      <c r="N48" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="X48" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y48" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="93"/>
+      <c r="AB48" s="93"/>
       <c r="AV48" s="72"/>
     </row>
     <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
       <c r="F49" s="72"/>
       <c r="G49" s="71"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
       <c r="K49" s="72"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25"/>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25"/>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25"/>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="26"/>
+      <c r="L49" s="106"/>
+      <c r="N49" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y49" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="93"/>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="93"/>
+      <c r="AI49" s="93"/>
+      <c r="AJ49" s="108"/>
+      <c r="AV49" s="72"/>
+    </row>
+    <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="71"/>
+      <c r="K50" s="72"/>
+      <c r="N50" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="X50" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y50" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="93"/>
+      <c r="AB50" s="93"/>
+      <c r="AI50" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV50" s="72"/>
+    </row>
+    <row r="51" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="N51" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="X51" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y51" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AI51" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV51" s="72"/>
+    </row>
+    <row r="52" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="93"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="23"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="23"/>
+      <c r="AU52" s="23"/>
+      <c r="AV52" s="72"/>
+    </row>
+    <row r="53" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM53" s="93"/>
+      <c r="AN53" s="93"/>
+      <c r="AO53" s="93"/>
+      <c r="AP53" s="93"/>
+      <c r="AV53" s="72"/>
+    </row>
+    <row r="54" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="N54" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM54" s="93"/>
+      <c r="AN54" s="93"/>
+      <c r="AO54" s="93"/>
+      <c r="AP54" s="93"/>
+      <c r="AV54" s="72"/>
+    </row>
+    <row r="55" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="N55" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM55" s="93"/>
+      <c r="AN55" s="93"/>
+      <c r="AO55" s="93"/>
+      <c r="AP55" s="93"/>
+      <c r="AV55" s="72"/>
+    </row>
+    <row r="56" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="N56" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM56" s="93"/>
+      <c r="AN56" s="93"/>
+      <c r="AO56" s="93"/>
+      <c r="AP56" s="93"/>
+      <c r="AV56" s="72"/>
+    </row>
+    <row r="57" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="N57" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM57" s="93"/>
+      <c r="AN57" s="93"/>
+      <c r="AO57" s="93"/>
+      <c r="AP57" s="93"/>
+      <c r="AV57" s="72"/>
+    </row>
+    <row r="58" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="N58" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM58" s="93"/>
+      <c r="AN58" s="93"/>
+      <c r="AO58" s="93"/>
+      <c r="AP58" s="93"/>
+      <c r="AV58" s="72"/>
+    </row>
+    <row r="59" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="N59" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM59" s="93"/>
+      <c r="AN59" s="93"/>
+      <c r="AO59" s="93"/>
+      <c r="AP59" s="93"/>
+      <c r="AV59" s="72"/>
+    </row>
+    <row r="60" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="N60" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM60" s="93"/>
+      <c r="AN60" s="93"/>
+      <c r="AO60" s="93"/>
+      <c r="AP60" s="93"/>
+      <c r="AV60" s="72"/>
+    </row>
+    <row r="61" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="N61" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM61" s="93"/>
+      <c r="AN61" s="93"/>
+      <c r="AO61" s="93"/>
+      <c r="AP61" s="93"/>
+      <c r="AV61" s="72"/>
+    </row>
+    <row r="62" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="93"/>
+      <c r="AD62" s="23"/>
+      <c r="AE62" s="23"/>
+      <c r="AF62" s="23"/>
+      <c r="AG62" s="23"/>
+      <c r="AH62" s="23"/>
+      <c r="AI62" s="23"/>
+      <c r="AJ62" s="23"/>
+      <c r="AK62" s="23"/>
+      <c r="AL62" s="23"/>
+      <c r="AM62" s="23"/>
+      <c r="AN62" s="23"/>
+      <c r="AO62" s="23"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
+      <c r="AT62" s="23"/>
+      <c r="AU62" s="23"/>
+      <c r="AV62" s="72"/>
+    </row>
+    <row r="63" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="23"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="23"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="23"/>
+      <c r="AR63" s="23"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="72"/>
+    </row>
+    <row r="64" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="23"/>
+      <c r="N64" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="23"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="23"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="23"/>
+      <c r="AV64" s="72"/>
+    </row>
+    <row r="65" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="23"/>
+      <c r="N65" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="23"/>
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="23"/>
+      <c r="AL65" s="23"/>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="23"/>
+      <c r="AO65" s="23"/>
+      <c r="AP65" s="23"/>
+      <c r="AQ65" s="23"/>
+      <c r="AR65" s="23"/>
+      <c r="AS65" s="23"/>
+      <c r="AT65" s="23"/>
+      <c r="AU65" s="23"/>
+      <c r="AV65" s="72"/>
+    </row>
+    <row r="66" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="25"/>
+      <c r="AM66" s="25"/>
+      <c r="AN66" s="25"/>
+      <c r="AO66" s="25"/>
+      <c r="AP66" s="25"/>
+      <c r="AQ66" s="25"/>
+      <c r="AR66" s="25"/>
+      <c r="AS66" s="25"/>
+      <c r="AT66" s="25"/>
+      <c r="AU66" s="25"/>
+      <c r="AV66" s="26"/>
+    </row>
+    <row r="67" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="20">
+        <v>2</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21"/>
+      <c r="AP67" s="21"/>
+      <c r="AQ67" s="21"/>
+      <c r="AR67" s="21"/>
+      <c r="AS67" s="21"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="22"/>
+    </row>
+    <row r="68" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" s="72"/>
+      <c r="L68" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV68" s="72"/>
+    </row>
+    <row r="69" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="71"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="25"/>
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="25"/>
+      <c r="AU69" s="25"/>
+      <c r="AV69" s="26"/>
+    </row>
+    <row r="70" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B70" s="20">
+        <v>3</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="21"/>
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="21"/>
+      <c r="AL70" s="21"/>
+      <c r="AM70" s="21"/>
+      <c r="AN70" s="21"/>
+      <c r="AO70" s="21"/>
+      <c r="AP70" s="21"/>
+      <c r="AQ70" s="21"/>
+      <c r="AR70" s="21"/>
+      <c r="AS70" s="21"/>
+      <c r="AT70" s="21"/>
+      <c r="AU70" s="21"/>
+      <c r="AV70" s="22"/>
+    </row>
+    <row r="71" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" s="72"/>
+      <c r="L71" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV71" s="72"/>
+    </row>
+    <row r="72" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="71"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+      <c r="AA72" s="25"/>
+      <c r="AB72" s="25"/>
+      <c r="AC72" s="25"/>
+      <c r="AD72" s="25"/>
+      <c r="AE72" s="25"/>
+      <c r="AF72" s="25"/>
+      <c r="AG72" s="25"/>
+      <c r="AH72" s="25"/>
+      <c r="AI72" s="25"/>
+      <c r="AJ72" s="25"/>
+      <c r="AK72" s="25"/>
+      <c r="AL72" s="25"/>
+      <c r="AM72" s="25"/>
+      <c r="AN72" s="25"/>
+      <c r="AO72" s="25"/>
+      <c r="AP72" s="25"/>
+      <c r="AQ72" s="25"/>
+      <c r="AR72" s="25"/>
+      <c r="AS72" s="25"/>
+      <c r="AT72" s="25"/>
+      <c r="AU72" s="25"/>
+      <c r="AV72" s="26"/>
+    </row>
+    <row r="73" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B73" s="20">
+        <v>4</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="21"/>
+      <c r="AR73" s="21"/>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="22"/>
+    </row>
+    <row r="74" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="23"/>
+      <c r="AF74" s="23"/>
+      <c r="AG74" s="23"/>
+      <c r="AH74" s="23"/>
+      <c r="AI74" s="23"/>
+      <c r="AJ74" s="23"/>
+      <c r="AK74" s="23"/>
+      <c r="AL74" s="23"/>
+      <c r="AM74" s="23"/>
+      <c r="AN74" s="23"/>
+      <c r="AO74" s="23"/>
+      <c r="AP74" s="23"/>
+      <c r="AQ74" s="23"/>
+      <c r="AR74" s="23"/>
+      <c r="AS74" s="23"/>
+      <c r="AT74" s="23"/>
+      <c r="AU74" s="23"/>
+      <c r="AV74" s="72"/>
+    </row>
+    <row r="75" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="25"/>
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="25"/>
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="25"/>
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="25"/>
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="25"/>
+      <c r="AU75" s="25"/>
+      <c r="AV75" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12384,12 +13084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -12547,6 +13241,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12557,15 +13257,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12583,6 +13274,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29BC3E-3166-4AB5-A72F-7BAF7C497B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E0646-9AA2-448C-A224-C5EE257E1964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1062,16 +1062,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>コンボ押下時</t>
-    <rPh sb="3" eb="5">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>降順</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1475,6 +1465,10 @@
   </si>
   <si>
     <t>生産品名マスタ.品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>###,##0</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2279,6 +2273,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2421,15 +2424,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4091,108 +4085,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="109"/>
-      <c r="AJ32" s="109"/>
-      <c r="AK32" s="109"/>
-      <c r="AL32" s="109"/>
-      <c r="AM32" s="109"/>
-      <c r="AN32" s="109"/>
-      <c r="AO32" s="109"/>
-      <c r="AP32" s="109"/>
-      <c r="AQ32" s="109"/>
-      <c r="AR32" s="109"/>
-      <c r="AS32" s="109"/>
-      <c r="AT32" s="109"/>
-      <c r="AU32" s="109"/>
-      <c r="AV32" s="109"/>
-      <c r="AW32" s="109"/>
+      <c r="A32" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="112"/>
+      <c r="AI32" s="112"/>
+      <c r="AJ32" s="112"/>
+      <c r="AK32" s="112"/>
+      <c r="AL32" s="112"/>
+      <c r="AM32" s="112"/>
+      <c r="AN32" s="112"/>
+      <c r="AO32" s="112"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="112"/>
+      <c r="AS32" s="112"/>
+      <c r="AT32" s="112"/>
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="112"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="110"/>
-      <c r="AO33" s="110"/>
-      <c r="AP33" s="110"/>
-      <c r="AQ33" s="110"/>
-      <c r="AR33" s="110"/>
-      <c r="AS33" s="110"/>
-      <c r="AT33" s="110"/>
-      <c r="AU33" s="110"/>
-      <c r="AV33" s="110"/>
-      <c r="AW33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="113"/>
+      <c r="AO33" s="113"/>
+      <c r="AP33" s="113"/>
+      <c r="AQ33" s="113"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4230,55 +4224,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="111"/>
-      <c r="AJ35" s="111"/>
-      <c r="AK35" s="111"/>
-      <c r="AL35" s="111"/>
-      <c r="AM35" s="111"/>
-      <c r="AN35" s="111"/>
-      <c r="AO35" s="111"/>
-      <c r="AP35" s="111"/>
-      <c r="AQ35" s="111"/>
-      <c r="AR35" s="111"/>
-      <c r="AS35" s="111"/>
-      <c r="AT35" s="111"/>
-      <c r="AU35" s="111"/>
-      <c r="AV35" s="111"/>
-      <c r="AW35" s="111"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114"/>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
+      <c r="AG35" s="114"/>
+      <c r="AH35" s="114"/>
+      <c r="AI35" s="114"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4313,1767 +4307,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129" t="s">
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131" t="s">
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="132"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="131" t="s">
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="129" t="s">
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129" t="s">
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129" t="s">
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129" t="s">
+      <c r="AO3" s="132"/>
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="132"/>
+      <c r="AR3" s="132"/>
+      <c r="AS3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="132"/>
+      <c r="AV3" s="132"/>
+      <c r="AW3" s="132"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="113">
+      <c r="B5" s="116">
         <v>1</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117">
         <v>43725</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115" t="s">
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="112" t="s">
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="124" t="s">
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="124"/>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="124"/>
-      <c r="AJ5" s="124"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="124"/>
-      <c r="AM5" s="124"/>
-      <c r="AN5" s="112" t="s">
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="112"/>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="112"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="112"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="112"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="127"/>
+      <c r="AN8" s="115"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="115"/>
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="112"/>
-      <c r="AO9" s="112"/>
-      <c r="AP9" s="112"/>
-      <c r="AQ9" s="112"/>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="112"/>
-      <c r="AU9" s="112"/>
-      <c r="AV9" s="112"/>
-      <c r="AW9" s="112"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="115"/>
+      <c r="AQ9" s="115"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="115"/>
+      <c r="AW9" s="115"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="124"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="112"/>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="112"/>
-      <c r="AW10" s="112"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="112"/>
-      <c r="AQ11" s="112"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="128"/>
+      <c r="AJ11" s="128"/>
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="128"/>
+      <c r="AM11" s="128"/>
+      <c r="AN11" s="115"/>
+      <c r="AO11" s="115"/>
+      <c r="AP11" s="115"/>
+      <c r="AQ11" s="115"/>
+      <c r="AR11" s="115"/>
+      <c r="AS11" s="115"/>
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="115"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="112"/>
-      <c r="AO12" s="112"/>
-      <c r="AP12" s="112"/>
-      <c r="AQ12" s="112"/>
-      <c r="AR12" s="112"/>
-      <c r="AS12" s="112"/>
-      <c r="AT12" s="112"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="112"/>
-      <c r="AW12" s="112"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="112"/>
-      <c r="AO13" s="112"/>
-      <c r="AP13" s="112"/>
-      <c r="AQ13" s="112"/>
-      <c r="AR13" s="112"/>
-      <c r="AS13" s="112"/>
-      <c r="AT13" s="112"/>
-      <c r="AU13" s="112"/>
-      <c r="AV13" s="112"/>
-      <c r="AW13" s="112"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="112"/>
-      <c r="AO14" s="112"/>
-      <c r="AP14" s="112"/>
-      <c r="AQ14" s="112"/>
-      <c r="AR14" s="112"/>
-      <c r="AS14" s="112"/>
-      <c r="AT14" s="112"/>
-      <c r="AU14" s="112"/>
-      <c r="AV14" s="112"/>
-      <c r="AW14" s="112"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="127"/>
+      <c r="AK14" s="127"/>
+      <c r="AL14" s="127"/>
+      <c r="AM14" s="127"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="112"/>
-      <c r="AO15" s="112"/>
-      <c r="AP15" s="112"/>
-      <c r="AQ15" s="112"/>
-      <c r="AR15" s="112"/>
-      <c r="AS15" s="112"/>
-      <c r="AT15" s="112"/>
-      <c r="AU15" s="112"/>
-      <c r="AV15" s="112"/>
-      <c r="AW15" s="112"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="112"/>
-      <c r="AO16" s="112"/>
-      <c r="AP16" s="112"/>
-      <c r="AQ16" s="112"/>
-      <c r="AR16" s="112"/>
-      <c r="AS16" s="112"/>
-      <c r="AT16" s="112"/>
-      <c r="AU16" s="112"/>
-      <c r="AV16" s="112"/>
-      <c r="AW16" s="112"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="112"/>
-      <c r="AO17" s="112"/>
-      <c r="AP17" s="112"/>
-      <c r="AQ17" s="112"/>
-      <c r="AR17" s="112"/>
-      <c r="AS17" s="112"/>
-      <c r="AT17" s="112"/>
-      <c r="AU17" s="112"/>
-      <c r="AV17" s="112"/>
-      <c r="AW17" s="112"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="115"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="115"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="112"/>
-      <c r="AO18" s="112"/>
-      <c r="AP18" s="112"/>
-      <c r="AQ18" s="112"/>
-      <c r="AR18" s="112"/>
-      <c r="AS18" s="112"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="112"/>
-      <c r="AW18" s="112"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="121"/>
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="121"/>
+      <c r="AN18" s="115"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="115"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="112"/>
-      <c r="AO19" s="112"/>
-      <c r="AP19" s="112"/>
-      <c r="AQ19" s="112"/>
-      <c r="AR19" s="112"/>
-      <c r="AS19" s="112"/>
-      <c r="AT19" s="112"/>
-      <c r="AU19" s="112"/>
-      <c r="AV19" s="112"/>
-      <c r="AW19" s="112"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="121"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="121"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="115"/>
+      <c r="AR19" s="115"/>
+      <c r="AS19" s="115"/>
+      <c r="AT19" s="115"/>
+      <c r="AU19" s="115"/>
+      <c r="AV19" s="115"/>
+      <c r="AW19" s="115"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="112"/>
-      <c r="AO20" s="112"/>
-      <c r="AP20" s="112"/>
-      <c r="AQ20" s="112"/>
-      <c r="AR20" s="112"/>
-      <c r="AS20" s="112"/>
-      <c r="AT20" s="112"/>
-      <c r="AU20" s="112"/>
-      <c r="AV20" s="112"/>
-      <c r="AW20" s="112"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="115"/>
+      <c r="AV20" s="115"/>
+      <c r="AW20" s="115"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="118"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="112"/>
-      <c r="AO21" s="112"/>
-      <c r="AP21" s="112"/>
-      <c r="AQ21" s="112"/>
-      <c r="AR21" s="112"/>
-      <c r="AS21" s="112"/>
-      <c r="AT21" s="112"/>
-      <c r="AU21" s="112"/>
-      <c r="AV21" s="112"/>
-      <c r="AW21" s="112"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="121"/>
+      <c r="AL21" s="121"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="112"/>
-      <c r="AO22" s="112"/>
-      <c r="AP22" s="112"/>
-      <c r="AQ22" s="112"/>
-      <c r="AR22" s="112"/>
-      <c r="AS22" s="112"/>
-      <c r="AT22" s="112"/>
-      <c r="AU22" s="112"/>
-      <c r="AV22" s="112"/>
-      <c r="AW22" s="112"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="121"/>
+      <c r="AL22" s="121"/>
+      <c r="AM22" s="121"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="115"/>
+      <c r="AQ22" s="115"/>
+      <c r="AR22" s="115"/>
+      <c r="AS22" s="115"/>
+      <c r="AT22" s="115"/>
+      <c r="AU22" s="115"/>
+      <c r="AV22" s="115"/>
+      <c r="AW22" s="115"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="118"/>
-      <c r="AG23" s="118"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="112"/>
-      <c r="AO23" s="112"/>
-      <c r="AP23" s="112"/>
-      <c r="AQ23" s="112"/>
-      <c r="AR23" s="112"/>
-      <c r="AS23" s="112"/>
-      <c r="AT23" s="112"/>
-      <c r="AU23" s="112"/>
-      <c r="AV23" s="112"/>
-      <c r="AW23" s="112"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="121"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="121"/>
+      <c r="AJ23" s="121"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="121"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="115"/>
+      <c r="AR23" s="115"/>
+      <c r="AS23" s="115"/>
+      <c r="AT23" s="115"/>
+      <c r="AU23" s="115"/>
+      <c r="AV23" s="115"/>
+      <c r="AW23" s="115"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="118"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="112"/>
-      <c r="AO24" s="112"/>
-      <c r="AP24" s="112"/>
-      <c r="AQ24" s="112"/>
-      <c r="AR24" s="112"/>
-      <c r="AS24" s="112"/>
-      <c r="AT24" s="112"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="112"/>
-      <c r="AW24" s="112"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="115"/>
+      <c r="AS24" s="115"/>
+      <c r="AT24" s="115"/>
+      <c r="AU24" s="115"/>
+      <c r="AV24" s="115"/>
+      <c r="AW24" s="115"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AK25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="112"/>
-      <c r="AP25" s="112"/>
-      <c r="AQ25" s="112"/>
-      <c r="AR25" s="112"/>
-      <c r="AS25" s="112"/>
-      <c r="AT25" s="112"/>
-      <c r="AU25" s="112"/>
-      <c r="AV25" s="112"/>
-      <c r="AW25" s="112"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="115"/>
+      <c r="AR25" s="115"/>
+      <c r="AS25" s="115"/>
+      <c r="AT25" s="115"/>
+      <c r="AU25" s="115"/>
+      <c r="AV25" s="115"/>
+      <c r="AW25" s="115"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="118"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="112"/>
-      <c r="AP26" s="112"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="112"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="112"/>
-      <c r="AV26" s="112"/>
-      <c r="AW26" s="112"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="121"/>
+      <c r="AM26" s="121"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="115"/>
+      <c r="AR26" s="115"/>
+      <c r="AS26" s="115"/>
+      <c r="AT26" s="115"/>
+      <c r="AU26" s="115"/>
+      <c r="AV26" s="115"/>
+      <c r="AW26" s="115"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="118"/>
-      <c r="AG27" s="118"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="112"/>
-      <c r="AO27" s="112"/>
-      <c r="AP27" s="112"/>
-      <c r="AQ27" s="112"/>
-      <c r="AR27" s="112"/>
-      <c r="AS27" s="112"/>
-      <c r="AT27" s="112"/>
-      <c r="AU27" s="112"/>
-      <c r="AV27" s="112"/>
-      <c r="AW27" s="112"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="115"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="115"/>
+      <c r="AQ27" s="115"/>
+      <c r="AR27" s="115"/>
+      <c r="AS27" s="115"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="115"/>
+      <c r="AV27" s="115"/>
+      <c r="AW27" s="115"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="118"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="118"/>
-      <c r="AG28" s="118"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="112"/>
-      <c r="AO28" s="112"/>
-      <c r="AP28" s="112"/>
-      <c r="AQ28" s="112"/>
-      <c r="AR28" s="112"/>
-      <c r="AS28" s="112"/>
-      <c r="AT28" s="112"/>
-      <c r="AU28" s="112"/>
-      <c r="AV28" s="112"/>
-      <c r="AW28" s="112"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="121"/>
+      <c r="AM28" s="121"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="115"/>
+      <c r="AP28" s="115"/>
+      <c r="AQ28" s="115"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="115"/>
+      <c r="AV28" s="115"/>
+      <c r="AW28" s="115"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="112"/>
-      <c r="AO29" s="112"/>
-      <c r="AP29" s="112"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="112"/>
-      <c r="AS29" s="112"/>
-      <c r="AT29" s="112"/>
-      <c r="AU29" s="112"/>
-      <c r="AV29" s="112"/>
-      <c r="AW29" s="112"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="121"/>
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="121"/>
+      <c r="AJ29" s="121"/>
+      <c r="AK29" s="121"/>
+      <c r="AL29" s="121"/>
+      <c r="AM29" s="121"/>
+      <c r="AN29" s="115"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="115"/>
+      <c r="AQ29" s="115"/>
+      <c r="AR29" s="115"/>
+      <c r="AS29" s="115"/>
+      <c r="AT29" s="115"/>
+      <c r="AU29" s="115"/>
+      <c r="AV29" s="115"/>
+      <c r="AW29" s="115"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="118"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="118"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="118"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="112"/>
-      <c r="AO30" s="112"/>
-      <c r="AP30" s="112"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="112"/>
-      <c r="AS30" s="112"/>
-      <c r="AT30" s="112"/>
-      <c r="AU30" s="112"/>
-      <c r="AV30" s="112"/>
-      <c r="AW30" s="112"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="115"/>
+      <c r="AO30" s="115"/>
+      <c r="AP30" s="115"/>
+      <c r="AQ30" s="115"/>
+      <c r="AR30" s="115"/>
+      <c r="AS30" s="115"/>
+      <c r="AT30" s="115"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="118"/>
-      <c r="AG31" s="118"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AK31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="112"/>
-      <c r="AO31" s="112"/>
-      <c r="AP31" s="112"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="112"/>
-      <c r="AS31" s="112"/>
-      <c r="AT31" s="112"/>
-      <c r="AU31" s="112"/>
-      <c r="AV31" s="112"/>
-      <c r="AW31" s="112"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="121"/>
+      <c r="AD31" s="121"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="121"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="121"/>
+      <c r="AL31" s="121"/>
+      <c r="AM31" s="121"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
+      <c r="AQ31" s="115"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="118"/>
-      <c r="AG32" s="118"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="112"/>
-      <c r="AO32" s="112"/>
-      <c r="AP32" s="112"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="112"/>
-      <c r="AS32" s="112"/>
-      <c r="AT32" s="112"/>
-      <c r="AU32" s="112"/>
-      <c r="AV32" s="112"/>
-      <c r="AW32" s="112"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="121"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="121"/>
+      <c r="AM32" s="121"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
+      <c r="AR32" s="115"/>
+      <c r="AS32" s="115"/>
+      <c r="AT32" s="115"/>
+      <c r="AU32" s="115"/>
+      <c r="AV32" s="115"/>
+      <c r="AW32" s="115"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="118"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="118"/>
-      <c r="AG33" s="118"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="112"/>
-      <c r="AO33" s="112"/>
-      <c r="AP33" s="112"/>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="112"/>
-      <c r="AS33" s="112"/>
-      <c r="AT33" s="112"/>
-      <c r="AU33" s="112"/>
-      <c r="AV33" s="112"/>
-      <c r="AW33" s="112"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="115"/>
+      <c r="AO33" s="115"/>
+      <c r="AP33" s="115"/>
+      <c r="AQ33" s="115"/>
+      <c r="AR33" s="115"/>
+      <c r="AS33" s="115"/>
+      <c r="AT33" s="115"/>
+      <c r="AU33" s="115"/>
+      <c r="AV33" s="115"/>
+      <c r="AW33" s="115"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="118"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="112"/>
-      <c r="AO34" s="112"/>
-      <c r="AP34" s="112"/>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="112"/>
-      <c r="AS34" s="112"/>
-      <c r="AT34" s="112"/>
-      <c r="AU34" s="112"/>
-      <c r="AV34" s="112"/>
-      <c r="AW34" s="112"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="115"/>
+      <c r="AO34" s="115"/>
+      <c r="AP34" s="115"/>
+      <c r="AQ34" s="115"/>
+      <c r="AR34" s="115"/>
+      <c r="AS34" s="115"/>
+      <c r="AT34" s="115"/>
+      <c r="AU34" s="115"/>
+      <c r="AV34" s="115"/>
+      <c r="AW34" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -6406,14 +6400,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="144">
+      <c r="AO1" s="147">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="146"/>
+      <c r="AP1" s="148"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="148"/>
+      <c r="AS1" s="149"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6422,17 +6416,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="141" t="str">
+      <c r="AZ1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="142"/>
-      <c r="BB1" s="142"/>
-      <c r="BC1" s="142"/>
-      <c r="BD1" s="142"/>
-      <c r="BE1" s="142"/>
-      <c r="BF1" s="142"/>
-      <c r="BG1" s="143"/>
+      <c r="BA1" s="145"/>
+      <c r="BB1" s="145"/>
+      <c r="BC1" s="145"/>
+      <c r="BD1" s="145"/>
+      <c r="BE1" s="145"/>
+      <c r="BF1" s="145"/>
+      <c r="BG1" s="146"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6485,11 +6479,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="144"/>
-      <c r="AP2" s="145"/>
-      <c r="AQ2" s="145"/>
-      <c r="AR2" s="145"/>
-      <c r="AS2" s="146"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="149"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6498,14 +6492,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="141"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="143"/>
+      <c r="AZ2" s="144"/>
+      <c r="BA2" s="145"/>
+      <c r="BB2" s="145"/>
+      <c r="BC2" s="145"/>
+      <c r="BD2" s="145"/>
+      <c r="BE2" s="145"/>
+      <c r="BF2" s="145"/>
+      <c r="BG2" s="146"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7531,7 +7525,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -7724,10 +7718,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="148"/>
+      <c r="C41" s="151"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7810,10 +7804,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="137">
+      <c r="B42" s="140">
         <v>1</v>
       </c>
-      <c r="C42" s="138"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="100" t="s">
         <v>94</v>
       </c>
@@ -7845,16 +7839,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="101"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="142"/>
+      <c r="AL42" s="143"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7888,10 +7882,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="137">
+      <c r="B43" s="140">
         <v>2</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="82" t="s">
         <v>103</v>
       </c>
@@ -7902,7 +7896,7 @@
       <c r="I43" s="86"/>
       <c r="J43" s="87"/>
       <c r="K43" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -7923,16 +7917,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="142"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="142"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="142"/>
+      <c r="AL43" s="143"/>
       <c r="AM43" s="83" t="s">
         <v>104</v>
       </c>
@@ -8109,20 +8103,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="144">
+      <c r="CD1" s="147">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="151"/>
-      <c r="CF1" s="151"/>
-      <c r="CG1" s="151"/>
-      <c r="CH1" s="151"/>
-      <c r="CI1" s="151"/>
-      <c r="CJ1" s="151"/>
-      <c r="CK1" s="151"/>
-      <c r="CL1" s="151"/>
-      <c r="CM1" s="151"/>
-      <c r="CN1" s="152"/>
+      <c r="CE1" s="154"/>
+      <c r="CF1" s="154"/>
+      <c r="CG1" s="154"/>
+      <c r="CH1" s="154"/>
+      <c r="CI1" s="154"/>
+      <c r="CJ1" s="154"/>
+      <c r="CK1" s="154"/>
+      <c r="CL1" s="154"/>
+      <c r="CM1" s="154"/>
+      <c r="CN1" s="155"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8131,23 +8125,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="141" t="str">
+      <c r="CU1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="149"/>
-      <c r="CW1" s="149"/>
-      <c r="CX1" s="149"/>
-      <c r="CY1" s="149"/>
-      <c r="CZ1" s="149"/>
-      <c r="DA1" s="149"/>
-      <c r="DB1" s="149"/>
-      <c r="DC1" s="149"/>
-      <c r="DD1" s="149"/>
-      <c r="DE1" s="149"/>
-      <c r="DF1" s="149"/>
-      <c r="DG1" s="149"/>
-      <c r="DH1" s="150"/>
+      <c r="CV1" s="152"/>
+      <c r="CW1" s="152"/>
+      <c r="CX1" s="152"/>
+      <c r="CY1" s="152"/>
+      <c r="CZ1" s="152"/>
+      <c r="DA1" s="152"/>
+      <c r="DB1" s="152"/>
+      <c r="DC1" s="152"/>
+      <c r="DD1" s="152"/>
+      <c r="DE1" s="152"/>
+      <c r="DF1" s="152"/>
+      <c r="DG1" s="152"/>
+      <c r="DH1" s="153"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8202,39 +8196,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="154" t="str">
+      <c r="AT2" s="157" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
-      <c r="BA2" s="151"/>
-      <c r="BB2" s="151"/>
-      <c r="BC2" s="151"/>
-      <c r="BD2" s="151"/>
-      <c r="BE2" s="151"/>
-      <c r="BF2" s="151"/>
-      <c r="BG2" s="151"/>
-      <c r="BH2" s="151"/>
-      <c r="BI2" s="151"/>
-      <c r="BJ2" s="151"/>
-      <c r="BK2" s="151"/>
-      <c r="BL2" s="151"/>
-      <c r="BM2" s="151"/>
-      <c r="BN2" s="151"/>
-      <c r="BO2" s="151"/>
-      <c r="BP2" s="151"/>
-      <c r="BQ2" s="151"/>
-      <c r="BR2" s="151"/>
-      <c r="BS2" s="151"/>
-      <c r="BT2" s="151"/>
-      <c r="BU2" s="151"/>
-      <c r="BV2" s="151"/>
-      <c r="BW2" s="152"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="154"/>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="154"/>
+      <c r="BH2" s="154"/>
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="154"/>
+      <c r="BK2" s="154"/>
+      <c r="BL2" s="154"/>
+      <c r="BM2" s="154"/>
+      <c r="BN2" s="154"/>
+      <c r="BO2" s="154"/>
+      <c r="BP2" s="154"/>
+      <c r="BQ2" s="154"/>
+      <c r="BR2" s="154"/>
+      <c r="BS2" s="154"/>
+      <c r="BT2" s="154"/>
+      <c r="BU2" s="154"/>
+      <c r="BV2" s="154"/>
+      <c r="BW2" s="155"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8243,17 +8237,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="153"/>
-      <c r="CE2" s="149"/>
-      <c r="CF2" s="149"/>
-      <c r="CG2" s="149"/>
-      <c r="CH2" s="149"/>
-      <c r="CI2" s="149"/>
-      <c r="CJ2" s="149"/>
-      <c r="CK2" s="149"/>
-      <c r="CL2" s="149"/>
-      <c r="CM2" s="149"/>
-      <c r="CN2" s="150"/>
+      <c r="CD2" s="156"/>
+      <c r="CE2" s="152"/>
+      <c r="CF2" s="152"/>
+      <c r="CG2" s="152"/>
+      <c r="CH2" s="152"/>
+      <c r="CI2" s="152"/>
+      <c r="CJ2" s="152"/>
+      <c r="CK2" s="152"/>
+      <c r="CL2" s="152"/>
+      <c r="CM2" s="152"/>
+      <c r="CN2" s="153"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8262,20 +8256,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="141"/>
-      <c r="CV2" s="149"/>
-      <c r="CW2" s="149"/>
-      <c r="CX2" s="149"/>
-      <c r="CY2" s="149"/>
-      <c r="CZ2" s="149"/>
-      <c r="DA2" s="149"/>
-      <c r="DB2" s="149"/>
-      <c r="DC2" s="149"/>
-      <c r="DD2" s="149"/>
-      <c r="DE2" s="149"/>
-      <c r="DF2" s="149"/>
-      <c r="DG2" s="149"/>
-      <c r="DH2" s="150"/>
+      <c r="CU2" s="144"/>
+      <c r="CV2" s="152"/>
+      <c r="CW2" s="152"/>
+      <c r="CX2" s="152"/>
+      <c r="CY2" s="152"/>
+      <c r="CZ2" s="152"/>
+      <c r="DA2" s="152"/>
+      <c r="DB2" s="152"/>
+      <c r="DC2" s="152"/>
+      <c r="DD2" s="152"/>
+      <c r="DE2" s="152"/>
+      <c r="DF2" s="152"/>
+      <c r="DG2" s="152"/>
+      <c r="DH2" s="153"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8478,37 +8472,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8516,24 +8510,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="157" t="s">
+      <c r="Q6" s="160" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8543,7 +8537,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="157"/>
+      <c r="Q7" s="160"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8557,8 +8551,8 @@
       <c r="E8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="160" t="s">
-        <v>161</v>
+      <c r="F8" s="111" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8604,7 +8598,7 @@
         <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>128</v>
@@ -8652,7 +8646,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>128</v>
@@ -8701,37 +8695,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="155" t="s">
+      <c r="I13" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="157" t="s">
+      <c r="J13" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="129" t="s">
+      <c r="K13" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="129" t="s">
+      <c r="L13" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="129" t="s">
+      <c r="M13" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8739,24 +8733,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="155" t="s">
+      <c r="Q13" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8766,7 +8760,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="156"/>
+      <c r="Q14" s="159"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -8782,10 +8776,10 @@
         <v>115</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>34</v>
@@ -8794,7 +8788,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -8809,7 +8803,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>33</v>
@@ -8826,13 +8820,13 @@
         <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>34</v>
@@ -8856,7 +8850,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>33</v>
@@ -8881,37 +8875,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="G20" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="H20" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="157" t="s">
+      <c r="I20" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="157" t="s">
+      <c r="J20" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="129" t="s">
+      <c r="K20" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="129" t="s">
+      <c r="L20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="129" t="s">
+      <c r="M20" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -8919,24 +8913,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="157" t="s">
+      <c r="Q20" s="160" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -8946,7 +8940,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="157"/>
+      <c r="Q21" s="160"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -9061,7 +9055,7 @@
         <v>34</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -9159,7 +9153,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -9178,7 +9172,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -9192,8 +9186,8 @@
       <c r="J27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>34</v>
+      <c r="K27" s="111" t="s">
+        <v>216</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -9211,7 +9205,7 @@
         <v>34</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9353,14 +9347,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="144">
+      <c r="AI1" s="147">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="152"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="155"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9369,16 +9363,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="141" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="149"/>
-      <c r="AV1" s="149"/>
-      <c r="AW1" s="149"/>
-      <c r="AX1" s="149"/>
-      <c r="AY1" s="149"/>
-      <c r="AZ1" s="150"/>
+      <c r="AU1" s="152"/>
+      <c r="AV1" s="152"/>
+      <c r="AW1" s="152"/>
+      <c r="AX1" s="152"/>
+      <c r="AY1" s="152"/>
+      <c r="AZ1" s="153"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9406,32 +9400,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="154" t="str">
+      <c r="S2" s="157" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="152"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="155"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="150"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="153"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9440,13 +9434,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="150"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AY2" s="152"/>
+      <c r="AZ2" s="153"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9785,10 +9779,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>171</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>172</v>
       </c>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
@@ -9828,7 +9822,7 @@
       <c r="G12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="93"/>
       <c r="O12" s="93"/>
@@ -9868,7 +9862,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
@@ -9884,7 +9878,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="93"/>
       <c r="N14" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL14" s="93"/>
       <c r="AM14" s="93"/>
@@ -9900,7 +9894,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL15" s="93"/>
       <c r="AM15" s="93"/>
@@ -9916,7 +9910,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="93"/>
       <c r="N16" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL16" s="93"/>
       <c r="AM16" s="93"/>
@@ -9932,7 +9926,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="93"/>
       <c r="N17" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL17" s="93"/>
       <c r="AM17" s="93"/>
@@ -9948,7 +9942,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="93"/>
       <c r="N18" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
@@ -9964,7 +9958,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="93"/>
       <c r="N19" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL19" s="93"/>
       <c r="AM19" s="93"/>
@@ -9980,7 +9974,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="93"/>
       <c r="N20" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL20" s="93"/>
       <c r="AM20" s="93"/>
@@ -9996,7 +9990,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="93"/>
       <c r="N21" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL21" s="93"/>
       <c r="AM21" s="93"/>
@@ -10012,7 +10006,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
@@ -10028,7 +10022,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="93"/>
       <c r="N23" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
@@ -10080,7 +10074,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N25" s="93"/>
       <c r="O25" s="93"/>
@@ -10119,7 +10113,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
@@ -10156,38 +10150,38 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="159"/>
-      <c r="AD27" s="159"/>
-      <c r="AE27" s="159"/>
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="159"/>
-      <c r="AJ27" s="159"/>
-      <c r="AK27" s="159"/>
-      <c r="AL27" s="159"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="159"/>
-      <c r="AO27" s="159"/>
-      <c r="AP27" s="159"/>
-      <c r="AQ27" s="159"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="110"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="110"/>
+      <c r="AP27" s="110"/>
+      <c r="AQ27" s="110"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10196,40 +10190,40 @@
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
-      <c r="L28" s="159" t="s">
-        <v>181</v>
-      </c>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="159"/>
-      <c r="AD28" s="159"/>
-      <c r="AE28" s="159"/>
-      <c r="AF28" s="159"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="159"/>
-      <c r="AJ28" s="159"/>
-      <c r="AK28" s="159"/>
-      <c r="AL28" s="159"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="159"/>
-      <c r="AO28" s="159"/>
-      <c r="AP28" s="159"/>
-      <c r="AQ28" s="159"/>
+      <c r="L28" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="110"/>
+      <c r="AO28" s="110"/>
+      <c r="AP28" s="110"/>
+      <c r="AQ28" s="110"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10245,7 +10239,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="23"/>
       <c r="M29" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N29" s="93"/>
       <c r="O29" s="93"/>
@@ -10290,7 +10284,7 @@
       <c r="K30" s="72"/>
       <c r="L30" s="23"/>
       <c r="N30" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93"/>
@@ -10334,7 +10328,7 @@
       <c r="K31" s="72"/>
       <c r="L31" s="23"/>
       <c r="N31" s="93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
@@ -10378,7 +10372,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="23"/>
       <c r="N32" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -10422,7 +10416,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="23"/>
       <c r="N33" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
@@ -10508,7 +10502,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="23"/>
       <c r="M35" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" s="93"/>
       <c r="O35" s="93"/>
@@ -10547,7 +10541,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O36" s="93"/>
       <c r="P36" s="93"/>
@@ -10573,7 +10567,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="23"/>
       <c r="N37" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O37" s="93"/>
       <c r="P37" s="93"/>
@@ -10618,7 +10612,7 @@
       <c r="L38" s="23"/>
       <c r="N38" s="93"/>
       <c r="O38" s="93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P38" s="93"/>
       <c r="Q38" s="93"/>
@@ -10632,7 +10626,7 @@
         <v>98</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
@@ -10661,7 +10655,7 @@
       <c r="G39" s="71"/>
       <c r="L39" s="71"/>
       <c r="N39" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O39" s="93"/>
       <c r="P39" s="93"/>
@@ -10682,7 +10676,7 @@
       <c r="L40" s="71"/>
       <c r="N40" s="93"/>
       <c r="O40" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P40" s="93"/>
       <c r="Q40" s="93"/>
@@ -10695,7 +10689,7 @@
         <v>98</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV40" s="72"/>
     </row>
@@ -10707,7 +10701,7 @@
       <c r="L41" s="71"/>
       <c r="N41" s="93"/>
       <c r="O41" s="93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P41" s="93"/>
       <c r="Q41" s="93"/>
@@ -10720,7 +10714,7 @@
         <v>98</v>
       </c>
       <c r="Y41" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV41" s="72"/>
     </row>
@@ -10732,7 +10726,7 @@
       <c r="L42" s="71"/>
       <c r="N42" s="93"/>
       <c r="O42" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P42" s="93"/>
       <c r="Q42" s="93"/>
@@ -10745,7 +10739,7 @@
         <v>98</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV42" s="72"/>
     </row>
@@ -10757,7 +10751,7 @@
       <c r="L43" s="71"/>
       <c r="N43" s="93"/>
       <c r="O43" s="93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P43" s="93"/>
       <c r="Q43" s="93"/>
@@ -10770,7 +10764,7 @@
         <v>98</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AV43" s="72"/>
     </row>
@@ -10782,7 +10776,7 @@
       <c r="L44" s="71"/>
       <c r="N44" s="93"/>
       <c r="O44" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P44" s="93"/>
       <c r="Q44" s="93"/>
@@ -10795,7 +10789,7 @@
         <v>98</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AV44" s="72"/>
     </row>
@@ -10844,7 +10838,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="23"/>
       <c r="M46" s="93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N46" s="93"/>
       <c r="O46" s="93"/>
@@ -10889,7 +10883,7 @@
       <c r="G47" s="71"/>
       <c r="K47" s="72"/>
       <c r="N47" s="93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O47" s="93"/>
       <c r="P47" s="93"/>
@@ -10903,7 +10897,7 @@
         <v>98</v>
       </c>
       <c r="Y47" s="107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z47" s="93"/>
       <c r="AA47" s="93"/>
@@ -10917,7 +10911,7 @@
       <c r="G48" s="71"/>
       <c r="K48" s="72"/>
       <c r="N48" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
@@ -10931,7 +10925,7 @@
         <v>98</v>
       </c>
       <c r="Y48" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z48" s="93"/>
       <c r="AA48" s="93"/>
@@ -10946,7 +10940,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="106"/>
       <c r="N49" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O49" s="93"/>
       <c r="P49" s="93"/>
@@ -10961,7 +10955,7 @@
         <v>98</v>
       </c>
       <c r="Y49" s="107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA49" s="93"/>
       <c r="AB49" s="93"/>
@@ -10979,7 +10973,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O50" s="93"/>
       <c r="P50" s="93"/>
@@ -10993,13 +10987,13 @@
         <v>98</v>
       </c>
       <c r="Y50" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z50" s="93"/>
       <c r="AA50" s="93"/>
       <c r="AB50" s="93"/>
       <c r="AI50" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AV50" s="72"/>
     </row>
@@ -11010,7 +11004,7 @@
       <c r="G51" s="71"/>
       <c r="K51" s="72"/>
       <c r="N51" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O51" s="93"/>
       <c r="P51" s="93"/>
@@ -11024,13 +11018,13 @@
         <v>98</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z51" s="93"/>
       <c r="AA51" s="93"/>
       <c r="AB51" s="93"/>
       <c r="AI51" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AV51" s="72"/>
     </row>
@@ -11074,7 +11068,7 @@
       <c r="G53" s="71"/>
       <c r="L53" s="71"/>
       <c r="M53" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM53" s="93"/>
       <c r="AN53" s="93"/>
@@ -11089,7 +11083,7 @@
       <c r="G54" s="71"/>
       <c r="L54" s="71"/>
       <c r="N54" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM54" s="93"/>
       <c r="AN54" s="93"/>
@@ -11119,7 +11113,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM56" s="93"/>
       <c r="AN56" s="93"/>
@@ -11134,7 +11128,7 @@
       <c r="G57" s="71"/>
       <c r="L57" s="71"/>
       <c r="N57" s="93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM57" s="93"/>
       <c r="AN57" s="93"/>
@@ -11149,7 +11143,7 @@
       <c r="G58" s="71"/>
       <c r="L58" s="71"/>
       <c r="N58" s="93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM58" s="93"/>
       <c r="AN58" s="93"/>
@@ -11164,7 +11158,7 @@
       <c r="G59" s="71"/>
       <c r="L59" s="71"/>
       <c r="N59" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM59" s="93"/>
       <c r="AN59" s="93"/>
@@ -11179,7 +11173,7 @@
       <c r="G60" s="71"/>
       <c r="L60" s="71"/>
       <c r="N60" s="93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM60" s="93"/>
       <c r="AN60" s="93"/>
@@ -11194,7 +11188,7 @@
       <c r="G61" s="71"/>
       <c r="L61" s="71"/>
       <c r="N61" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
@@ -11283,7 +11277,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="23"/>
       <c r="N64" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD64" s="23"/>
       <c r="AE64" s="23"/>
@@ -11318,7 +11312,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="23"/>
       <c r="N65" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD65" s="23"/>
       <c r="AE65" s="23"/>
@@ -11451,11 +11445,11 @@
       <c r="C68" s="71"/>
       <c r="F68" s="72"/>
       <c r="G68" s="71" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="K68" s="72"/>
       <c r="L68" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV68" s="72"/>
     </row>
@@ -11514,14 +11508,14 @@
       <c r="E70" s="21"/>
       <c r="F70" s="22"/>
       <c r="G70" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="22"/>
       <c r="L70" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
@@ -11565,11 +11559,11 @@
       <c r="C71" s="71"/>
       <c r="F71" s="72"/>
       <c r="G71" s="71" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="K71" s="72"/>
       <c r="L71" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AV71" s="72"/>
     </row>
@@ -11854,14 +11848,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="144">
+      <c r="AI1" s="147">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="152"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="155"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -11870,16 +11864,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="141" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="149"/>
-      <c r="AV1" s="149"/>
-      <c r="AW1" s="149"/>
-      <c r="AX1" s="149"/>
-      <c r="AY1" s="149"/>
-      <c r="AZ1" s="150"/>
+      <c r="AU1" s="152"/>
+      <c r="AV1" s="152"/>
+      <c r="AW1" s="152"/>
+      <c r="AX1" s="152"/>
+      <c r="AY1" s="152"/>
+      <c r="AZ1" s="153"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -11907,32 +11901,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="154" t="str">
+      <c r="S2" s="157" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="152"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="155"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="150"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="153"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -11941,13 +11935,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="150"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AY2" s="152"/>
+      <c r="AZ2" s="153"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12677,14 +12671,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="144">
+      <c r="AI1" s="147">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="152"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="155"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -12693,16 +12687,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="141" t="str">
+      <c r="AT1" s="144" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="149"/>
-      <c r="AV1" s="149"/>
-      <c r="AW1" s="149"/>
-      <c r="AX1" s="149"/>
-      <c r="AY1" s="149"/>
-      <c r="AZ1" s="150"/>
+      <c r="AU1" s="152"/>
+      <c r="AV1" s="152"/>
+      <c r="AW1" s="152"/>
+      <c r="AX1" s="152"/>
+      <c r="AY1" s="152"/>
+      <c r="AZ1" s="153"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12730,32 +12724,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="154" t="str">
+      <c r="S2" s="157" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="152"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="155"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="150"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="153"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -12764,13 +12758,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="150"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AY2" s="152"/>
+      <c r="AZ2" s="153"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -13084,6 +13078,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -13241,22 +13244,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13274,19 +13276,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E0646-9AA2-448C-A224-C5EE257E1964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99954E0-0889-4A15-B1B1-71AFC2FFB385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2291,6 +2291,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2303,65 +2333,35 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2416,13 +2416,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2692,26 +2692,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>全工程で試作の在庫払出可能化の伝票出力</a:t>
+            <a:t>その他出庫参照・取消</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>&amp;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>取消</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3105,12 +3102,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>その他払出メニュー</a:t>
+            <a:t>在庫照会と進捗管理メニュー</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4307,1779 +4315,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="130"/>
-      <c r="AV1" s="130"/>
-      <c r="AW1" s="130"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="131"/>
-      <c r="AS2" s="131"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="131"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="134" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="134" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="132" t="s">
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132" t="s">
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132" t="s">
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132" t="s">
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117"/>
+      <c r="AW3" s="117"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="116">
+      <c r="B5" s="126">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127">
         <v>43725</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="115" t="s">
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="127" t="s">
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="115" t="s">
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="125"/>
+      <c r="AR5" s="125"/>
+      <c r="AS5" s="125"/>
+      <c r="AT5" s="125"/>
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
       <c r="O6" s="129"/>
       <c r="P6" s="129"/>
       <c r="Q6" s="129"/>
       <c r="R6" s="129"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="115"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="115"/>
-      <c r="AT6" s="115"/>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="115"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129"/>
       <c r="P7" s="129"/>
       <c r="Q7" s="129"/>
       <c r="R7" s="129"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="115"/>
-      <c r="AO7" s="115"/>
-      <c r="AP7" s="115"/>
-      <c r="AQ7" s="115"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="115"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="125"/>
+      <c r="AO7" s="125"/>
+      <c r="AP7" s="125"/>
+      <c r="AQ7" s="125"/>
+      <c r="AR7" s="125"/>
+      <c r="AS7" s="125"/>
+      <c r="AT7" s="125"/>
+      <c r="AU7" s="125"/>
+      <c r="AV7" s="125"/>
+      <c r="AW7" s="125"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
       <c r="M8" s="129"/>
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
       <c r="P8" s="129"/>
       <c r="Q8" s="129"/>
       <c r="R8" s="129"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="115"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="115"/>
-      <c r="AQ8" s="115"/>
-      <c r="AR8" s="115"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="115"/>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="115"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="130"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="130"/>
+      <c r="AJ8" s="130"/>
+      <c r="AK8" s="130"/>
+      <c r="AL8" s="130"/>
+      <c r="AM8" s="130"/>
+      <c r="AN8" s="125"/>
+      <c r="AO8" s="125"/>
+      <c r="AP8" s="125"/>
+      <c r="AQ8" s="125"/>
+      <c r="AR8" s="125"/>
+      <c r="AS8" s="125"/>
+      <c r="AT8" s="125"/>
+      <c r="AU8" s="125"/>
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
       <c r="O9" s="129"/>
       <c r="P9" s="129"/>
       <c r="Q9" s="129"/>
       <c r="R9" s="129"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="115"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="115"/>
-      <c r="AS9" s="115"/>
-      <c r="AT9" s="115"/>
-      <c r="AU9" s="115"/>
-      <c r="AV9" s="115"/>
-      <c r="AW9" s="115"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="130"/>
+      <c r="AL9" s="130"/>
+      <c r="AM9" s="130"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
+      <c r="AQ9" s="125"/>
+      <c r="AR9" s="125"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="125"/>
+      <c r="AU9" s="125"/>
+      <c r="AV9" s="125"/>
+      <c r="AW9" s="125"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
       <c r="M10" s="129"/>
       <c r="N10" s="129"/>
       <c r="O10" s="129"/>
       <c r="P10" s="129"/>
       <c r="Q10" s="129"/>
       <c r="R10" s="129"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="115"/>
-      <c r="AS10" s="115"/>
-      <c r="AT10" s="115"/>
-      <c r="AU10" s="115"/>
-      <c r="AV10" s="115"/>
-      <c r="AW10" s="115"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="125"/>
+      <c r="AQ10" s="125"/>
+      <c r="AR10" s="125"/>
+      <c r="AS10" s="125"/>
+      <c r="AT10" s="125"/>
+      <c r="AU10" s="125"/>
+      <c r="AV10" s="125"/>
+      <c r="AW10" s="125"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128"/>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="128"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="115"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="115"/>
-      <c r="AQ11" s="115"/>
-      <c r="AR11" s="115"/>
-      <c r="AS11" s="115"/>
-      <c r="AT11" s="115"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="115"/>
-      <c r="AW11" s="115"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="133"/>
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="125"/>
+      <c r="AR11" s="125"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="125"/>
+      <c r="AU11" s="125"/>
+      <c r="AV11" s="125"/>
+      <c r="AW11" s="125"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="115"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="115"/>
-      <c r="AQ12" s="115"/>
-      <c r="AR12" s="115"/>
-      <c r="AS12" s="115"/>
-      <c r="AT12" s="115"/>
-      <c r="AU12" s="115"/>
-      <c r="AV12" s="115"/>
-      <c r="AW12" s="115"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="132"/>
+      <c r="AK12" s="132"/>
+      <c r="AL12" s="132"/>
+      <c r="AM12" s="132"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="125"/>
+      <c r="AP12" s="125"/>
+      <c r="AQ12" s="125"/>
+      <c r="AR12" s="125"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="125"/>
+      <c r="AU12" s="125"/>
+      <c r="AV12" s="125"/>
+      <c r="AW12" s="125"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="121"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="115"/>
-      <c r="AO13" s="115"/>
-      <c r="AP13" s="115"/>
-      <c r="AQ13" s="115"/>
-      <c r="AR13" s="115"/>
-      <c r="AS13" s="115"/>
-      <c r="AT13" s="115"/>
-      <c r="AU13" s="115"/>
-      <c r="AV13" s="115"/>
-      <c r="AW13" s="115"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="132"/>
+      <c r="AJ13" s="132"/>
+      <c r="AK13" s="132"/>
+      <c r="AL13" s="132"/>
+      <c r="AM13" s="132"/>
+      <c r="AN13" s="125"/>
+      <c r="AO13" s="125"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="125"/>
+      <c r="AR13" s="125"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="125"/>
+      <c r="AU13" s="125"/>
+      <c r="AV13" s="125"/>
+      <c r="AW13" s="125"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="130"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="125"/>
+      <c r="AP14" s="125"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="125"/>
+      <c r="AT14" s="125"/>
+      <c r="AU14" s="125"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="125"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="115"/>
-      <c r="AO15" s="115"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="115"/>
-      <c r="AR15" s="115"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="115"/>
-      <c r="AU15" s="115"/>
-      <c r="AV15" s="115"/>
-      <c r="AW15" s="115"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="132"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="132"/>
+      <c r="AK15" s="132"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="132"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="115"/>
-      <c r="AO16" s="115"/>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="115"/>
-      <c r="AR16" s="115"/>
-      <c r="AS16" s="115"/>
-      <c r="AT16" s="115"/>
-      <c r="AU16" s="115"/>
-      <c r="AV16" s="115"/>
-      <c r="AW16" s="115"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="132"/>
+      <c r="AF16" s="132"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="132"/>
+      <c r="AK16" s="132"/>
+      <c r="AL16" s="132"/>
+      <c r="AM16" s="132"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125"/>
+      <c r="AQ16" s="125"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="132"/>
+      <c r="AK17" s="132"/>
+      <c r="AL17" s="132"/>
+      <c r="AM17" s="132"/>
+      <c r="AN17" s="125"/>
+      <c r="AO17" s="125"/>
+      <c r="AP17" s="125"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
-      <c r="AR18" s="115"/>
-      <c r="AS18" s="115"/>
-      <c r="AT18" s="115"/>
-      <c r="AU18" s="115"/>
-      <c r="AV18" s="115"/>
-      <c r="AW18" s="115"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="132"/>
+      <c r="AF18" s="132"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="132"/>
+      <c r="AJ18" s="132"/>
+      <c r="AK18" s="132"/>
+      <c r="AL18" s="132"/>
+      <c r="AM18" s="132"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="125"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="125"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="125"/>
+      <c r="AU18" s="125"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="125"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-      <c r="AT19" s="115"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="132"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="132"/>
+      <c r="AK19" s="132"/>
+      <c r="AL19" s="132"/>
+      <c r="AM19" s="132"/>
+      <c r="AN19" s="125"/>
+      <c r="AO19" s="125"/>
+      <c r="AP19" s="125"/>
+      <c r="AQ19" s="125"/>
+      <c r="AR19" s="125"/>
+      <c r="AS19" s="125"/>
+      <c r="AT19" s="125"/>
+      <c r="AU19" s="125"/>
+      <c r="AV19" s="125"/>
+      <c r="AW19" s="125"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="132"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="132"/>
+      <c r="AJ20" s="132"/>
+      <c r="AK20" s="132"/>
+      <c r="AL20" s="132"/>
+      <c r="AM20" s="132"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="125"/>
+      <c r="AP20" s="125"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="125"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="125"/>
+      <c r="AU20" s="125"/>
+      <c r="AV20" s="125"/>
+      <c r="AW20" s="125"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="115"/>
-      <c r="AW21" s="115"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="132"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="125"/>
+      <c r="AO21" s="125"/>
+      <c r="AP21" s="125"/>
+      <c r="AQ21" s="125"/>
+      <c r="AR21" s="125"/>
+      <c r="AS21" s="125"/>
+      <c r="AT21" s="125"/>
+      <c r="AU21" s="125"/>
+      <c r="AV21" s="125"/>
+      <c r="AW21" s="125"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="115"/>
-      <c r="AR22" s="115"/>
-      <c r="AS22" s="115"/>
-      <c r="AT22" s="115"/>
-      <c r="AU22" s="115"/>
-      <c r="AV22" s="115"/>
-      <c r="AW22" s="115"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="132"/>
+      <c r="AF22" s="132"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="132"/>
+      <c r="AJ22" s="132"/>
+      <c r="AK22" s="132"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="125"/>
+      <c r="AO22" s="125"/>
+      <c r="AP22" s="125"/>
+      <c r="AQ22" s="125"/>
+      <c r="AR22" s="125"/>
+      <c r="AS22" s="125"/>
+      <c r="AT22" s="125"/>
+      <c r="AU22" s="125"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="125"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="121"/>
-      <c r="AJ23" s="121"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="121"/>
-      <c r="AN23" s="115"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="115"/>
-      <c r="AQ23" s="115"/>
-      <c r="AR23" s="115"/>
-      <c r="AS23" s="115"/>
-      <c r="AT23" s="115"/>
-      <c r="AU23" s="115"/>
-      <c r="AV23" s="115"/>
-      <c r="AW23" s="115"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="125"/>
+      <c r="AP23" s="125"/>
+      <c r="AQ23" s="125"/>
+      <c r="AR23" s="125"/>
+      <c r="AS23" s="125"/>
+      <c r="AT23" s="125"/>
+      <c r="AU23" s="125"/>
+      <c r="AV23" s="125"/>
+      <c r="AW23" s="125"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="121"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="115"/>
-      <c r="AO24" s="115"/>
-      <c r="AP24" s="115"/>
-      <c r="AQ24" s="115"/>
-      <c r="AR24" s="115"/>
-      <c r="AS24" s="115"/>
-      <c r="AT24" s="115"/>
-      <c r="AU24" s="115"/>
-      <c r="AV24" s="115"/>
-      <c r="AW24" s="115"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="132"/>
+      <c r="AK24" s="132"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="125"/>
+      <c r="AO24" s="125"/>
+      <c r="AP24" s="125"/>
+      <c r="AQ24" s="125"/>
+      <c r="AR24" s="125"/>
+      <c r="AS24" s="125"/>
+      <c r="AT24" s="125"/>
+      <c r="AU24" s="125"/>
+      <c r="AV24" s="125"/>
+      <c r="AW24" s="125"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="121"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="121"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="121"/>
-      <c r="AN25" s="115"/>
-      <c r="AO25" s="115"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="115"/>
-      <c r="AR25" s="115"/>
-      <c r="AS25" s="115"/>
-      <c r="AT25" s="115"/>
-      <c r="AU25" s="115"/>
-      <c r="AV25" s="115"/>
-      <c r="AW25" s="115"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="125"/>
+      <c r="AO25" s="125"/>
+      <c r="AP25" s="125"/>
+      <c r="AQ25" s="125"/>
+      <c r="AR25" s="125"/>
+      <c r="AS25" s="125"/>
+      <c r="AT25" s="125"/>
+      <c r="AU25" s="125"/>
+      <c r="AV25" s="125"/>
+      <c r="AW25" s="125"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="121"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="121"/>
-      <c r="AN26" s="115"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="115"/>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="125"/>
+      <c r="AO26" s="125"/>
+      <c r="AP26" s="125"/>
+      <c r="AQ26" s="125"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="125"/>
+      <c r="AT26" s="125"/>
+      <c r="AU26" s="125"/>
+      <c r="AV26" s="125"/>
+      <c r="AW26" s="125"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="115"/>
-      <c r="AO27" s="115"/>
-      <c r="AP27" s="115"/>
-      <c r="AQ27" s="115"/>
-      <c r="AR27" s="115"/>
-      <c r="AS27" s="115"/>
-      <c r="AT27" s="115"/>
-      <c r="AU27" s="115"/>
-      <c r="AV27" s="115"/>
-      <c r="AW27" s="115"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="132"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="132"/>
+      <c r="AL27" s="132"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="125"/>
+      <c r="AO27" s="125"/>
+      <c r="AP27" s="125"/>
+      <c r="AQ27" s="125"/>
+      <c r="AR27" s="125"/>
+      <c r="AS27" s="125"/>
+      <c r="AT27" s="125"/>
+      <c r="AU27" s="125"/>
+      <c r="AV27" s="125"/>
+      <c r="AW27" s="125"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="115"/>
-      <c r="AR28" s="115"/>
-      <c r="AS28" s="115"/>
-      <c r="AT28" s="115"/>
-      <c r="AU28" s="115"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="125"/>
+      <c r="AO28" s="125"/>
+      <c r="AP28" s="125"/>
+      <c r="AQ28" s="125"/>
+      <c r="AR28" s="125"/>
+      <c r="AS28" s="125"/>
+      <c r="AT28" s="125"/>
+      <c r="AU28" s="125"/>
+      <c r="AV28" s="125"/>
+      <c r="AW28" s="125"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="115"/>
-      <c r="AQ29" s="115"/>
-      <c r="AR29" s="115"/>
-      <c r="AS29" s="115"/>
-      <c r="AT29" s="115"/>
-      <c r="AU29" s="115"/>
-      <c r="AV29" s="115"/>
-      <c r="AW29" s="115"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125"/>
+      <c r="AP29" s="125"/>
+      <c r="AQ29" s="125"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="125"/>
+      <c r="AU29" s="125"/>
+      <c r="AV29" s="125"/>
+      <c r="AW29" s="125"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="115"/>
-      <c r="AP30" s="115"/>
-      <c r="AQ30" s="115"/>
-      <c r="AR30" s="115"/>
-      <c r="AS30" s="115"/>
-      <c r="AT30" s="115"/>
-      <c r="AU30" s="115"/>
-      <c r="AV30" s="115"/>
-      <c r="AW30" s="115"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="125"/>
+      <c r="AO30" s="125"/>
+      <c r="AP30" s="125"/>
+      <c r="AQ30" s="125"/>
+      <c r="AR30" s="125"/>
+      <c r="AS30" s="125"/>
+      <c r="AT30" s="125"/>
+      <c r="AU30" s="125"/>
+      <c r="AV30" s="125"/>
+      <c r="AW30" s="125"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="115"/>
-      <c r="AT31" s="115"/>
-      <c r="AU31" s="115"/>
-      <c r="AV31" s="115"/>
-      <c r="AW31" s="115"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="125"/>
+      <c r="AO31" s="125"/>
+      <c r="AP31" s="125"/>
+      <c r="AQ31" s="125"/>
+      <c r="AR31" s="125"/>
+      <c r="AS31" s="125"/>
+      <c r="AT31" s="125"/>
+      <c r="AU31" s="125"/>
+      <c r="AV31" s="125"/>
+      <c r="AW31" s="125"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
-      <c r="AR32" s="115"/>
-      <c r="AS32" s="115"/>
-      <c r="AT32" s="115"/>
-      <c r="AU32" s="115"/>
-      <c r="AV32" s="115"/>
-      <c r="AW32" s="115"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="125"/>
+      <c r="AO32" s="125"/>
+      <c r="AP32" s="125"/>
+      <c r="AQ32" s="125"/>
+      <c r="AR32" s="125"/>
+      <c r="AS32" s="125"/>
+      <c r="AT32" s="125"/>
+      <c r="AU32" s="125"/>
+      <c r="AV32" s="125"/>
+      <c r="AW32" s="125"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="115"/>
-      <c r="AO33" s="115"/>
-      <c r="AP33" s="115"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="115"/>
-      <c r="AS33" s="115"/>
-      <c r="AT33" s="115"/>
-      <c r="AU33" s="115"/>
-      <c r="AV33" s="115"/>
-      <c r="AW33" s="115"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="125"/>
+      <c r="AO33" s="125"/>
+      <c r="AP33" s="125"/>
+      <c r="AQ33" s="125"/>
+      <c r="AR33" s="125"/>
+      <c r="AS33" s="125"/>
+      <c r="AT33" s="125"/>
+      <c r="AU33" s="125"/>
+      <c r="AV33" s="125"/>
+      <c r="AW33" s="125"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
-      <c r="AD34" s="121"/>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="115"/>
-      <c r="AO34" s="115"/>
-      <c r="AP34" s="115"/>
-      <c r="AQ34" s="115"/>
-      <c r="AR34" s="115"/>
-      <c r="AS34" s="115"/>
-      <c r="AT34" s="115"/>
-      <c r="AU34" s="115"/>
-      <c r="AV34" s="115"/>
-      <c r="AW34" s="115"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="125"/>
+      <c r="AO34" s="125"/>
+      <c r="AP34" s="125"/>
+      <c r="AQ34" s="125"/>
+      <c r="AR34" s="125"/>
+      <c r="AS34" s="125"/>
+      <c r="AT34" s="125"/>
+      <c r="AU34" s="125"/>
+      <c r="AV34" s="125"/>
+      <c r="AW34" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6096,230 +6319,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8472,37 +8480,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="160" t="s">
+      <c r="I6" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="117" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8510,24 +8518,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="160" t="s">
+      <c r="Q6" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8537,7 +8545,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="160"/>
+      <c r="Q7" s="158"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8695,37 +8703,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="160" t="s">
+      <c r="J13" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="132" t="s">
+      <c r="L13" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="132" t="s">
+      <c r="M13" s="117" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8733,24 +8741,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="158" t="s">
+      <c r="Q13" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8760,7 +8768,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="159"/>
+      <c r="Q14" s="160"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -8875,37 +8883,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="132" t="s">
+      <c r="H20" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="160" t="s">
+      <c r="J20" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="132" t="s">
+      <c r="K20" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="132" t="s">
+      <c r="L20" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="132" t="s">
+      <c r="M20" s="117" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -8913,24 +8921,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="160" t="s">
+      <c r="Q20" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -8940,7 +8948,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="160"/>
+      <c r="Q21" s="158"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -9235,26 +9243,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -9271,6 +9259,26 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13087,6 +13095,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -13244,12 +13258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -13259,6 +13267,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13274,13 +13291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99954E0-0889-4A15-B1B1-71AFC2FFB385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE4797-DBCB-4D14-A63A-FD824DA5AC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="220">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1216,9 +1216,6 @@
   <si>
     <t>Issues division</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
   </si>
   <si>
     <t>パラメータ.対象年月</t>
@@ -1464,11 +1461,36 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>生産品名マスタ.品名略称</t>
+    <t>###,##0</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>###,##0</t>
+    <t>・生産品名マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>品名略称を取得する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタの品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YYYY/MM</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1480,7 +1502,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,6 +1740,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1965,7 +1994,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2246,42 +2275,42 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2291,6 +2320,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,47 +2391,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2416,14 +2445,41 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2791,7 +2847,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>233363</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2812,7 +2868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5700713" y="2867024"/>
-          <a:ext cx="4763" cy="342901"/>
+          <a:ext cx="9525" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3052,13 +3108,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:to>
@@ -3075,8 +3131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172076" y="3209925"/>
-          <a:ext cx="1066800" cy="553301"/>
+          <a:off x="5095875" y="3209925"/>
+          <a:ext cx="1228725" cy="553301"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3127,13 +3183,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>232221</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>232221</xdr:colOff>
+      <xdr:colOff>233363</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -3152,9 +3208,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5705476" y="3763226"/>
-          <a:ext cx="3620" cy="342050"/>
+        <a:xfrm flipH="1">
+          <a:off x="5709096" y="3763226"/>
+          <a:ext cx="1142" cy="342050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4315,1770 +4371,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
-      <c r="AN1" s="115"/>
-      <c r="AO1" s="115"/>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="115"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="115"/>
-      <c r="AU1" s="115"/>
-      <c r="AV1" s="115"/>
-      <c r="AW1" s="115"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117" t="s">
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="119" t="s">
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="119" t="s">
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="117" t="s">
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117" t="s">
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117" t="s">
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117" t="s">
+      <c r="AO3" s="132"/>
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="132"/>
+      <c r="AR3" s="132"/>
+      <c r="AS3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="132"/>
+      <c r="AV3" s="132"/>
+      <c r="AW3" s="132"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="126">
+      <c r="B5" s="116">
         <v>1</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117">
         <v>43725</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="128" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128" t="s">
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="125" t="s">
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="130" t="s">
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="130"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="125" t="s">
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="125"/>
-      <c r="AP5" s="125"/>
-      <c r="AQ5" s="125"/>
-      <c r="AR5" s="125"/>
-      <c r="AS5" s="125"/>
-      <c r="AT5" s="125"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
       <c r="O6" s="129"/>
       <c r="P6" s="129"/>
       <c r="Q6" s="129"/>
       <c r="R6" s="129"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129"/>
       <c r="P7" s="129"/>
       <c r="Q7" s="129"/>
       <c r="R7" s="129"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="125"/>
-      <c r="AP7" s="125"/>
-      <c r="AQ7" s="125"/>
-      <c r="AR7" s="125"/>
-      <c r="AS7" s="125"/>
-      <c r="AT7" s="125"/>
-      <c r="AU7" s="125"/>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="129"/>
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
       <c r="P8" s="129"/>
       <c r="Q8" s="129"/>
       <c r="R8" s="129"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="130"/>
-      <c r="AF8" s="130"/>
-      <c r="AG8" s="130"/>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="130"/>
-      <c r="AJ8" s="130"/>
-      <c r="AK8" s="130"/>
-      <c r="AL8" s="130"/>
-      <c r="AM8" s="130"/>
-      <c r="AN8" s="125"/>
-      <c r="AO8" s="125"/>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="125"/>
-      <c r="AS8" s="125"/>
-      <c r="AT8" s="125"/>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="125"/>
-      <c r="AW8" s="125"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="127"/>
+      <c r="AN8" s="115"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="115"/>
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
       <c r="O9" s="129"/>
       <c r="P9" s="129"/>
       <c r="Q9" s="129"/>
       <c r="R9" s="129"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="125"/>
-      <c r="AQ9" s="125"/>
-      <c r="AR9" s="125"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="125"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="125"/>
-      <c r="AW9" s="125"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="115"/>
+      <c r="AQ9" s="115"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="115"/>
+      <c r="AW9" s="115"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="129"/>
       <c r="N10" s="129"/>
       <c r="O10" s="129"/>
       <c r="P10" s="129"/>
       <c r="Q10" s="129"/>
       <c r="R10" s="129"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="125"/>
-      <c r="AR10" s="125"/>
-      <c r="AS10" s="125"/>
-      <c r="AT10" s="125"/>
-      <c r="AU10" s="125"/>
-      <c r="AV10" s="125"/>
-      <c r="AW10" s="125"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="133"/>
-      <c r="AG11" s="133"/>
-      <c r="AH11" s="133"/>
-      <c r="AI11" s="133"/>
-      <c r="AJ11" s="133"/>
-      <c r="AK11" s="133"/>
-      <c r="AL11" s="133"/>
-      <c r="AM11" s="133"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
-      <c r="AQ11" s="125"/>
-      <c r="AR11" s="125"/>
-      <c r="AS11" s="125"/>
-      <c r="AT11" s="125"/>
-      <c r="AU11" s="125"/>
-      <c r="AV11" s="125"/>
-      <c r="AW11" s="125"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="128"/>
+      <c r="AJ11" s="128"/>
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="128"/>
+      <c r="AM11" s="128"/>
+      <c r="AN11" s="115"/>
+      <c r="AO11" s="115"/>
+      <c r="AP11" s="115"/>
+      <c r="AQ11" s="115"/>
+      <c r="AR11" s="115"/>
+      <c r="AS11" s="115"/>
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="115"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="132"/>
-      <c r="AJ12" s="132"/>
-      <c r="AK12" s="132"/>
-      <c r="AL12" s="132"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="125"/>
-      <c r="AP12" s="125"/>
-      <c r="AQ12" s="125"/>
-      <c r="AR12" s="125"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="125"/>
-      <c r="AU12" s="125"/>
-      <c r="AV12" s="125"/>
-      <c r="AW12" s="125"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="132"/>
-      <c r="AJ13" s="132"/>
-      <c r="AK13" s="132"/>
-      <c r="AL13" s="132"/>
-      <c r="AM13" s="132"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="125"/>
-      <c r="AQ13" s="125"/>
-      <c r="AR13" s="125"/>
-      <c r="AS13" s="125"/>
-      <c r="AT13" s="125"/>
-      <c r="AU13" s="125"/>
-      <c r="AV13" s="125"/>
-      <c r="AW13" s="125"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="130"/>
-      <c r="AJ14" s="130"/>
-      <c r="AK14" s="130"/>
-      <c r="AL14" s="130"/>
-      <c r="AM14" s="130"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="125"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="127"/>
+      <c r="AK14" s="127"/>
+      <c r="AL14" s="127"/>
+      <c r="AM14" s="127"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="132"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="132"/>
-      <c r="AK15" s="132"/>
-      <c r="AL15" s="132"/>
-      <c r="AM15" s="132"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="132"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="132"/>
-      <c r="AL16" s="132"/>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="132"/>
-      <c r="AJ17" s="132"/>
-      <c r="AK17" s="132"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="132"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="115"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="115"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="132"/>
-      <c r="AF18" s="132"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="132"/>
-      <c r="AJ18" s="132"/>
-      <c r="AK18" s="132"/>
-      <c r="AL18" s="132"/>
-      <c r="AM18" s="132"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="121"/>
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="121"/>
+      <c r="AN18" s="115"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="115"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="132"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="132"/>
-      <c r="AJ19" s="132"/>
-      <c r="AK19" s="132"/>
-      <c r="AL19" s="132"/>
-      <c r="AM19" s="132"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="125"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="121"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="121"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="115"/>
+      <c r="AR19" s="115"/>
+      <c r="AS19" s="115"/>
+      <c r="AT19" s="115"/>
+      <c r="AU19" s="115"/>
+      <c r="AV19" s="115"/>
+      <c r="AW19" s="115"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="132"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="132"/>
-      <c r="AJ20" s="132"/>
-      <c r="AK20" s="132"/>
-      <c r="AL20" s="132"/>
-      <c r="AM20" s="132"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="125"/>
-      <c r="AS20" s="125"/>
-      <c r="AT20" s="125"/>
-      <c r="AU20" s="125"/>
-      <c r="AV20" s="125"/>
-      <c r="AW20" s="125"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="115"/>
+      <c r="AV20" s="115"/>
+      <c r="AW20" s="115"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="132"/>
-      <c r="AF21" s="132"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="132"/>
-      <c r="AJ21" s="132"/>
-      <c r="AK21" s="132"/>
-      <c r="AL21" s="132"/>
-      <c r="AM21" s="132"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="125"/>
-      <c r="AR21" s="125"/>
-      <c r="AS21" s="125"/>
-      <c r="AT21" s="125"/>
-      <c r="AU21" s="125"/>
-      <c r="AV21" s="125"/>
-      <c r="AW21" s="125"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="121"/>
+      <c r="AL21" s="121"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="132"/>
-      <c r="AF22" s="132"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="132"/>
-      <c r="AJ22" s="132"/>
-      <c r="AK22" s="132"/>
-      <c r="AL22" s="132"/>
-      <c r="AM22" s="132"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="125"/>
-      <c r="AR22" s="125"/>
-      <c r="AS22" s="125"/>
-      <c r="AT22" s="125"/>
-      <c r="AU22" s="125"/>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="125"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="121"/>
+      <c r="AL22" s="121"/>
+      <c r="AM22" s="121"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="115"/>
+      <c r="AQ22" s="115"/>
+      <c r="AR22" s="115"/>
+      <c r="AS22" s="115"/>
+      <c r="AT22" s="115"/>
+      <c r="AU22" s="115"/>
+      <c r="AV22" s="115"/>
+      <c r="AW22" s="115"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="132"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="132"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="125"/>
-      <c r="AR23" s="125"/>
-      <c r="AS23" s="125"/>
-      <c r="AT23" s="125"/>
-      <c r="AU23" s="125"/>
-      <c r="AV23" s="125"/>
-      <c r="AW23" s="125"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="121"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="121"/>
+      <c r="AJ23" s="121"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="121"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="115"/>
+      <c r="AR23" s="115"/>
+      <c r="AS23" s="115"/>
+      <c r="AT23" s="115"/>
+      <c r="AU23" s="115"/>
+      <c r="AV23" s="115"/>
+      <c r="AW23" s="115"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="132"/>
-      <c r="AJ24" s="132"/>
-      <c r="AK24" s="132"/>
-      <c r="AL24" s="132"/>
-      <c r="AM24" s="132"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="125"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="125"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="115"/>
+      <c r="AS24" s="115"/>
+      <c r="AT24" s="115"/>
+      <c r="AU24" s="115"/>
+      <c r="AV24" s="115"/>
+      <c r="AW24" s="115"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="132"/>
-      <c r="AJ25" s="132"/>
-      <c r="AK25" s="132"/>
-      <c r="AL25" s="132"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="125"/>
-      <c r="AR25" s="125"/>
-      <c r="AS25" s="125"/>
-      <c r="AT25" s="125"/>
-      <c r="AU25" s="125"/>
-      <c r="AV25" s="125"/>
-      <c r="AW25" s="125"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="115"/>
+      <c r="AR25" s="115"/>
+      <c r="AS25" s="115"/>
+      <c r="AT25" s="115"/>
+      <c r="AU25" s="115"/>
+      <c r="AV25" s="115"/>
+      <c r="AW25" s="115"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="132"/>
-      <c r="AJ26" s="132"/>
-      <c r="AK26" s="132"/>
-      <c r="AL26" s="132"/>
-      <c r="AM26" s="132"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
-      <c r="AQ26" s="125"/>
-      <c r="AR26" s="125"/>
-      <c r="AS26" s="125"/>
-      <c r="AT26" s="125"/>
-      <c r="AU26" s="125"/>
-      <c r="AV26" s="125"/>
-      <c r="AW26" s="125"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="121"/>
+      <c r="AM26" s="121"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="115"/>
+      <c r="AR26" s="115"/>
+      <c r="AS26" s="115"/>
+      <c r="AT26" s="115"/>
+      <c r="AU26" s="115"/>
+      <c r="AV26" s="115"/>
+      <c r="AW26" s="115"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="132"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="132"/>
-      <c r="AJ27" s="132"/>
-      <c r="AK27" s="132"/>
-      <c r="AL27" s="132"/>
-      <c r="AM27" s="132"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="125"/>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="125"/>
-      <c r="AR27" s="125"/>
-      <c r="AS27" s="125"/>
-      <c r="AT27" s="125"/>
-      <c r="AU27" s="125"/>
-      <c r="AV27" s="125"/>
-      <c r="AW27" s="125"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="115"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="115"/>
+      <c r="AQ27" s="115"/>
+      <c r="AR27" s="115"/>
+      <c r="AS27" s="115"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="115"/>
+      <c r="AV27" s="115"/>
+      <c r="AW27" s="115"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="125"/>
-      <c r="AP28" s="125"/>
-      <c r="AQ28" s="125"/>
-      <c r="AR28" s="125"/>
-      <c r="AS28" s="125"/>
-      <c r="AT28" s="125"/>
-      <c r="AU28" s="125"/>
-      <c r="AV28" s="125"/>
-      <c r="AW28" s="125"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="121"/>
+      <c r="AM28" s="121"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="115"/>
+      <c r="AP28" s="115"/>
+      <c r="AQ28" s="115"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="115"/>
+      <c r="AV28" s="115"/>
+      <c r="AW28" s="115"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="125"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="132"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="125"/>
-      <c r="AP29" s="125"/>
-      <c r="AQ29" s="125"/>
-      <c r="AR29" s="125"/>
-      <c r="AS29" s="125"/>
-      <c r="AT29" s="125"/>
-      <c r="AU29" s="125"/>
-      <c r="AV29" s="125"/>
-      <c r="AW29" s="125"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="121"/>
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="121"/>
+      <c r="AJ29" s="121"/>
+      <c r="AK29" s="121"/>
+      <c r="AL29" s="121"/>
+      <c r="AM29" s="121"/>
+      <c r="AN29" s="115"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="115"/>
+      <c r="AQ29" s="115"/>
+      <c r="AR29" s="115"/>
+      <c r="AS29" s="115"/>
+      <c r="AT29" s="115"/>
+      <c r="AU29" s="115"/>
+      <c r="AV29" s="115"/>
+      <c r="AW29" s="115"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="132"/>
-      <c r="AF30" s="132"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="132"/>
-      <c r="AJ30" s="132"/>
-      <c r="AK30" s="132"/>
-      <c r="AL30" s="132"/>
-      <c r="AM30" s="132"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="125"/>
-      <c r="AP30" s="125"/>
-      <c r="AQ30" s="125"/>
-      <c r="AR30" s="125"/>
-      <c r="AS30" s="125"/>
-      <c r="AT30" s="125"/>
-      <c r="AU30" s="125"/>
-      <c r="AV30" s="125"/>
-      <c r="AW30" s="125"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="115"/>
+      <c r="AO30" s="115"/>
+      <c r="AP30" s="115"/>
+      <c r="AQ30" s="115"/>
+      <c r="AR30" s="115"/>
+      <c r="AS30" s="115"/>
+      <c r="AT30" s="115"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="132"/>
-      <c r="AJ31" s="132"/>
-      <c r="AK31" s="132"/>
-      <c r="AL31" s="132"/>
-      <c r="AM31" s="132"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="125"/>
-      <c r="AP31" s="125"/>
-      <c r="AQ31" s="125"/>
-      <c r="AR31" s="125"/>
-      <c r="AS31" s="125"/>
-      <c r="AT31" s="125"/>
-      <c r="AU31" s="125"/>
-      <c r="AV31" s="125"/>
-      <c r="AW31" s="125"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="121"/>
+      <c r="AD31" s="121"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="121"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="121"/>
+      <c r="AL31" s="121"/>
+      <c r="AM31" s="121"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
+      <c r="AQ31" s="115"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="132"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="132"/>
-      <c r="AJ32" s="132"/>
-      <c r="AK32" s="132"/>
-      <c r="AL32" s="132"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="125"/>
-      <c r="AQ32" s="125"/>
-      <c r="AR32" s="125"/>
-      <c r="AS32" s="125"/>
-      <c r="AT32" s="125"/>
-      <c r="AU32" s="125"/>
-      <c r="AV32" s="125"/>
-      <c r="AW32" s="125"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="121"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="121"/>
+      <c r="AM32" s="121"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
+      <c r="AR32" s="115"/>
+      <c r="AS32" s="115"/>
+      <c r="AT32" s="115"/>
+      <c r="AU32" s="115"/>
+      <c r="AV32" s="115"/>
+      <c r="AW32" s="115"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="125"/>
-      <c r="T33" s="125"/>
-      <c r="U33" s="125"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="132"/>
-      <c r="AJ33" s="132"/>
-      <c r="AK33" s="132"/>
-      <c r="AL33" s="132"/>
-      <c r="AM33" s="132"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
-      <c r="AQ33" s="125"/>
-      <c r="AR33" s="125"/>
-      <c r="AS33" s="125"/>
-      <c r="AT33" s="125"/>
-      <c r="AU33" s="125"/>
-      <c r="AV33" s="125"/>
-      <c r="AW33" s="125"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="115"/>
+      <c r="AO33" s="115"/>
+      <c r="AP33" s="115"/>
+      <c r="AQ33" s="115"/>
+      <c r="AR33" s="115"/>
+      <c r="AS33" s="115"/>
+      <c r="AT33" s="115"/>
+      <c r="AU33" s="115"/>
+      <c r="AV33" s="115"/>
+      <c r="AW33" s="115"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="125"/>
-      <c r="T34" s="125"/>
-      <c r="U34" s="125"/>
-      <c r="V34" s="132"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="132"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="132"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="132"/>
-      <c r="AE34" s="132"/>
-      <c r="AF34" s="132"/>
-      <c r="AG34" s="132"/>
-      <c r="AH34" s="132"/>
-      <c r="AI34" s="132"/>
-      <c r="AJ34" s="132"/>
-      <c r="AK34" s="132"/>
-      <c r="AL34" s="132"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
-      <c r="AQ34" s="125"/>
-      <c r="AR34" s="125"/>
-      <c r="AS34" s="125"/>
-      <c r="AT34" s="125"/>
-      <c r="AU34" s="125"/>
-      <c r="AV34" s="125"/>
-      <c r="AW34" s="125"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="115"/>
+      <c r="AO34" s="115"/>
+      <c r="AP34" s="115"/>
+      <c r="AQ34" s="115"/>
+      <c r="AR34" s="115"/>
+      <c r="AS34" s="115"/>
+      <c r="AT34" s="115"/>
+      <c r="AU34" s="115"/>
+      <c r="AV34" s="115"/>
+      <c r="AW34" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6095,239 +6384,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6340,7 +6396,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN44"/>
+  <dimension ref="A1:BN45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -7549,7 +7605,9 @@
       <c r="BB36" s="9"/>
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="L37" s="9"/>
+      <c r="L37" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -7816,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="141"/>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="110" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="86"/>
@@ -7824,8 +7882,8 @@
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
       <c r="I42" s="86"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="100" t="s">
+      <c r="J42" s="111"/>
+      <c r="K42" s="110" t="s">
         <v>102</v>
       </c>
       <c r="L42" s="86"/>
@@ -7836,8 +7894,8 @@
       <c r="Q42" s="86"/>
       <c r="R42" s="86"/>
       <c r="S42" s="86"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="100"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="110"/>
       <c r="V42" s="86"/>
       <c r="W42" s="86"/>
       <c r="X42" s="86"/>
@@ -7846,7 +7904,7 @@
       <c r="AA42" s="86"/>
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
-      <c r="AD42" s="101"/>
+      <c r="AD42" s="111"/>
       <c r="AE42" s="142" t="s">
         <v>88</v>
       </c>
@@ -7890,62 +7948,62 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="140">
+      <c r="B43" s="161">
         <v>2</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="86"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="142" t="s">
+      <c r="C43" s="162"/>
+      <c r="D43" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="163"/>
+      <c r="V43" s="164"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="164"/>
+      <c r="AB43" s="164"/>
+      <c r="AC43" s="164"/>
+      <c r="AD43" s="165"/>
+      <c r="AE43" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="143"/>
-      <c r="AG43" s="142"/>
-      <c r="AH43" s="143"/>
-      <c r="AI43" s="142"/>
-      <c r="AJ43" s="143"/>
-      <c r="AK43" s="142"/>
-      <c r="AL43" s="143"/>
-      <c r="AM43" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN43" s="84"/>
-      <c r="AO43" s="84"/>
-      <c r="AP43" s="84"/>
-      <c r="AQ43" s="84"/>
-      <c r="AR43" s="84"/>
-      <c r="AS43" s="84"/>
-      <c r="AT43" s="84"/>
-      <c r="AU43" s="84"/>
+      <c r="AF43" s="167"/>
+      <c r="AG43" s="166"/>
+      <c r="AH43" s="167"/>
+      <c r="AI43" s="166"/>
+      <c r="AJ43" s="167"/>
+      <c r="AK43" s="166"/>
+      <c r="AL43" s="167"/>
+      <c r="AM43" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN43" s="169"/>
+      <c r="AO43" s="169"/>
+      <c r="AP43" s="169"/>
+      <c r="AQ43" s="169"/>
+      <c r="AR43" s="169"/>
+      <c r="AS43" s="169"/>
+      <c r="AT43" s="169"/>
+      <c r="AU43" s="169"/>
       <c r="AV43" s="84"/>
       <c r="AW43" s="84"/>
       <c r="AX43" s="84"/>
@@ -7968,26 +8026,109 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="140">
+        <v>3</v>
+      </c>
+      <c r="C44" s="141"/>
+      <c r="D44" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="86"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="142"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="142"/>
+      <c r="AL44" s="143"/>
+      <c r="AM44" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN44" s="84"/>
+      <c r="AO44" s="84"/>
+      <c r="AP44" s="84"/>
+      <c r="AQ44" s="84"/>
+      <c r="AR44" s="84"/>
+      <c r="AS44" s="84"/>
+      <c r="AT44" s="84"/>
+      <c r="AU44" s="84"/>
+      <c r="AV44" s="84"/>
+      <c r="AW44" s="84"/>
+      <c r="AX44" s="84"/>
+      <c r="AY44" s="84"/>
+      <c r="AZ44" s="84"/>
+      <c r="BA44" s="84"/>
+      <c r="BB44" s="84"/>
+      <c r="BC44" s="84"/>
+      <c r="BD44" s="84"/>
+      <c r="BE44" s="84"/>
+      <c r="BF44" s="85"/>
+      <c r="BG44" s="32"/>
+      <c r="BH44" s="32"/>
+      <c r="BI44" s="32"/>
+      <c r="BJ44" s="32"/>
+      <c r="BK44" s="32"/>
+      <c r="BL44" s="32"/>
+      <c r="BM44" s="32"/>
+      <c r="BN44" s="32"/>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B42:C42"/>
+  <mergeCells count="20">
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AG43:AH43"/>
     <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8480,37 +8621,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="158" t="s">
+      <c r="I6" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="158" t="s">
+      <c r="J6" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="117" t="s">
+      <c r="K6" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="117" t="s">
+      <c r="M6" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8518,24 +8659,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="158" t="s">
+      <c r="Q6" s="160" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8545,7 +8686,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="158"/>
+      <c r="Q7" s="160"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8559,7 +8700,7 @@
       <c r="E8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="109" t="s">
         <v>160</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -8589,13 +8730,15 @@
       <c r="O8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="Q8" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="102"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="7">
         <v>2</v>
       </c>
@@ -8632,18 +8775,18 @@
       <c r="N9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="105" t="s">
+      <c r="Q9" s="103" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="102"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="7">
         <v>3</v>
       </c>
@@ -8680,13 +8823,13 @@
       <c r="N10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="104" t="s">
+      <c r="P10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="105" t="s">
+      <c r="Q10" s="103" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8703,37 +8846,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="159" t="s">
+      <c r="I13" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="158" t="s">
+      <c r="J13" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="117" t="s">
+      <c r="L13" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="117" t="s">
+      <c r="M13" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8741,24 +8884,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="159" t="s">
+      <c r="Q13" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8768,7 +8911,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="160"/>
+      <c r="Q14" s="159"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -8784,10 +8927,10 @@
         <v>115</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>34</v>
@@ -8795,8 +8938,8 @@
       <c r="J15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>162</v>
+      <c r="K15" s="109" t="s">
+        <v>219</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -8811,7 +8954,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>33</v>
@@ -8831,10 +8974,10 @@
         <v>161</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>34</v>
@@ -8858,7 +9001,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>33</v>
@@ -8883,37 +9026,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="117" t="s">
+      <c r="F20" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="H20" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="158" t="s">
+      <c r="I20" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="158" t="s">
+      <c r="J20" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="117" t="s">
+      <c r="K20" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="117" t="s">
+      <c r="L20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="117" t="s">
+      <c r="M20" s="132" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -8921,24 +9064,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="158" t="s">
+      <c r="Q20" s="160" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -8948,7 +9091,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="158"/>
+      <c r="Q21" s="160"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -9161,7 +9304,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -9180,7 +9323,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -9194,8 +9337,8 @@
       <c r="J27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="111" t="s">
-        <v>216</v>
+      <c r="K27" s="109" t="s">
+        <v>214</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -9243,6 +9386,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -9259,26 +9422,6 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9787,10 +9930,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>170</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>171</v>
       </c>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
@@ -9870,7 +10013,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
@@ -9886,7 +10029,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="93"/>
       <c r="N14" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL14" s="93"/>
       <c r="AM14" s="93"/>
@@ -9902,7 +10045,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL15" s="93"/>
       <c r="AM15" s="93"/>
@@ -9918,7 +10061,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="93"/>
       <c r="N16" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL16" s="93"/>
       <c r="AM16" s="93"/>
@@ -9934,7 +10077,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="93"/>
       <c r="N17" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL17" s="93"/>
       <c r="AM17" s="93"/>
@@ -9950,7 +10093,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="93"/>
       <c r="N18" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
@@ -9966,7 +10109,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="93"/>
       <c r="N19" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL19" s="93"/>
       <c r="AM19" s="93"/>
@@ -9982,7 +10125,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="93"/>
       <c r="N20" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL20" s="93"/>
       <c r="AM20" s="93"/>
@@ -9998,7 +10141,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="93"/>
       <c r="N21" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL21" s="93"/>
       <c r="AM21" s="93"/>
@@ -10014,7 +10157,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
@@ -10030,7 +10173,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="93"/>
       <c r="N23" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
@@ -10082,7 +10225,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N25" s="93"/>
       <c r="O25" s="93"/>
@@ -10121,7 +10264,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
@@ -10158,38 +10301,38 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="110"/>
-      <c r="AO27" s="110"/>
-      <c r="AP27" s="110"/>
-      <c r="AQ27" s="110"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="108"/>
+      <c r="AP27" s="108"/>
+      <c r="AQ27" s="108"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10198,40 +10341,40 @@
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
-      <c r="L28" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="110"/>
-      <c r="AO28" s="110"/>
-      <c r="AP28" s="110"/>
-      <c r="AQ28" s="110"/>
+      <c r="L28" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="108"/>
+      <c r="AA28" s="108"/>
+      <c r="AB28" s="108"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="108"/>
+      <c r="AL28" s="108"/>
+      <c r="AM28" s="108"/>
+      <c r="AN28" s="108"/>
+      <c r="AO28" s="108"/>
+      <c r="AP28" s="108"/>
+      <c r="AQ28" s="108"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10292,7 +10435,7 @@
       <c r="K30" s="72"/>
       <c r="L30" s="23"/>
       <c r="N30" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93"/>
@@ -10380,7 +10523,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="23"/>
       <c r="N32" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -10424,7 +10567,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="23"/>
       <c r="N33" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
@@ -10549,7 +10692,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O36" s="93"/>
       <c r="P36" s="93"/>
@@ -10620,7 +10763,7 @@
       <c r="L38" s="23"/>
       <c r="N38" s="93"/>
       <c r="O38" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P38" s="93"/>
       <c r="Q38" s="93"/>
@@ -10663,7 +10806,7 @@
       <c r="G39" s="71"/>
       <c r="L39" s="71"/>
       <c r="N39" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O39" s="93"/>
       <c r="P39" s="93"/>
@@ -10684,7 +10827,7 @@
       <c r="L40" s="71"/>
       <c r="N40" s="93"/>
       <c r="O40" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P40" s="93"/>
       <c r="Q40" s="93"/>
@@ -10697,7 +10840,7 @@
         <v>98</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV40" s="72"/>
     </row>
@@ -10709,7 +10852,7 @@
       <c r="L41" s="71"/>
       <c r="N41" s="93"/>
       <c r="O41" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P41" s="93"/>
       <c r="Q41" s="93"/>
@@ -10722,7 +10865,7 @@
         <v>98</v>
       </c>
       <c r="Y41" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV41" s="72"/>
     </row>
@@ -10734,7 +10877,7 @@
       <c r="L42" s="71"/>
       <c r="N42" s="93"/>
       <c r="O42" s="93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P42" s="93"/>
       <c r="Q42" s="93"/>
@@ -10747,7 +10890,7 @@
         <v>98</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV42" s="72"/>
     </row>
@@ -10759,7 +10902,7 @@
       <c r="L43" s="71"/>
       <c r="N43" s="93"/>
       <c r="O43" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P43" s="93"/>
       <c r="Q43" s="93"/>
@@ -10772,7 +10915,7 @@
         <v>98</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV43" s="72"/>
     </row>
@@ -10784,7 +10927,7 @@
       <c r="L44" s="71"/>
       <c r="N44" s="93"/>
       <c r="O44" s="93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P44" s="93"/>
       <c r="Q44" s="93"/>
@@ -10797,7 +10940,7 @@
         <v>98</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AV44" s="72"/>
     </row>
@@ -10891,7 +11034,7 @@
       <c r="G47" s="71"/>
       <c r="K47" s="72"/>
       <c r="N47" s="93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O47" s="93"/>
       <c r="P47" s="93"/>
@@ -10904,8 +11047,8 @@
       <c r="X47" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="Y47" s="107" t="s">
-        <v>192</v>
+      <c r="Y47" s="105" t="s">
+        <v>191</v>
       </c>
       <c r="Z47" s="93"/>
       <c r="AA47" s="93"/>
@@ -10919,7 +11062,7 @@
       <c r="G48" s="71"/>
       <c r="K48" s="72"/>
       <c r="N48" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
@@ -10946,9 +11089,9 @@
       <c r="F49" s="72"/>
       <c r="G49" s="71"/>
       <c r="K49" s="72"/>
-      <c r="L49" s="106"/>
+      <c r="L49" s="104"/>
       <c r="N49" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O49" s="93"/>
       <c r="P49" s="93"/>
@@ -10962,7 +11105,7 @@
       <c r="X49" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="Y49" s="107" t="s">
+      <c r="Y49" s="105" t="s">
         <v>158</v>
       </c>
       <c r="AA49" s="93"/>
@@ -10971,7 +11114,7 @@
       <c r="AG49" s="93"/>
       <c r="AH49" s="93"/>
       <c r="AI49" s="93"/>
-      <c r="AJ49" s="108"/>
+      <c r="AJ49" s="106"/>
       <c r="AV49" s="72"/>
     </row>
     <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10981,7 +11124,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O50" s="93"/>
       <c r="P50" s="93"/>
@@ -10995,7 +11138,7 @@
         <v>98</v>
       </c>
       <c r="Y50" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z50" s="93"/>
       <c r="AA50" s="93"/>
@@ -11012,7 +11155,7 @@
       <c r="G51" s="71"/>
       <c r="K51" s="72"/>
       <c r="N51" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O51" s="93"/>
       <c r="P51" s="93"/>
@@ -11026,7 +11169,7 @@
         <v>98</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z51" s="93"/>
       <c r="AA51" s="93"/>
@@ -11091,7 +11234,7 @@
       <c r="G54" s="71"/>
       <c r="L54" s="71"/>
       <c r="N54" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM54" s="93"/>
       <c r="AN54" s="93"/>
@@ -11121,7 +11264,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM56" s="93"/>
       <c r="AN56" s="93"/>
@@ -11136,7 +11279,7 @@
       <c r="G57" s="71"/>
       <c r="L57" s="71"/>
       <c r="N57" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM57" s="93"/>
       <c r="AN57" s="93"/>
@@ -11151,7 +11294,7 @@
       <c r="G58" s="71"/>
       <c r="L58" s="71"/>
       <c r="N58" s="93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM58" s="93"/>
       <c r="AN58" s="93"/>
@@ -11166,7 +11309,7 @@
       <c r="G59" s="71"/>
       <c r="L59" s="71"/>
       <c r="N59" s="93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM59" s="93"/>
       <c r="AN59" s="93"/>
@@ -11181,7 +11324,7 @@
       <c r="G60" s="71"/>
       <c r="L60" s="71"/>
       <c r="N60" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM60" s="93"/>
       <c r="AN60" s="93"/>
@@ -11196,7 +11339,7 @@
       <c r="G61" s="71"/>
       <c r="L61" s="71"/>
       <c r="N61" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
@@ -11285,7 +11428,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="23"/>
       <c r="N64" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD64" s="23"/>
       <c r="AE64" s="23"/>
@@ -11320,7 +11463,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="23"/>
       <c r="N65" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD65" s="23"/>
       <c r="AE65" s="23"/>
@@ -13086,21 +13229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -13258,24 +13386,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13291,4 +13417,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE4797-DBCB-4D14-A63A-FD824DA5AC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7088C3FC-FD5E-4CE0-A284-5673F33A3B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -967,10 +968,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SC-K21B</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>品名別集計</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
@@ -1491,6 +1488,10 @@
   </si>
   <si>
     <t>YYYY/MM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>K-21B</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2311,6 +2312,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2320,6 +2336,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,63 +2378,39 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,12 +2419,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2412,6 +2428,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2445,41 +2473,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4149,108 +4150,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
-      <c r="AJ32" s="112"/>
-      <c r="AK32" s="112"/>
-      <c r="AL32" s="112"/>
-      <c r="AM32" s="112"/>
-      <c r="AN32" s="112"/>
-      <c r="AO32" s="112"/>
-      <c r="AP32" s="112"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="112"/>
-      <c r="AS32" s="112"/>
-      <c r="AT32" s="112"/>
-      <c r="AU32" s="112"/>
-      <c r="AV32" s="112"/>
-      <c r="AW32" s="112"/>
+      <c r="A32" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="117"/>
+      <c r="AR32" s="117"/>
+      <c r="AS32" s="117"/>
+      <c r="AT32" s="117"/>
+      <c r="AU32" s="117"/>
+      <c r="AV32" s="117"/>
+      <c r="AW32" s="117"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="113"/>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="113"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="118"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
+      <c r="AS33" s="118"/>
+      <c r="AT33" s="118"/>
+      <c r="AU33" s="118"/>
+      <c r="AV33" s="118"/>
+      <c r="AW33" s="118"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4288,55 +4289,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
-      <c r="AC35" s="114"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="114"/>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="114"/>
-      <c r="AP35" s="114"/>
-      <c r="AQ35" s="114"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="114"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="119"/>
+      <c r="AF35" s="119"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="119"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
+      <c r="AS35" s="119"/>
+      <c r="AT35" s="119"/>
+      <c r="AU35" s="119"/>
+      <c r="AV35" s="119"/>
+      <c r="AW35" s="119"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4371,1779 +4372,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="130"/>
-      <c r="AV1" s="130"/>
-      <c r="AW1" s="130"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="131"/>
-      <c r="AS2" s="131"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="131"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="134" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="134" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="132" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132" t="s">
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132" t="s">
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132" t="s">
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="116">
+      <c r="B5" s="131">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117">
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132">
         <v>43725</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118" t="s">
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="115" t="s">
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="127" t="s">
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="115" t="s">
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135"/>
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="130"/>
+      <c r="AW5" s="130"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="115"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="115"/>
-      <c r="AT6" s="115"/>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="115"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130"/>
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130"/>
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="115"/>
-      <c r="AO7" s="115"/>
-      <c r="AP7" s="115"/>
-      <c r="AQ7" s="115"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="115"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="135"/>
+      <c r="AG7" s="135"/>
+      <c r="AH7" s="135"/>
+      <c r="AI7" s="135"/>
+      <c r="AJ7" s="135"/>
+      <c r="AK7" s="135"/>
+      <c r="AL7" s="135"/>
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130"/>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="115"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="115"/>
-      <c r="AQ8" s="115"/>
-      <c r="AR8" s="115"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="115"/>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="115"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="135"/>
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="135"/>
+      <c r="AE8" s="135"/>
+      <c r="AF8" s="135"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135"/>
+      <c r="AJ8" s="135"/>
+      <c r="AK8" s="135"/>
+      <c r="AL8" s="135"/>
+      <c r="AM8" s="135"/>
+      <c r="AN8" s="130"/>
+      <c r="AO8" s="130"/>
+      <c r="AP8" s="130"/>
+      <c r="AQ8" s="130"/>
+      <c r="AR8" s="130"/>
+      <c r="AS8" s="130"/>
+      <c r="AT8" s="130"/>
+      <c r="AU8" s="130"/>
+      <c r="AV8" s="130"/>
+      <c r="AW8" s="130"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="127"/>
-      <c r="AI9" s="127"/>
-      <c r="AJ9" s="127"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="115"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="115"/>
-      <c r="AS9" s="115"/>
-      <c r="AT9" s="115"/>
-      <c r="AU9" s="115"/>
-      <c r="AV9" s="115"/>
-      <c r="AW9" s="115"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="130"/>
+      <c r="AP9" s="130"/>
+      <c r="AQ9" s="130"/>
+      <c r="AR9" s="130"/>
+      <c r="AS9" s="130"/>
+      <c r="AT9" s="130"/>
+      <c r="AU9" s="130"/>
+      <c r="AV9" s="130"/>
+      <c r="AW9" s="130"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="115"/>
-      <c r="AS10" s="115"/>
-      <c r="AT10" s="115"/>
-      <c r="AU10" s="115"/>
-      <c r="AV10" s="115"/>
-      <c r="AW10" s="115"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="135"/>
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="130"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="130"/>
+      <c r="AW10" s="130"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128"/>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="128"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="115"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="115"/>
-      <c r="AQ11" s="115"/>
-      <c r="AR11" s="115"/>
-      <c r="AS11" s="115"/>
-      <c r="AT11" s="115"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="115"/>
-      <c r="AW11" s="115"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="138"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="138"/>
+      <c r="AJ11" s="138"/>
+      <c r="AK11" s="138"/>
+      <c r="AL11" s="138"/>
+      <c r="AM11" s="138"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="130"/>
+      <c r="AV11" s="130"/>
+      <c r="AW11" s="130"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="115"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="115"/>
-      <c r="AQ12" s="115"/>
-      <c r="AR12" s="115"/>
-      <c r="AS12" s="115"/>
-      <c r="AT12" s="115"/>
-      <c r="AU12" s="115"/>
-      <c r="AV12" s="115"/>
-      <c r="AW12" s="115"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="130"/>
+      <c r="AU12" s="130"/>
+      <c r="AV12" s="130"/>
+      <c r="AW12" s="130"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="121"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="115"/>
-      <c r="AO13" s="115"/>
-      <c r="AP13" s="115"/>
-      <c r="AQ13" s="115"/>
-      <c r="AR13" s="115"/>
-      <c r="AS13" s="115"/>
-      <c r="AT13" s="115"/>
-      <c r="AU13" s="115"/>
-      <c r="AV13" s="115"/>
-      <c r="AW13" s="115"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="130"/>
+      <c r="AP13" s="130"/>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="130"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="130"/>
+      <c r="AU13" s="130"/>
+      <c r="AV13" s="130"/>
+      <c r="AW13" s="130"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="135"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="130"/>
+      <c r="AP14" s="130"/>
+      <c r="AQ14" s="130"/>
+      <c r="AR14" s="130"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="130"/>
+      <c r="AU14" s="130"/>
+      <c r="AV14" s="130"/>
+      <c r="AW14" s="130"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="115"/>
-      <c r="AO15" s="115"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="115"/>
-      <c r="AR15" s="115"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="115"/>
-      <c r="AU15" s="115"/>
-      <c r="AV15" s="115"/>
-      <c r="AW15" s="115"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="130"/>
+      <c r="AP15" s="130"/>
+      <c r="AQ15" s="130"/>
+      <c r="AR15" s="130"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="130"/>
+      <c r="AU15" s="130"/>
+      <c r="AV15" s="130"/>
+      <c r="AW15" s="130"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="115"/>
-      <c r="AO16" s="115"/>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="115"/>
-      <c r="AR16" s="115"/>
-      <c r="AS16" s="115"/>
-      <c r="AT16" s="115"/>
-      <c r="AU16" s="115"/>
-      <c r="AV16" s="115"/>
-      <c r="AW16" s="115"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="130"/>
+      <c r="AP16" s="130"/>
+      <c r="AQ16" s="130"/>
+      <c r="AR16" s="130"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="130"/>
+      <c r="AU16" s="130"/>
+      <c r="AV16" s="130"/>
+      <c r="AW16" s="130"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+      <c r="AH17" s="137"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="137"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="137"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="130"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="130"/>
+      <c r="AU17" s="130"/>
+      <c r="AV17" s="130"/>
+      <c r="AW17" s="130"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
-      <c r="AR18" s="115"/>
-      <c r="AS18" s="115"/>
-      <c r="AT18" s="115"/>
-      <c r="AU18" s="115"/>
-      <c r="AV18" s="115"/>
-      <c r="AW18" s="115"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="137"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="137"/>
+      <c r="AM18" s="137"/>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="130"/>
+      <c r="AP18" s="130"/>
+      <c r="AQ18" s="130"/>
+      <c r="AR18" s="130"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="130"/>
+      <c r="AU18" s="130"/>
+      <c r="AV18" s="130"/>
+      <c r="AW18" s="130"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-      <c r="AT19" s="115"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="137"/>
+      <c r="AN19" s="130"/>
+      <c r="AO19" s="130"/>
+      <c r="AP19" s="130"/>
+      <c r="AQ19" s="130"/>
+      <c r="AR19" s="130"/>
+      <c r="AS19" s="130"/>
+      <c r="AT19" s="130"/>
+      <c r="AU19" s="130"/>
+      <c r="AV19" s="130"/>
+      <c r="AW19" s="130"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="137"/>
+      <c r="AI20" s="137"/>
+      <c r="AJ20" s="137"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="137"/>
+      <c r="AM20" s="137"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="130"/>
+      <c r="AP20" s="130"/>
+      <c r="AQ20" s="130"/>
+      <c r="AR20" s="130"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="130"/>
+      <c r="AU20" s="130"/>
+      <c r="AV20" s="130"/>
+      <c r="AW20" s="130"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="115"/>
-      <c r="AW21" s="115"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="137"/>
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="130"/>
+      <c r="AP21" s="130"/>
+      <c r="AQ21" s="130"/>
+      <c r="AR21" s="130"/>
+      <c r="AS21" s="130"/>
+      <c r="AT21" s="130"/>
+      <c r="AU21" s="130"/>
+      <c r="AV21" s="130"/>
+      <c r="AW21" s="130"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="115"/>
-      <c r="AR22" s="115"/>
-      <c r="AS22" s="115"/>
-      <c r="AT22" s="115"/>
-      <c r="AU22" s="115"/>
-      <c r="AV22" s="115"/>
-      <c r="AW22" s="115"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="136"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="137"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="137"/>
+      <c r="AM22" s="137"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="130"/>
+      <c r="AP22" s="130"/>
+      <c r="AQ22" s="130"/>
+      <c r="AR22" s="130"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="130"/>
+      <c r="AU22" s="130"/>
+      <c r="AV22" s="130"/>
+      <c r="AW22" s="130"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="121"/>
-      <c r="AJ23" s="121"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="121"/>
-      <c r="AN23" s="115"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="115"/>
-      <c r="AQ23" s="115"/>
-      <c r="AR23" s="115"/>
-      <c r="AS23" s="115"/>
-      <c r="AT23" s="115"/>
-      <c r="AU23" s="115"/>
-      <c r="AV23" s="115"/>
-      <c r="AW23" s="115"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="130"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="137"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="137"/>
+      <c r="AL23" s="137"/>
+      <c r="AM23" s="137"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="130"/>
+      <c r="AP23" s="130"/>
+      <c r="AQ23" s="130"/>
+      <c r="AR23" s="130"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="130"/>
+      <c r="AU23" s="130"/>
+      <c r="AV23" s="130"/>
+      <c r="AW23" s="130"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="121"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="115"/>
-      <c r="AO24" s="115"/>
-      <c r="AP24" s="115"/>
-      <c r="AQ24" s="115"/>
-      <c r="AR24" s="115"/>
-      <c r="AS24" s="115"/>
-      <c r="AT24" s="115"/>
-      <c r="AU24" s="115"/>
-      <c r="AV24" s="115"/>
-      <c r="AW24" s="115"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="137"/>
+      <c r="AM24" s="137"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="130"/>
+      <c r="AP24" s="130"/>
+      <c r="AQ24" s="130"/>
+      <c r="AR24" s="130"/>
+      <c r="AS24" s="130"/>
+      <c r="AT24" s="130"/>
+      <c r="AU24" s="130"/>
+      <c r="AV24" s="130"/>
+      <c r="AW24" s="130"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="121"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="121"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="121"/>
-      <c r="AN25" s="115"/>
-      <c r="AO25" s="115"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="115"/>
-      <c r="AR25" s="115"/>
-      <c r="AS25" s="115"/>
-      <c r="AT25" s="115"/>
-      <c r="AU25" s="115"/>
-      <c r="AV25" s="115"/>
-      <c r="AW25" s="115"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="130"/>
+      <c r="AP25" s="130"/>
+      <c r="AQ25" s="130"/>
+      <c r="AR25" s="130"/>
+      <c r="AS25" s="130"/>
+      <c r="AT25" s="130"/>
+      <c r="AU25" s="130"/>
+      <c r="AV25" s="130"/>
+      <c r="AW25" s="130"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="121"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="121"/>
-      <c r="AN26" s="115"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="115"/>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="137"/>
+      <c r="AM26" s="137"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="130"/>
+      <c r="AP26" s="130"/>
+      <c r="AQ26" s="130"/>
+      <c r="AR26" s="130"/>
+      <c r="AS26" s="130"/>
+      <c r="AT26" s="130"/>
+      <c r="AU26" s="130"/>
+      <c r="AV26" s="130"/>
+      <c r="AW26" s="130"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="115"/>
-      <c r="AO27" s="115"/>
-      <c r="AP27" s="115"/>
-      <c r="AQ27" s="115"/>
-      <c r="AR27" s="115"/>
-      <c r="AS27" s="115"/>
-      <c r="AT27" s="115"/>
-      <c r="AU27" s="115"/>
-      <c r="AV27" s="115"/>
-      <c r="AW27" s="115"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="137"/>
+      <c r="AJ27" s="137"/>
+      <c r="AK27" s="137"/>
+      <c r="AL27" s="137"/>
+      <c r="AM27" s="137"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="130"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="130"/>
+      <c r="AU27" s="130"/>
+      <c r="AV27" s="130"/>
+      <c r="AW27" s="130"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="115"/>
-      <c r="AR28" s="115"/>
-      <c r="AS28" s="115"/>
-      <c r="AT28" s="115"/>
-      <c r="AU28" s="115"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="130"/>
+      <c r="AP28" s="130"/>
+      <c r="AQ28" s="130"/>
+      <c r="AR28" s="130"/>
+      <c r="AS28" s="130"/>
+      <c r="AT28" s="130"/>
+      <c r="AU28" s="130"/>
+      <c r="AV28" s="130"/>
+      <c r="AW28" s="130"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="115"/>
-      <c r="AQ29" s="115"/>
-      <c r="AR29" s="115"/>
-      <c r="AS29" s="115"/>
-      <c r="AT29" s="115"/>
-      <c r="AU29" s="115"/>
-      <c r="AV29" s="115"/>
-      <c r="AW29" s="115"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="137"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="130"/>
+      <c r="AP29" s="130"/>
+      <c r="AQ29" s="130"/>
+      <c r="AR29" s="130"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="130"/>
+      <c r="AU29" s="130"/>
+      <c r="AV29" s="130"/>
+      <c r="AW29" s="130"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="115"/>
-      <c r="AP30" s="115"/>
-      <c r="AQ30" s="115"/>
-      <c r="AR30" s="115"/>
-      <c r="AS30" s="115"/>
-      <c r="AT30" s="115"/>
-      <c r="AU30" s="115"/>
-      <c r="AV30" s="115"/>
-      <c r="AW30" s="115"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="137"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="130"/>
+      <c r="AP30" s="130"/>
+      <c r="AQ30" s="130"/>
+      <c r="AR30" s="130"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="130"/>
+      <c r="AU30" s="130"/>
+      <c r="AV30" s="130"/>
+      <c r="AW30" s="130"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="115"/>
-      <c r="AT31" s="115"/>
-      <c r="AU31" s="115"/>
-      <c r="AV31" s="115"/>
-      <c r="AW31" s="115"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="137"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="130"/>
+      <c r="AP31" s="130"/>
+      <c r="AQ31" s="130"/>
+      <c r="AR31" s="130"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="130"/>
+      <c r="AU31" s="130"/>
+      <c r="AV31" s="130"/>
+      <c r="AW31" s="130"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
-      <c r="AR32" s="115"/>
-      <c r="AS32" s="115"/>
-      <c r="AT32" s="115"/>
-      <c r="AU32" s="115"/>
-      <c r="AV32" s="115"/>
-      <c r="AW32" s="115"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="137"/>
+      <c r="AM32" s="137"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="130"/>
+      <c r="AP32" s="130"/>
+      <c r="AQ32" s="130"/>
+      <c r="AR32" s="130"/>
+      <c r="AS32" s="130"/>
+      <c r="AT32" s="130"/>
+      <c r="AU32" s="130"/>
+      <c r="AV32" s="130"/>
+      <c r="AW32" s="130"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="115"/>
-      <c r="AO33" s="115"/>
-      <c r="AP33" s="115"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="115"/>
-      <c r="AS33" s="115"/>
-      <c r="AT33" s="115"/>
-      <c r="AU33" s="115"/>
-      <c r="AV33" s="115"/>
-      <c r="AW33" s="115"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="137"/>
+      <c r="AJ33" s="137"/>
+      <c r="AK33" s="137"/>
+      <c r="AL33" s="137"/>
+      <c r="AM33" s="137"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="130"/>
+      <c r="AP33" s="130"/>
+      <c r="AQ33" s="130"/>
+      <c r="AR33" s="130"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="130"/>
+      <c r="AU33" s="130"/>
+      <c r="AV33" s="130"/>
+      <c r="AW33" s="130"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
-      <c r="AD34" s="121"/>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="115"/>
-      <c r="AO34" s="115"/>
-      <c r="AP34" s="115"/>
-      <c r="AQ34" s="115"/>
-      <c r="AR34" s="115"/>
-      <c r="AS34" s="115"/>
-      <c r="AT34" s="115"/>
-      <c r="AU34" s="115"/>
-      <c r="AV34" s="115"/>
-      <c r="AW34" s="115"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="137"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="137"/>
+      <c r="AM34" s="137"/>
+      <c r="AN34" s="130"/>
+      <c r="AO34" s="130"/>
+      <c r="AP34" s="130"/>
+      <c r="AQ34" s="130"/>
+      <c r="AR34" s="130"/>
+      <c r="AS34" s="130"/>
+      <c r="AT34" s="130"/>
+      <c r="AU34" s="130"/>
+      <c r="AV34" s="130"/>
+      <c r="AW34" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6160,230 +6376,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6393,7 +6394,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN45"/>
@@ -6464,14 +6465,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="147">
+      <c r="AO1" s="156">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="149"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="158"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6480,17 +6481,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="144" t="str">
+      <c r="AZ1" s="149" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="146"/>
+      <c r="BA1" s="150"/>
+      <c r="BB1" s="150"/>
+      <c r="BC1" s="150"/>
+      <c r="BD1" s="150"/>
+      <c r="BE1" s="150"/>
+      <c r="BF1" s="150"/>
+      <c r="BG1" s="151"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6515,14 +6516,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -6543,11 +6544,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="149"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="158"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6556,14 +6557,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="144"/>
-      <c r="BA2" s="145"/>
-      <c r="BB2" s="145"/>
-      <c r="BC2" s="145"/>
-      <c r="BD2" s="145"/>
-      <c r="BE2" s="145"/>
-      <c r="BF2" s="145"/>
-      <c r="BG2" s="146"/>
+      <c r="AZ2" s="149"/>
+      <c r="BA2" s="150"/>
+      <c r="BB2" s="150"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="150"/>
+      <c r="BE2" s="150"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="151"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6644,7 +6645,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -7589,7 +7590,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -7606,7 +7607,7 @@
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7784,10 +7785,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="151"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7870,10 +7871,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="140">
+      <c r="B42" s="147">
         <v>1</v>
       </c>
-      <c r="C42" s="141"/>
+      <c r="C42" s="148"/>
       <c r="D42" s="110" t="s">
         <v>94</v>
       </c>
@@ -7905,16 +7906,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="111"/>
-      <c r="AE42" s="142" t="s">
+      <c r="AE42" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="143"/>
-      <c r="AG42" s="142"/>
-      <c r="AH42" s="143"/>
-      <c r="AI42" s="142"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="142"/>
-      <c r="AL42" s="143"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="145"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="145"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="145"/>
+      <c r="AL42" s="146"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7948,62 +7949,62 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="161">
+      <c r="B43" s="152">
         <v>2</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="163" t="s">
+      <c r="C43" s="153"/>
+      <c r="D43" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="163" t="s">
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF43" s="155"/>
+      <c r="AG43" s="154"/>
+      <c r="AH43" s="155"/>
+      <c r="AI43" s="154"/>
+      <c r="AJ43" s="155"/>
+      <c r="AK43" s="154"/>
+      <c r="AL43" s="155"/>
+      <c r="AM43" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164"/>
-      <c r="R43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="165"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="164"/>
-      <c r="W43" s="164"/>
-      <c r="X43" s="164"/>
-      <c r="Y43" s="164"/>
-      <c r="Z43" s="164"/>
-      <c r="AA43" s="164"/>
-      <c r="AB43" s="164"/>
-      <c r="AC43" s="164"/>
-      <c r="AD43" s="165"/>
-      <c r="AE43" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF43" s="167"/>
-      <c r="AG43" s="166"/>
-      <c r="AH43" s="167"/>
-      <c r="AI43" s="166"/>
-      <c r="AJ43" s="167"/>
-      <c r="AK43" s="166"/>
-      <c r="AL43" s="167"/>
-      <c r="AM43" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN43" s="169"/>
-      <c r="AO43" s="169"/>
-      <c r="AP43" s="169"/>
-      <c r="AQ43" s="169"/>
-      <c r="AR43" s="169"/>
-      <c r="AS43" s="169"/>
-      <c r="AT43" s="169"/>
-      <c r="AU43" s="169"/>
+      <c r="AN43" s="116"/>
+      <c r="AO43" s="116"/>
+      <c r="AP43" s="116"/>
+      <c r="AQ43" s="116"/>
+      <c r="AR43" s="116"/>
+      <c r="AS43" s="116"/>
+      <c r="AT43" s="116"/>
+      <c r="AU43" s="116"/>
       <c r="AV43" s="84"/>
       <c r="AW43" s="84"/>
       <c r="AX43" s="84"/>
@@ -8026,10 +8027,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="140">
+      <c r="B44" s="147">
         <v>3</v>
       </c>
-      <c r="C44" s="141"/>
+      <c r="C44" s="148"/>
       <c r="D44" s="82" t="s">
         <v>103</v>
       </c>
@@ -8040,7 +8041,7 @@
       <c r="I44" s="86"/>
       <c r="J44" s="87"/>
       <c r="K44" s="82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
@@ -8061,16 +8062,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="142" t="s">
+      <c r="AE44" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="142"/>
-      <c r="AH44" s="143"/>
-      <c r="AI44" s="142"/>
-      <c r="AJ44" s="143"/>
-      <c r="AK44" s="142"/>
-      <c r="AL44" s="143"/>
+      <c r="AF44" s="146"/>
+      <c r="AG44" s="145"/>
+      <c r="AH44" s="146"/>
+      <c r="AI44" s="145"/>
+      <c r="AJ44" s="146"/>
+      <c r="AK44" s="145"/>
+      <c r="AL44" s="146"/>
       <c r="AM44" s="83" t="s">
         <v>104</v>
       </c>
@@ -8109,12 +8110,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK44:AL44"/>
@@ -8129,6 +8124,12 @@
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE44:AF44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8252,20 +8253,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="147">
+      <c r="CD1" s="156">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="154"/>
-      <c r="CF1" s="154"/>
-      <c r="CG1" s="154"/>
-      <c r="CH1" s="154"/>
-      <c r="CI1" s="154"/>
-      <c r="CJ1" s="154"/>
-      <c r="CK1" s="154"/>
-      <c r="CL1" s="154"/>
-      <c r="CM1" s="154"/>
-      <c r="CN1" s="155"/>
+      <c r="CE1" s="163"/>
+      <c r="CF1" s="163"/>
+      <c r="CG1" s="163"/>
+      <c r="CH1" s="163"/>
+      <c r="CI1" s="163"/>
+      <c r="CJ1" s="163"/>
+      <c r="CK1" s="163"/>
+      <c r="CL1" s="163"/>
+      <c r="CM1" s="163"/>
+      <c r="CN1" s="164"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8274,23 +8275,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="144" t="str">
+      <c r="CU1" s="149" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="152"/>
-      <c r="CW1" s="152"/>
-      <c r="CX1" s="152"/>
-      <c r="CY1" s="152"/>
-      <c r="CZ1" s="152"/>
-      <c r="DA1" s="152"/>
-      <c r="DB1" s="152"/>
-      <c r="DC1" s="152"/>
-      <c r="DD1" s="152"/>
-      <c r="DE1" s="152"/>
-      <c r="DF1" s="152"/>
-      <c r="DG1" s="152"/>
-      <c r="DH1" s="153"/>
+      <c r="CV1" s="161"/>
+      <c r="CW1" s="161"/>
+      <c r="CX1" s="161"/>
+      <c r="CY1" s="161"/>
+      <c r="CZ1" s="161"/>
+      <c r="DA1" s="161"/>
+      <c r="DB1" s="161"/>
+      <c r="DC1" s="161"/>
+      <c r="DD1" s="161"/>
+      <c r="DE1" s="161"/>
+      <c r="DF1" s="161"/>
+      <c r="DG1" s="161"/>
+      <c r="DH1" s="162"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8332,7 +8333,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21B</v>
+        <v>K-21B</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -8345,39 +8346,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="157" t="str">
+      <c r="AT2" s="166" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="154"/>
-      <c r="BA2" s="154"/>
-      <c r="BB2" s="154"/>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="154"/>
-      <c r="BF2" s="154"/>
-      <c r="BG2" s="154"/>
-      <c r="BH2" s="154"/>
-      <c r="BI2" s="154"/>
-      <c r="BJ2" s="154"/>
-      <c r="BK2" s="154"/>
-      <c r="BL2" s="154"/>
-      <c r="BM2" s="154"/>
-      <c r="BN2" s="154"/>
-      <c r="BO2" s="154"/>
-      <c r="BP2" s="154"/>
-      <c r="BQ2" s="154"/>
-      <c r="BR2" s="154"/>
-      <c r="BS2" s="154"/>
-      <c r="BT2" s="154"/>
-      <c r="BU2" s="154"/>
-      <c r="BV2" s="154"/>
-      <c r="BW2" s="155"/>
+      <c r="AU2" s="163"/>
+      <c r="AV2" s="163"/>
+      <c r="AW2" s="163"/>
+      <c r="AX2" s="163"/>
+      <c r="AY2" s="163"/>
+      <c r="AZ2" s="163"/>
+      <c r="BA2" s="163"/>
+      <c r="BB2" s="163"/>
+      <c r="BC2" s="163"/>
+      <c r="BD2" s="163"/>
+      <c r="BE2" s="163"/>
+      <c r="BF2" s="163"/>
+      <c r="BG2" s="163"/>
+      <c r="BH2" s="163"/>
+      <c r="BI2" s="163"/>
+      <c r="BJ2" s="163"/>
+      <c r="BK2" s="163"/>
+      <c r="BL2" s="163"/>
+      <c r="BM2" s="163"/>
+      <c r="BN2" s="163"/>
+      <c r="BO2" s="163"/>
+      <c r="BP2" s="163"/>
+      <c r="BQ2" s="163"/>
+      <c r="BR2" s="163"/>
+      <c r="BS2" s="163"/>
+      <c r="BT2" s="163"/>
+      <c r="BU2" s="163"/>
+      <c r="BV2" s="163"/>
+      <c r="BW2" s="164"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8386,17 +8387,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="156"/>
-      <c r="CE2" s="152"/>
-      <c r="CF2" s="152"/>
-      <c r="CG2" s="152"/>
-      <c r="CH2" s="152"/>
-      <c r="CI2" s="152"/>
-      <c r="CJ2" s="152"/>
-      <c r="CK2" s="152"/>
-      <c r="CL2" s="152"/>
-      <c r="CM2" s="152"/>
-      <c r="CN2" s="153"/>
+      <c r="CD2" s="165"/>
+      <c r="CE2" s="161"/>
+      <c r="CF2" s="161"/>
+      <c r="CG2" s="161"/>
+      <c r="CH2" s="161"/>
+      <c r="CI2" s="161"/>
+      <c r="CJ2" s="161"/>
+      <c r="CK2" s="161"/>
+      <c r="CL2" s="161"/>
+      <c r="CM2" s="161"/>
+      <c r="CN2" s="162"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8405,20 +8406,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="144"/>
-      <c r="CV2" s="152"/>
-      <c r="CW2" s="152"/>
-      <c r="CX2" s="152"/>
-      <c r="CY2" s="152"/>
-      <c r="CZ2" s="152"/>
-      <c r="DA2" s="152"/>
-      <c r="DB2" s="152"/>
-      <c r="DC2" s="152"/>
-      <c r="DD2" s="152"/>
-      <c r="DE2" s="152"/>
-      <c r="DF2" s="152"/>
-      <c r="DG2" s="152"/>
-      <c r="DH2" s="153"/>
+      <c r="CU2" s="149"/>
+      <c r="CV2" s="161"/>
+      <c r="CW2" s="161"/>
+      <c r="CX2" s="161"/>
+      <c r="CY2" s="161"/>
+      <c r="CZ2" s="161"/>
+      <c r="DA2" s="161"/>
+      <c r="DB2" s="161"/>
+      <c r="DC2" s="161"/>
+      <c r="DD2" s="161"/>
+      <c r="DE2" s="161"/>
+      <c r="DF2" s="161"/>
+      <c r="DG2" s="161"/>
+      <c r="DH2" s="162"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8579,7 +8580,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21B</v>
+        <v>K-21B</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -8621,37 +8622,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="160" t="s">
+      <c r="I6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8659,24 +8660,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="160" t="s">
+      <c r="Q6" s="167" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="160"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8701,7 +8702,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8743,16 +8744,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>33</v>
@@ -8782,7 +8783,7 @@
         <v>33</v>
       </c>
       <c r="Q9" s="103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -8791,16 +8792,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>33</v>
@@ -8830,7 +8831,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -8846,37 +8847,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="160" t="s">
+      <c r="J13" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="132" t="s">
+      <c r="L13" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="132" t="s">
+      <c r="M13" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8884,24 +8885,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="158" t="s">
+      <c r="Q13" s="168" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8911,7 +8912,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="159"/>
+      <c r="Q14" s="169"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -8927,10 +8928,10 @@
         <v>115</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>34</v>
@@ -8939,7 +8940,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -8954,7 +8955,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>33</v>
@@ -8971,13 +8972,13 @@
         <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>34</v>
@@ -9001,7 +9002,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>33</v>
@@ -9026,37 +9027,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="132" t="s">
+      <c r="H20" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="160" t="s">
+      <c r="J20" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="132" t="s">
+      <c r="K20" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="132" t="s">
+      <c r="L20" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="132" t="s">
+      <c r="M20" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -9064,24 +9065,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="160" t="s">
+      <c r="Q20" s="167" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -9091,7 +9092,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="160"/>
+      <c r="Q21" s="167"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -9206,7 +9207,7 @@
         <v>34</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -9271,10 +9272,10 @@
         <v>51</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>42</v>
@@ -9304,7 +9305,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -9317,13 +9318,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -9338,7 +9339,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -9356,7 +9357,7 @@
         <v>34</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9386,26 +9387,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -9422,6 +9403,26 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9437,7 +9438,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ75"/>
@@ -9498,14 +9499,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="147">
+      <c r="AI1" s="156">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="155"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="164"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9514,16 +9515,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="144" t="str">
+      <c r="AT1" s="149" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="152"/>
-      <c r="AV1" s="152"/>
-      <c r="AW1" s="152"/>
-      <c r="AX1" s="152"/>
-      <c r="AY1" s="152"/>
-      <c r="AZ1" s="153"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="162"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9545,38 +9546,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21B</v>
+        <v>K-21B</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="157" t="str">
+      <c r="S2" s="166" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="155"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="164"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="153"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="162"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9585,13 +9586,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="153"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="162"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9930,10 +9931,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>169</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>170</v>
       </c>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
@@ -9973,7 +9974,7 @@
       <c r="G12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" s="93"/>
       <c r="O12" s="93"/>
@@ -10013,7 +10014,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
@@ -10029,7 +10030,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="93"/>
       <c r="N14" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL14" s="93"/>
       <c r="AM14" s="93"/>
@@ -10045,7 +10046,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL15" s="93"/>
       <c r="AM15" s="93"/>
@@ -10061,7 +10062,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="93"/>
       <c r="N16" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL16" s="93"/>
       <c r="AM16" s="93"/>
@@ -10077,7 +10078,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="93"/>
       <c r="N17" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL17" s="93"/>
       <c r="AM17" s="93"/>
@@ -10093,7 +10094,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="93"/>
       <c r="N18" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
@@ -10109,7 +10110,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="93"/>
       <c r="N19" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL19" s="93"/>
       <c r="AM19" s="93"/>
@@ -10125,7 +10126,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="93"/>
       <c r="N20" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL20" s="93"/>
       <c r="AM20" s="93"/>
@@ -10141,7 +10142,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="93"/>
       <c r="N21" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL21" s="93"/>
       <c r="AM21" s="93"/>
@@ -10157,7 +10158,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
@@ -10173,7 +10174,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="93"/>
       <c r="N23" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
@@ -10225,7 +10226,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N25" s="93"/>
       <c r="O25" s="93"/>
@@ -10264,7 +10265,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
@@ -10342,7 +10343,7 @@
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
       <c r="L28" s="108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="108"/>
@@ -10390,7 +10391,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="23"/>
       <c r="M29" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" s="93"/>
       <c r="O29" s="93"/>
@@ -10435,7 +10436,7 @@
       <c r="K30" s="72"/>
       <c r="L30" s="23"/>
       <c r="N30" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93"/>
@@ -10479,7 +10480,7 @@
       <c r="K31" s="72"/>
       <c r="L31" s="23"/>
       <c r="N31" s="93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
@@ -10523,7 +10524,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="23"/>
       <c r="N32" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -10567,7 +10568,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="23"/>
       <c r="N33" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
@@ -10653,7 +10654,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="23"/>
       <c r="M35" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N35" s="93"/>
       <c r="O35" s="93"/>
@@ -10692,7 +10693,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O36" s="93"/>
       <c r="P36" s="93"/>
@@ -10718,7 +10719,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="23"/>
       <c r="N37" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O37" s="93"/>
       <c r="P37" s="93"/>
@@ -10763,7 +10764,7 @@
       <c r="L38" s="23"/>
       <c r="N38" s="93"/>
       <c r="O38" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P38" s="93"/>
       <c r="Q38" s="93"/>
@@ -10777,7 +10778,7 @@
         <v>98</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
@@ -10806,7 +10807,7 @@
       <c r="G39" s="71"/>
       <c r="L39" s="71"/>
       <c r="N39" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O39" s="93"/>
       <c r="P39" s="93"/>
@@ -10827,7 +10828,7 @@
       <c r="L40" s="71"/>
       <c r="N40" s="93"/>
       <c r="O40" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P40" s="93"/>
       <c r="Q40" s="93"/>
@@ -10840,7 +10841,7 @@
         <v>98</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AV40" s="72"/>
     </row>
@@ -10852,7 +10853,7 @@
       <c r="L41" s="71"/>
       <c r="N41" s="93"/>
       <c r="O41" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P41" s="93"/>
       <c r="Q41" s="93"/>
@@ -10865,7 +10866,7 @@
         <v>98</v>
       </c>
       <c r="Y41" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV41" s="72"/>
     </row>
@@ -10877,7 +10878,7 @@
       <c r="L42" s="71"/>
       <c r="N42" s="93"/>
       <c r="O42" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P42" s="93"/>
       <c r="Q42" s="93"/>
@@ -10890,7 +10891,7 @@
         <v>98</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV42" s="72"/>
     </row>
@@ -10902,7 +10903,7 @@
       <c r="L43" s="71"/>
       <c r="N43" s="93"/>
       <c r="O43" s="93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P43" s="93"/>
       <c r="Q43" s="93"/>
@@ -10915,7 +10916,7 @@
         <v>98</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV43" s="72"/>
     </row>
@@ -10927,7 +10928,7 @@
       <c r="L44" s="71"/>
       <c r="N44" s="93"/>
       <c r="O44" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P44" s="93"/>
       <c r="Q44" s="93"/>
@@ -10940,7 +10941,7 @@
         <v>98</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV44" s="72"/>
     </row>
@@ -10989,7 +10990,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="23"/>
       <c r="M46" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N46" s="93"/>
       <c r="O46" s="93"/>
@@ -11034,7 +11035,7 @@
       <c r="G47" s="71"/>
       <c r="K47" s="72"/>
       <c r="N47" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O47" s="93"/>
       <c r="P47" s="93"/>
@@ -11048,7 +11049,7 @@
         <v>98</v>
       </c>
       <c r="Y47" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z47" s="93"/>
       <c r="AA47" s="93"/>
@@ -11062,7 +11063,7 @@
       <c r="G48" s="71"/>
       <c r="K48" s="72"/>
       <c r="N48" s="93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
@@ -11076,7 +11077,7 @@
         <v>98</v>
       </c>
       <c r="Y48" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z48" s="93"/>
       <c r="AA48" s="93"/>
@@ -11091,7 +11092,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="104"/>
       <c r="N49" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O49" s="93"/>
       <c r="P49" s="93"/>
@@ -11106,7 +11107,7 @@
         <v>98</v>
       </c>
       <c r="Y49" s="105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA49" s="93"/>
       <c r="AB49" s="93"/>
@@ -11124,7 +11125,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O50" s="93"/>
       <c r="P50" s="93"/>
@@ -11138,13 +11139,13 @@
         <v>98</v>
       </c>
       <c r="Y50" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z50" s="93"/>
       <c r="AA50" s="93"/>
       <c r="AB50" s="93"/>
       <c r="AI50" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV50" s="72"/>
     </row>
@@ -11155,7 +11156,7 @@
       <c r="G51" s="71"/>
       <c r="K51" s="72"/>
       <c r="N51" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O51" s="93"/>
       <c r="P51" s="93"/>
@@ -11169,13 +11170,13 @@
         <v>98</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z51" s="93"/>
       <c r="AA51" s="93"/>
       <c r="AB51" s="93"/>
       <c r="AI51" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AV51" s="72"/>
     </row>
@@ -11219,7 +11220,7 @@
       <c r="G53" s="71"/>
       <c r="L53" s="71"/>
       <c r="M53" s="93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM53" s="93"/>
       <c r="AN53" s="93"/>
@@ -11234,7 +11235,7 @@
       <c r="G54" s="71"/>
       <c r="L54" s="71"/>
       <c r="N54" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM54" s="93"/>
       <c r="AN54" s="93"/>
@@ -11264,7 +11265,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM56" s="93"/>
       <c r="AN56" s="93"/>
@@ -11279,7 +11280,7 @@
       <c r="G57" s="71"/>
       <c r="L57" s="71"/>
       <c r="N57" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM57" s="93"/>
       <c r="AN57" s="93"/>
@@ -11294,7 +11295,7 @@
       <c r="G58" s="71"/>
       <c r="L58" s="71"/>
       <c r="N58" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM58" s="93"/>
       <c r="AN58" s="93"/>
@@ -11309,7 +11310,7 @@
       <c r="G59" s="71"/>
       <c r="L59" s="71"/>
       <c r="N59" s="93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM59" s="93"/>
       <c r="AN59" s="93"/>
@@ -11324,7 +11325,7 @@
       <c r="G60" s="71"/>
       <c r="L60" s="71"/>
       <c r="N60" s="93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM60" s="93"/>
       <c r="AN60" s="93"/>
@@ -11339,7 +11340,7 @@
       <c r="G61" s="71"/>
       <c r="L61" s="71"/>
       <c r="N61" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
@@ -11428,7 +11429,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="23"/>
       <c r="N64" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD64" s="23"/>
       <c r="AE64" s="23"/>
@@ -11463,7 +11464,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="23"/>
       <c r="N65" s="93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD65" s="23"/>
       <c r="AE65" s="23"/>
@@ -11539,20 +11540,20 @@
         <v>2</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="22"/>
       <c r="G67" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="22"/>
       <c r="L67" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
@@ -11600,7 +11601,7 @@
       </c>
       <c r="K68" s="72"/>
       <c r="L68" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AV68" s="72"/>
     </row>
@@ -11653,20 +11654,20 @@
         <v>3</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="22"/>
       <c r="G70" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="22"/>
       <c r="L70" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
@@ -11714,7 +11715,7 @@
       </c>
       <c r="K71" s="72"/>
       <c r="L71" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV71" s="72"/>
     </row>
@@ -11938,7 +11939,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ14"/>
@@ -11999,14 +12000,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="147">
+      <c r="AI1" s="156">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="155"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="164"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -12015,16 +12016,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="144" t="str">
+      <c r="AT1" s="149" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="152"/>
-      <c r="AV1" s="152"/>
-      <c r="AW1" s="152"/>
-      <c r="AX1" s="152"/>
-      <c r="AY1" s="152"/>
-      <c r="AZ1" s="153"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="162"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12046,38 +12047,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21B</v>
+        <v>K-21B</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="157" t="str">
+      <c r="S2" s="166" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="155"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="164"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="153"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="162"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -12086,13 +12087,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="153"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="162"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12435,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -12539,7 +12540,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -12761,7 +12762,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ8"/>
@@ -12822,14 +12823,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="147">
+      <c r="AI1" s="156">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="155"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="164"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -12838,16 +12839,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="144" t="str">
+      <c r="AT1" s="149" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="152"/>
-      <c r="AV1" s="152"/>
-      <c r="AW1" s="152"/>
-      <c r="AX1" s="152"/>
-      <c r="AY1" s="152"/>
-      <c r="AZ1" s="153"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="162"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12869,38 +12870,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21B</v>
+        <v>K-21B</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="157" t="str">
+      <c r="S2" s="166" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="155"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="164"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="153"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="162"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -12909,13 +12910,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="153"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="162"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -13229,6 +13230,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -13386,12 +13393,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13402,6 +13403,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13419,15 +13429,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7088C3FC-FD5E-4CE0-A284-5673F33A3B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130E6CD-F2DD-40EC-9473-2335251BB86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2336,6 +2336,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2366,46 +2407,14 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2413,48 +2422,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2473,13 +2473,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4372,1770 +4372,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="120"/>
-      <c r="AW1" s="120"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="135"/>
+      <c r="AV1" s="135"/>
+      <c r="AW1" s="135"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="121"/>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="121"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="121"/>
-      <c r="AO2" s="121"/>
-      <c r="AP2" s="121"/>
-      <c r="AQ2" s="121"/>
-      <c r="AR2" s="121"/>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="124" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="124" t="s">
+      <c r="K3" s="140"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="122" t="s">
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122" t="s">
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="122" t="s">
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="137"/>
+      <c r="AK3" s="137"/>
+      <c r="AL3" s="137"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122" t="s">
+      <c r="AO3" s="137"/>
+      <c r="AP3" s="137"/>
+      <c r="AQ3" s="137"/>
+      <c r="AR3" s="137"/>
+      <c r="AS3" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="137"/>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138"/>
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="138"/>
+      <c r="AW4" s="138"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="131">
+      <c r="B5" s="121">
         <v>1</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132">
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122">
         <v>43725</v>
       </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133" t="s">
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="130" t="s">
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="135" t="s">
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="135"/>
-      <c r="AF5" s="135"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135"/>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="130" t="s">
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="130"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120"/>
+      <c r="AW5" s="120"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="134"/>
       <c r="N6" s="134"/>
       <c r="O6" s="134"/>
       <c r="P6" s="134"/>
       <c r="Q6" s="134"/>
       <c r="R6" s="134"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130"/>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="134"/>
       <c r="N7" s="134"/>
       <c r="O7" s="134"/>
       <c r="P7" s="134"/>
       <c r="Q7" s="134"/>
       <c r="R7" s="134"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="135"/>
-      <c r="AD7" s="135"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="135"/>
-      <c r="AG7" s="135"/>
-      <c r="AH7" s="135"/>
-      <c r="AI7" s="135"/>
-      <c r="AJ7" s="135"/>
-      <c r="AK7" s="135"/>
-      <c r="AL7" s="135"/>
-      <c r="AM7" s="135"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="130"/>
-      <c r="AV7" s="130"/>
-      <c r="AW7" s="130"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="120"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="134"/>
       <c r="N8" s="134"/>
       <c r="O8" s="134"/>
       <c r="P8" s="134"/>
       <c r="Q8" s="134"/>
       <c r="R8" s="134"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="135"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="135"/>
-      <c r="AJ8" s="135"/>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="135"/>
-      <c r="AM8" s="135"/>
-      <c r="AN8" s="130"/>
-      <c r="AO8" s="130"/>
-      <c r="AP8" s="130"/>
-      <c r="AQ8" s="130"/>
-      <c r="AR8" s="130"/>
-      <c r="AS8" s="130"/>
-      <c r="AT8" s="130"/>
-      <c r="AU8" s="130"/>
-      <c r="AV8" s="130"/>
-      <c r="AW8" s="130"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
+      <c r="AL8" s="132"/>
+      <c r="AM8" s="132"/>
+      <c r="AN8" s="120"/>
+      <c r="AO8" s="120"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="120"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="134"/>
       <c r="N9" s="134"/>
       <c r="O9" s="134"/>
       <c r="P9" s="134"/>
       <c r="Q9" s="134"/>
       <c r="R9" s="134"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135"/>
-      <c r="AL9" s="135"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="130"/>
-      <c r="AP9" s="130"/>
-      <c r="AQ9" s="130"/>
-      <c r="AR9" s="130"/>
-      <c r="AS9" s="130"/>
-      <c r="AT9" s="130"/>
-      <c r="AU9" s="130"/>
-      <c r="AV9" s="130"/>
-      <c r="AW9" s="130"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="132"/>
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="120"/>
+      <c r="AO9" s="120"/>
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="120"/>
+      <c r="AR9" s="120"/>
+      <c r="AS9" s="120"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="120"/>
+      <c r="AV9" s="120"/>
+      <c r="AW9" s="120"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="134"/>
       <c r="N10" s="134"/>
       <c r="O10" s="134"/>
       <c r="P10" s="134"/>
       <c r="Q10" s="134"/>
       <c r="R10" s="134"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="135"/>
-      <c r="AK10" s="135"/>
-      <c r="AL10" s="135"/>
-      <c r="AM10" s="135"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="130"/>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="130"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="130"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="120"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="120"/>
+      <c r="AV10" s="120"/>
+      <c r="AW10" s="120"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="138"/>
-      <c r="AH11" s="138"/>
-      <c r="AI11" s="138"/>
-      <c r="AJ11" s="138"/>
-      <c r="AK11" s="138"/>
-      <c r="AL11" s="138"/>
-      <c r="AM11" s="138"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="130"/>
-      <c r="AT11" s="130"/>
-      <c r="AU11" s="130"/>
-      <c r="AV11" s="130"/>
-      <c r="AW11" s="130"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="133"/>
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="120"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="120"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="137"/>
-      <c r="AJ12" s="137"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="137"/>
-      <c r="AN12" s="130"/>
-      <c r="AO12" s="130"/>
-      <c r="AP12" s="130"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="130"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="130"/>
-      <c r="AU12" s="130"/>
-      <c r="AV12" s="130"/>
-      <c r="AW12" s="130"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="137"/>
-      <c r="AN13" s="130"/>
-      <c r="AO13" s="130"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="130"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="130"/>
-      <c r="AW13" s="130"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="135"/>
-      <c r="AL14" s="135"/>
-      <c r="AM14" s="135"/>
-      <c r="AN14" s="130"/>
-      <c r="AO14" s="130"/>
-      <c r="AP14" s="130"/>
-      <c r="AQ14" s="130"/>
-      <c r="AR14" s="130"/>
-      <c r="AS14" s="130"/>
-      <c r="AT14" s="130"/>
-      <c r="AU14" s="130"/>
-      <c r="AV14" s="130"/>
-      <c r="AW14" s="130"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="132"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="132"/>
+      <c r="AK14" s="132"/>
+      <c r="AL14" s="132"/>
+      <c r="AM14" s="132"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="137"/>
-      <c r="AH15" s="137"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="137"/>
-      <c r="AN15" s="130"/>
-      <c r="AO15" s="130"/>
-      <c r="AP15" s="130"/>
-      <c r="AQ15" s="130"/>
-      <c r="AR15" s="130"/>
-      <c r="AS15" s="130"/>
-      <c r="AT15" s="130"/>
-      <c r="AU15" s="130"/>
-      <c r="AV15" s="130"/>
-      <c r="AW15" s="130"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="126"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="126"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="137"/>
-      <c r="AI16" s="137"/>
-      <c r="AJ16" s="137"/>
-      <c r="AK16" s="137"/>
-      <c r="AL16" s="137"/>
-      <c r="AM16" s="137"/>
-      <c r="AN16" s="130"/>
-      <c r="AO16" s="130"/>
-      <c r="AP16" s="130"/>
-      <c r="AQ16" s="130"/>
-      <c r="AR16" s="130"/>
-      <c r="AS16" s="130"/>
-      <c r="AT16" s="130"/>
-      <c r="AU16" s="130"/>
-      <c r="AV16" s="130"/>
-      <c r="AW16" s="130"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="137"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="130"/>
-      <c r="AR17" s="130"/>
-      <c r="AS17" s="130"/>
-      <c r="AT17" s="130"/>
-      <c r="AU17" s="130"/>
-      <c r="AV17" s="130"/>
-      <c r="AW17" s="130"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="126"/>
+      <c r="AJ17" s="126"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="137"/>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="137"/>
-      <c r="AM18" s="137"/>
-      <c r="AN18" s="130"/>
-      <c r="AO18" s="130"/>
-      <c r="AP18" s="130"/>
-      <c r="AQ18" s="130"/>
-      <c r="AR18" s="130"/>
-      <c r="AS18" s="130"/>
-      <c r="AT18" s="130"/>
-      <c r="AU18" s="130"/>
-      <c r="AV18" s="130"/>
-      <c r="AW18" s="130"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="126"/>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="126"/>
+      <c r="AJ18" s="126"/>
+      <c r="AK18" s="126"/>
+      <c r="AL18" s="126"/>
+      <c r="AM18" s="126"/>
+      <c r="AN18" s="120"/>
+      <c r="AO18" s="120"/>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="120"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="120"/>
+      <c r="AU18" s="120"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
-      <c r="AI19" s="137"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="137"/>
-      <c r="AL19" s="137"/>
-      <c r="AM19" s="137"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="130"/>
-      <c r="AP19" s="130"/>
-      <c r="AQ19" s="130"/>
-      <c r="AR19" s="130"/>
-      <c r="AS19" s="130"/>
-      <c r="AT19" s="130"/>
-      <c r="AU19" s="130"/>
-      <c r="AV19" s="130"/>
-      <c r="AW19" s="130"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="126"/>
+      <c r="AJ19" s="126"/>
+      <c r="AK19" s="126"/>
+      <c r="AL19" s="126"/>
+      <c r="AM19" s="126"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="137"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="137"/>
-      <c r="AH20" s="137"/>
-      <c r="AI20" s="137"/>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="137"/>
-      <c r="AL20" s="137"/>
-      <c r="AM20" s="137"/>
-      <c r="AN20" s="130"/>
-      <c r="AO20" s="130"/>
-      <c r="AP20" s="130"/>
-      <c r="AQ20" s="130"/>
-      <c r="AR20" s="130"/>
-      <c r="AS20" s="130"/>
-      <c r="AT20" s="130"/>
-      <c r="AU20" s="130"/>
-      <c r="AV20" s="130"/>
-      <c r="AW20" s="130"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="126"/>
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="126"/>
+      <c r="AC20" s="126"/>
+      <c r="AD20" s="126"/>
+      <c r="AE20" s="126"/>
+      <c r="AF20" s="126"/>
+      <c r="AG20" s="126"/>
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="126"/>
+      <c r="AJ20" s="126"/>
+      <c r="AK20" s="126"/>
+      <c r="AL20" s="126"/>
+      <c r="AM20" s="126"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="137"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="137"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="130"/>
-      <c r="AP21" s="130"/>
-      <c r="AQ21" s="130"/>
-      <c r="AR21" s="130"/>
-      <c r="AS21" s="130"/>
-      <c r="AT21" s="130"/>
-      <c r="AU21" s="130"/>
-      <c r="AV21" s="130"/>
-      <c r="AW21" s="130"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="126"/>
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="126"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="126"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="126"/>
+      <c r="AJ21" s="126"/>
+      <c r="AK21" s="126"/>
+      <c r="AL21" s="126"/>
+      <c r="AM21" s="126"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="137"/>
-      <c r="AF22" s="137"/>
-      <c r="AG22" s="137"/>
-      <c r="AH22" s="137"/>
-      <c r="AI22" s="137"/>
-      <c r="AJ22" s="137"/>
-      <c r="AK22" s="137"/>
-      <c r="AL22" s="137"/>
-      <c r="AM22" s="137"/>
-      <c r="AN22" s="130"/>
-      <c r="AO22" s="130"/>
-      <c r="AP22" s="130"/>
-      <c r="AQ22" s="130"/>
-      <c r="AR22" s="130"/>
-      <c r="AS22" s="130"/>
-      <c r="AT22" s="130"/>
-      <c r="AU22" s="130"/>
-      <c r="AV22" s="130"/>
-      <c r="AW22" s="130"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="126"/>
+      <c r="AJ22" s="126"/>
+      <c r="AK22" s="126"/>
+      <c r="AL22" s="126"/>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="120"/>
+      <c r="AO22" s="120"/>
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="120"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="120"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="137"/>
-      <c r="AH23" s="137"/>
-      <c r="AI23" s="137"/>
-      <c r="AJ23" s="137"/>
-      <c r="AK23" s="137"/>
-      <c r="AL23" s="137"/>
-      <c r="AM23" s="137"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="130"/>
-      <c r="AQ23" s="130"/>
-      <c r="AR23" s="130"/>
-      <c r="AS23" s="130"/>
-      <c r="AT23" s="130"/>
-      <c r="AU23" s="130"/>
-      <c r="AV23" s="130"/>
-      <c r="AW23" s="130"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="126"/>
+      <c r="AJ23" s="126"/>
+      <c r="AK23" s="126"/>
+      <c r="AL23" s="126"/>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="120"/>
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="120"/>
+      <c r="AU23" s="120"/>
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="136"/>
-      <c r="R24" s="136"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="137"/>
-      <c r="AI24" s="137"/>
-      <c r="AJ24" s="137"/>
-      <c r="AK24" s="137"/>
-      <c r="AL24" s="137"/>
-      <c r="AM24" s="137"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="130"/>
-      <c r="AR24" s="130"/>
-      <c r="AS24" s="130"/>
-      <c r="AT24" s="130"/>
-      <c r="AU24" s="130"/>
-      <c r="AV24" s="130"/>
-      <c r="AW24" s="130"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="126"/>
+      <c r="AJ24" s="126"/>
+      <c r="AK24" s="126"/>
+      <c r="AL24" s="126"/>
+      <c r="AM24" s="126"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="130"/>
-      <c r="AO25" s="130"/>
-      <c r="AP25" s="130"/>
-      <c r="AQ25" s="130"/>
-      <c r="AR25" s="130"/>
-      <c r="AS25" s="130"/>
-      <c r="AT25" s="130"/>
-      <c r="AU25" s="130"/>
-      <c r="AV25" s="130"/>
-      <c r="AW25" s="130"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="126"/>
+      <c r="AJ25" s="126"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="126"/>
+      <c r="AM25" s="126"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="120"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="120"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="120"/>
+      <c r="AU25" s="120"/>
+      <c r="AV25" s="120"/>
+      <c r="AW25" s="120"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="136"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
-      <c r="AH26" s="137"/>
-      <c r="AI26" s="137"/>
-      <c r="AJ26" s="137"/>
-      <c r="AK26" s="137"/>
-      <c r="AL26" s="137"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="130"/>
-      <c r="AO26" s="130"/>
-      <c r="AP26" s="130"/>
-      <c r="AQ26" s="130"/>
-      <c r="AR26" s="130"/>
-      <c r="AS26" s="130"/>
-      <c r="AT26" s="130"/>
-      <c r="AU26" s="130"/>
-      <c r="AV26" s="130"/>
-      <c r="AW26" s="130"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="126"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="126"/>
+      <c r="AJ26" s="126"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="120"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="120"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="120"/>
+      <c r="AU26" s="120"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="120"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="137"/>
-      <c r="AJ27" s="137"/>
-      <c r="AK27" s="137"/>
-      <c r="AL27" s="137"/>
-      <c r="AM27" s="137"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="130"/>
-      <c r="AP27" s="130"/>
-      <c r="AQ27" s="130"/>
-      <c r="AR27" s="130"/>
-      <c r="AS27" s="130"/>
-      <c r="AT27" s="130"/>
-      <c r="AU27" s="130"/>
-      <c r="AV27" s="130"/>
-      <c r="AW27" s="130"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="126"/>
+      <c r="AC27" s="126"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="126"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="126"/>
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="126"/>
+      <c r="AL27" s="126"/>
+      <c r="AM27" s="126"/>
+      <c r="AN27" s="120"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="130"/>
-      <c r="AP28" s="130"/>
-      <c r="AQ28" s="130"/>
-      <c r="AR28" s="130"/>
-      <c r="AS28" s="130"/>
-      <c r="AT28" s="130"/>
-      <c r="AU28" s="130"/>
-      <c r="AV28" s="130"/>
-      <c r="AW28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="126"/>
+      <c r="AJ28" s="126"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="126"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="137"/>
-      <c r="AJ29" s="137"/>
-      <c r="AK29" s="137"/>
-      <c r="AL29" s="137"/>
-      <c r="AM29" s="137"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130"/>
-      <c r="AR29" s="130"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="130"/>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="130"/>
-      <c r="AW29" s="130"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="126"/>
+      <c r="AJ29" s="126"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="126"/>
+      <c r="AM29" s="126"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="120"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="137"/>
-      <c r="AL30" s="137"/>
-      <c r="AM30" s="137"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="130"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="130"/>
-      <c r="AU30" s="130"/>
-      <c r="AV30" s="130"/>
-      <c r="AW30" s="130"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="126"/>
+      <c r="Z30" s="126"/>
+      <c r="AA30" s="126"/>
+      <c r="AB30" s="126"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="126"/>
+      <c r="AJ30" s="126"/>
+      <c r="AK30" s="126"/>
+      <c r="AL30" s="126"/>
+      <c r="AM30" s="126"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="120"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="120"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="137"/>
-      <c r="AF31" s="137"/>
-      <c r="AG31" s="137"/>
-      <c r="AH31" s="137"/>
-      <c r="AI31" s="137"/>
-      <c r="AJ31" s="137"/>
-      <c r="AK31" s="137"/>
-      <c r="AL31" s="137"/>
-      <c r="AM31" s="137"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="130"/>
-      <c r="AP31" s="130"/>
-      <c r="AQ31" s="130"/>
-      <c r="AR31" s="130"/>
-      <c r="AS31" s="130"/>
-      <c r="AT31" s="130"/>
-      <c r="AU31" s="130"/>
-      <c r="AV31" s="130"/>
-      <c r="AW31" s="130"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="126"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="126"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="120"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="120"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="120"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="137"/>
-      <c r="AF32" s="137"/>
-      <c r="AG32" s="137"/>
-      <c r="AH32" s="137"/>
-      <c r="AI32" s="137"/>
-      <c r="AJ32" s="137"/>
-      <c r="AK32" s="137"/>
-      <c r="AL32" s="137"/>
-      <c r="AM32" s="137"/>
-      <c r="AN32" s="130"/>
-      <c r="AO32" s="130"/>
-      <c r="AP32" s="130"/>
-      <c r="AQ32" s="130"/>
-      <c r="AR32" s="130"/>
-      <c r="AS32" s="130"/>
-      <c r="AT32" s="130"/>
-      <c r="AU32" s="130"/>
-      <c r="AV32" s="130"/>
-      <c r="AW32" s="130"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="126"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="120"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="137"/>
-      <c r="AI33" s="137"/>
-      <c r="AJ33" s="137"/>
-      <c r="AK33" s="137"/>
-      <c r="AL33" s="137"/>
-      <c r="AM33" s="137"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="130"/>
-      <c r="AP33" s="130"/>
-      <c r="AQ33" s="130"/>
-      <c r="AR33" s="130"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="130"/>
-      <c r="AU33" s="130"/>
-      <c r="AV33" s="130"/>
-      <c r="AW33" s="130"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="126"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="126"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="126"/>
+      <c r="AJ33" s="126"/>
+      <c r="AK33" s="126"/>
+      <c r="AL33" s="126"/>
+      <c r="AM33" s="126"/>
+      <c r="AN33" s="120"/>
+      <c r="AO33" s="120"/>
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="120"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="120"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="137"/>
-      <c r="W34" s="137"/>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="137"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="137"/>
-      <c r="AB34" s="137"/>
-      <c r="AC34" s="137"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="137"/>
-      <c r="AF34" s="137"/>
-      <c r="AG34" s="137"/>
-      <c r="AH34" s="137"/>
-      <c r="AI34" s="137"/>
-      <c r="AJ34" s="137"/>
-      <c r="AK34" s="137"/>
-      <c r="AL34" s="137"/>
-      <c r="AM34" s="137"/>
-      <c r="AN34" s="130"/>
-      <c r="AO34" s="130"/>
-      <c r="AP34" s="130"/>
-      <c r="AQ34" s="130"/>
-      <c r="AR34" s="130"/>
-      <c r="AS34" s="130"/>
-      <c r="AT34" s="130"/>
-      <c r="AU34" s="130"/>
-      <c r="AV34" s="130"/>
-      <c r="AW34" s="130"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="126"/>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="126"/>
+      <c r="AG34" s="126"/>
+      <c r="AH34" s="126"/>
+      <c r="AI34" s="126"/>
+      <c r="AJ34" s="126"/>
+      <c r="AK34" s="126"/>
+      <c r="AL34" s="126"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="120"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="120"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6152,239 +6385,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6465,14 +6465,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="156">
+      <c r="AO1" s="154">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="158"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6481,17 +6481,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="149" t="str">
+      <c r="AZ1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="150"/>
-      <c r="BB1" s="150"/>
-      <c r="BC1" s="150"/>
-      <c r="BD1" s="150"/>
-      <c r="BE1" s="150"/>
-      <c r="BF1" s="150"/>
-      <c r="BG1" s="151"/>
+      <c r="BA1" s="146"/>
+      <c r="BB1" s="146"/>
+      <c r="BC1" s="146"/>
+      <c r="BD1" s="146"/>
+      <c r="BE1" s="146"/>
+      <c r="BF1" s="146"/>
+      <c r="BG1" s="147"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6544,11 +6544,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="157"/>
-      <c r="AS2" s="158"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="155"/>
+      <c r="AQ2" s="155"/>
+      <c r="AR2" s="155"/>
+      <c r="AS2" s="156"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6557,14 +6557,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="149"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="151"/>
+      <c r="AZ2" s="145"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="146"/>
+      <c r="BD2" s="146"/>
+      <c r="BE2" s="146"/>
+      <c r="BF2" s="146"/>
+      <c r="BG2" s="147"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="160"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="147">
+      <c r="B42" s="159">
         <v>1</v>
       </c>
-      <c r="C42" s="148"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="110" t="s">
         <v>94</v>
       </c>
@@ -7906,16 +7906,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="111"/>
-      <c r="AE42" s="145" t="s">
+      <c r="AE42" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="146"/>
-      <c r="AG42" s="145"/>
-      <c r="AH42" s="146"/>
-      <c r="AI42" s="145"/>
-      <c r="AJ42" s="146"/>
-      <c r="AK42" s="145"/>
-      <c r="AL42" s="146"/>
+      <c r="AF42" s="149"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="149"/>
+      <c r="AI42" s="148"/>
+      <c r="AJ42" s="149"/>
+      <c r="AK42" s="148"/>
+      <c r="AL42" s="149"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="152">
+      <c r="B43" s="150">
         <v>2</v>
       </c>
-      <c r="C43" s="153"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="112" t="s">
         <v>94</v>
       </c>
@@ -7984,16 +7984,16 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="114"/>
-      <c r="AE43" s="154" t="s">
+      <c r="AE43" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="155"/>
-      <c r="AG43" s="154"/>
-      <c r="AH43" s="155"/>
-      <c r="AI43" s="154"/>
-      <c r="AJ43" s="155"/>
-      <c r="AK43" s="154"/>
-      <c r="AL43" s="155"/>
+      <c r="AF43" s="153"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="153"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="153"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="153"/>
       <c r="AM43" s="115" t="s">
         <v>216</v>
       </c>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="147">
+      <c r="B44" s="159">
         <v>3</v>
       </c>
-      <c r="C44" s="148"/>
+      <c r="C44" s="160"/>
       <c r="D44" s="82" t="s">
         <v>103</v>
       </c>
@@ -8062,16 +8062,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="145" t="s">
+      <c r="AE44" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="146"/>
-      <c r="AG44" s="145"/>
-      <c r="AH44" s="146"/>
-      <c r="AI44" s="145"/>
-      <c r="AJ44" s="146"/>
-      <c r="AK44" s="145"/>
-      <c r="AL44" s="146"/>
+      <c r="AF44" s="149"/>
+      <c r="AG44" s="148"/>
+      <c r="AH44" s="149"/>
+      <c r="AI44" s="148"/>
+      <c r="AJ44" s="149"/>
+      <c r="AK44" s="148"/>
+      <c r="AL44" s="149"/>
       <c r="AM44" s="83" t="s">
         <v>104</v>
       </c>
@@ -8110,6 +8110,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK44:AL44"/>
@@ -8126,10 +8130,6 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AE44:AF44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8253,7 +8253,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="156">
+      <c r="CD1" s="154">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="149" t="str">
+      <c r="CU1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="149"/>
+      <c r="CU2" s="145"/>
       <c r="CV2" s="161"/>
       <c r="CW2" s="161"/>
       <c r="CX2" s="161"/>
@@ -8622,37 +8622,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="167" t="s">
+      <c r="I6" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="137" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8660,24 +8660,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="167" t="s">
+      <c r="Q6" s="169" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="167"/>
+      <c r="Q7" s="169"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8847,37 +8847,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="122" t="s">
+      <c r="H13" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="168" t="s">
+      <c r="I13" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="167" t="s">
+      <c r="J13" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="122" t="s">
+      <c r="L13" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="122" t="s">
+      <c r="M13" s="137" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -8885,24 +8885,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="168" t="s">
+      <c r="Q13" s="167" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -8912,7 +8912,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="169"/>
+      <c r="Q14" s="168"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -9027,37 +9027,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="122" t="s">
+      <c r="H20" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="167" t="s">
+      <c r="I20" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="167" t="s">
+      <c r="J20" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="122" t="s">
+      <c r="L20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="122" t="s">
+      <c r="M20" s="137" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -9065,24 +9065,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="167" t="s">
+      <c r="Q20" s="169" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="167"/>
+      <c r="Q21" s="169"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -9387,6 +9387,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -9403,26 +9423,6 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9499,7 +9499,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="156">
+      <c r="AI1" s="154">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="149" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="149"/>
+      <c r="AT2" s="145"/>
       <c r="AU2" s="161"/>
       <c r="AV2" s="161"/>
       <c r="AW2" s="161"/>
@@ -12000,7 +12000,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="156">
+      <c r="AI1" s="154">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -12016,7 +12016,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="149" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12087,7 +12087,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="149"/>
+      <c r="AT2" s="145"/>
       <c r="AU2" s="161"/>
       <c r="AV2" s="161"/>
       <c r="AW2" s="161"/>
@@ -12823,7 +12823,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="156">
+      <c r="AI1" s="154">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -12839,7 +12839,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="149" t="str">
+      <c r="AT1" s="145" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12910,7 +12910,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="149"/>
+      <c r="AT2" s="145"/>
       <c r="AU2" s="161"/>
       <c r="AV2" s="161"/>
       <c r="AW2" s="161"/>
@@ -13230,9 +13230,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13394,19 +13397,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13430,9 +13429,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21B_品名別集計.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\Backdoor\設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\Backdoor\設計書\20191222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245A0E57-DF50-4539-B3B0-266E6391DB5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A120E6FE-CF14-40AA-BBA0-DFE233C32351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,10 +1129,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>'8'：その他払出</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>＜必須＞</t>
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
@@ -1695,6 +1691,31 @@
   </si>
   <si>
     <t>※データの再検索不要</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'：その他払出</t>
+    </r>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2943,6 +2964,15 @@
     <xf numFmtId="0" fontId="42" fillId="7" borderId="8" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2952,6 +2982,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,46 +3053,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3029,12 +3065,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3089,14 +3119,41 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3152,9 +3209,6 @@
     <xf numFmtId="0" fontId="38" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3163,39 +3217,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4162,7 +4183,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CB$34" spid="_x0000_s3077"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CB$34" spid="_x0000_s3078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5182,108 +5203,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="199"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
-      <c r="M32" s="199"/>
-      <c r="N32" s="199"/>
-      <c r="O32" s="199"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199"/>
-      <c r="S32" s="199"/>
-      <c r="T32" s="199"/>
-      <c r="U32" s="199"/>
-      <c r="V32" s="199"/>
-      <c r="W32" s="199"/>
-      <c r="X32" s="199"/>
-      <c r="Y32" s="199"/>
-      <c r="Z32" s="199"/>
-      <c r="AA32" s="199"/>
-      <c r="AB32" s="199"/>
-      <c r="AC32" s="199"/>
-      <c r="AD32" s="199"/>
-      <c r="AE32" s="199"/>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="199"/>
-      <c r="AH32" s="199"/>
-      <c r="AI32" s="199"/>
-      <c r="AJ32" s="199"/>
-      <c r="AK32" s="199"/>
-      <c r="AL32" s="199"/>
-      <c r="AM32" s="199"/>
-      <c r="AN32" s="199"/>
-      <c r="AO32" s="199"/>
-      <c r="AP32" s="199"/>
-      <c r="AQ32" s="199"/>
-      <c r="AR32" s="199"/>
-      <c r="AS32" s="199"/>
-      <c r="AT32" s="199"/>
-      <c r="AU32" s="199"/>
-      <c r="AV32" s="199"/>
-      <c r="AW32" s="199"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="202"/>
+      <c r="R32" s="202"/>
+      <c r="S32" s="202"/>
+      <c r="T32" s="202"/>
+      <c r="U32" s="202"/>
+      <c r="V32" s="202"/>
+      <c r="W32" s="202"/>
+      <c r="X32" s="202"/>
+      <c r="Y32" s="202"/>
+      <c r="Z32" s="202"/>
+      <c r="AA32" s="202"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="202"/>
+      <c r="AD32" s="202"/>
+      <c r="AE32" s="202"/>
+      <c r="AF32" s="202"/>
+      <c r="AG32" s="202"/>
+      <c r="AH32" s="202"/>
+      <c r="AI32" s="202"/>
+      <c r="AJ32" s="202"/>
+      <c r="AK32" s="202"/>
+      <c r="AL32" s="202"/>
+      <c r="AM32" s="202"/>
+      <c r="AN32" s="202"/>
+      <c r="AO32" s="202"/>
+      <c r="AP32" s="202"/>
+      <c r="AQ32" s="202"/>
+      <c r="AR32" s="202"/>
+      <c r="AS32" s="202"/>
+      <c r="AT32" s="202"/>
+      <c r="AU32" s="202"/>
+      <c r="AV32" s="202"/>
+      <c r="AW32" s="202"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="200"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="M33" s="200"/>
-      <c r="N33" s="200"/>
-      <c r="O33" s="200"/>
-      <c r="P33" s="200"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="200"/>
-      <c r="V33" s="200"/>
-      <c r="W33" s="200"/>
-      <c r="X33" s="200"/>
-      <c r="Y33" s="200"/>
-      <c r="Z33" s="200"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="200"/>
-      <c r="AC33" s="200"/>
-      <c r="AD33" s="200"/>
-      <c r="AE33" s="200"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="200"/>
-      <c r="AI33" s="200"/>
-      <c r="AJ33" s="200"/>
-      <c r="AK33" s="200"/>
-      <c r="AL33" s="200"/>
-      <c r="AM33" s="200"/>
-      <c r="AN33" s="200"/>
-      <c r="AO33" s="200"/>
-      <c r="AP33" s="200"/>
-      <c r="AQ33" s="200"/>
-      <c r="AR33" s="200"/>
-      <c r="AS33" s="200"/>
-      <c r="AT33" s="200"/>
-      <c r="AU33" s="200"/>
-      <c r="AV33" s="200"/>
-      <c r="AW33" s="200"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
+      <c r="X33" s="203"/>
+      <c r="Y33" s="203"/>
+      <c r="Z33" s="203"/>
+      <c r="AA33" s="203"/>
+      <c r="AB33" s="203"/>
+      <c r="AC33" s="203"/>
+      <c r="AD33" s="203"/>
+      <c r="AE33" s="203"/>
+      <c r="AF33" s="203"/>
+      <c r="AG33" s="203"/>
+      <c r="AH33" s="203"/>
+      <c r="AI33" s="203"/>
+      <c r="AJ33" s="203"/>
+      <c r="AK33" s="203"/>
+      <c r="AL33" s="203"/>
+      <c r="AM33" s="203"/>
+      <c r="AN33" s="203"/>
+      <c r="AO33" s="203"/>
+      <c r="AP33" s="203"/>
+      <c r="AQ33" s="203"/>
+      <c r="AR33" s="203"/>
+      <c r="AS33" s="203"/>
+      <c r="AT33" s="203"/>
+      <c r="AU33" s="203"/>
+      <c r="AV33" s="203"/>
+      <c r="AW33" s="203"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5321,55 +5342,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="201"/>
-      <c r="B35" s="201"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="201"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="201"/>
-      <c r="O35" s="201"/>
-      <c r="P35" s="201"/>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="201"/>
-      <c r="T35" s="201"/>
-      <c r="U35" s="201"/>
-      <c r="V35" s="201"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="201"/>
-      <c r="Y35" s="201"/>
-      <c r="Z35" s="201"/>
-      <c r="AA35" s="201"/>
-      <c r="AB35" s="201"/>
-      <c r="AC35" s="201"/>
-      <c r="AD35" s="201"/>
-      <c r="AE35" s="201"/>
-      <c r="AF35" s="201"/>
-      <c r="AG35" s="201"/>
-      <c r="AH35" s="201"/>
-      <c r="AI35" s="201"/>
-      <c r="AJ35" s="201"/>
-      <c r="AK35" s="201"/>
-      <c r="AL35" s="201"/>
-      <c r="AM35" s="201"/>
-      <c r="AN35" s="201"/>
-      <c r="AO35" s="201"/>
-      <c r="AP35" s="201"/>
-      <c r="AQ35" s="201"/>
-      <c r="AR35" s="201"/>
-      <c r="AS35" s="201"/>
-      <c r="AT35" s="201"/>
-      <c r="AU35" s="201"/>
-      <c r="AV35" s="201"/>
-      <c r="AW35" s="201"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="204"/>
+      <c r="U35" s="204"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="204"/>
+      <c r="X35" s="204"/>
+      <c r="Y35" s="204"/>
+      <c r="Z35" s="204"/>
+      <c r="AA35" s="204"/>
+      <c r="AB35" s="204"/>
+      <c r="AC35" s="204"/>
+      <c r="AD35" s="204"/>
+      <c r="AE35" s="204"/>
+      <c r="AF35" s="204"/>
+      <c r="AG35" s="204"/>
+      <c r="AH35" s="204"/>
+      <c r="AI35" s="204"/>
+      <c r="AJ35" s="204"/>
+      <c r="AK35" s="204"/>
+      <c r="AL35" s="204"/>
+      <c r="AM35" s="204"/>
+      <c r="AN35" s="204"/>
+      <c r="AO35" s="204"/>
+      <c r="AP35" s="204"/>
+      <c r="AQ35" s="204"/>
+      <c r="AR35" s="204"/>
+      <c r="AS35" s="204"/>
+      <c r="AT35" s="204"/>
+      <c r="AU35" s="204"/>
+      <c r="AV35" s="204"/>
+      <c r="AW35" s="204"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5404,258 +5425,258 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
-      <c r="AI1" s="202"/>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="202"/>
-      <c r="AN1" s="202"/>
-      <c r="AO1" s="202"/>
-      <c r="AP1" s="202"/>
-      <c r="AQ1" s="202"/>
-      <c r="AR1" s="202"/>
-      <c r="AS1" s="202"/>
-      <c r="AT1" s="202"/>
-      <c r="AU1" s="202"/>
-      <c r="AV1" s="202"/>
-      <c r="AW1" s="202"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="220"/>
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="220"/>
+      <c r="AK1" s="220"/>
+      <c r="AL1" s="220"/>
+      <c r="AM1" s="220"/>
+      <c r="AN1" s="220"/>
+      <c r="AO1" s="220"/>
+      <c r="AP1" s="220"/>
+      <c r="AQ1" s="220"/>
+      <c r="AR1" s="220"/>
+      <c r="AS1" s="220"/>
+      <c r="AT1" s="220"/>
+      <c r="AU1" s="220"/>
+      <c r="AV1" s="220"/>
+      <c r="AW1" s="220"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="203"/>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="203"/>
-      <c r="AR2" s="203"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="203"/>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="203"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="221"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="221"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
+      <c r="AM2" s="221"/>
+      <c r="AN2" s="221"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="221"/>
+      <c r="AQ2" s="221"/>
+      <c r="AR2" s="221"/>
+      <c r="AS2" s="221"/>
+      <c r="AT2" s="221"/>
+      <c r="AU2" s="221"/>
+      <c r="AV2" s="221"/>
+      <c r="AW2" s="221"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204" t="s">
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="206" t="s">
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="207"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="206" t="s">
+      <c r="K3" s="225"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="204" t="s">
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204" t="s">
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="204"/>
-      <c r="AK3" s="204"/>
-      <c r="AL3" s="204"/>
-      <c r="AM3" s="204"/>
-      <c r="AN3" s="204" t="s">
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="222"/>
+      <c r="AC3" s="222"/>
+      <c r="AD3" s="222"/>
+      <c r="AE3" s="222"/>
+      <c r="AF3" s="222"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="204"/>
-      <c r="AP3" s="204"/>
-      <c r="AQ3" s="204"/>
-      <c r="AR3" s="204"/>
-      <c r="AS3" s="204" t="s">
+      <c r="AO3" s="222"/>
+      <c r="AP3" s="222"/>
+      <c r="AQ3" s="222"/>
+      <c r="AR3" s="222"/>
+      <c r="AS3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="204"/>
-      <c r="AU3" s="204"/>
-      <c r="AV3" s="204"/>
-      <c r="AW3" s="204"/>
+      <c r="AT3" s="222"/>
+      <c r="AU3" s="222"/>
+      <c r="AV3" s="222"/>
+      <c r="AW3" s="222"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="205"/>
-      <c r="AI4" s="205"/>
-      <c r="AJ4" s="205"/>
-      <c r="AK4" s="205"/>
-      <c r="AL4" s="205"/>
-      <c r="AM4" s="205"/>
-      <c r="AN4" s="205"/>
-      <c r="AO4" s="205"/>
-      <c r="AP4" s="205"/>
-      <c r="AQ4" s="205"/>
-      <c r="AR4" s="205"/>
-      <c r="AS4" s="205"/>
-      <c r="AT4" s="205"/>
-      <c r="AU4" s="205"/>
-      <c r="AV4" s="205"/>
-      <c r="AW4" s="205"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="229"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="223"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="223"/>
+      <c r="AI4" s="223"/>
+      <c r="AJ4" s="223"/>
+      <c r="AK4" s="223"/>
+      <c r="AL4" s="223"/>
+      <c r="AM4" s="223"/>
+      <c r="AN4" s="223"/>
+      <c r="AO4" s="223"/>
+      <c r="AP4" s="223"/>
+      <c r="AQ4" s="223"/>
+      <c r="AR4" s="223"/>
+      <c r="AS4" s="223"/>
+      <c r="AT4" s="223"/>
+      <c r="AU4" s="223"/>
+      <c r="AV4" s="223"/>
+      <c r="AW4" s="223"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="213">
+      <c r="B5" s="206">
         <v>1</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214">
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207">
         <v>43725</v>
       </c>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="215" t="s">
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215" t="s">
+      <c r="K5" s="208"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="212" t="s">
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
       <c r="V5" s="217" t="s">
         <v>17</v>
       </c>
@@ -5676,41 +5697,41 @@
       <c r="AK5" s="217"/>
       <c r="AL5" s="217"/>
       <c r="AM5" s="217"/>
-      <c r="AN5" s="212" t="s">
+      <c r="AN5" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="212"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="212"/>
-      <c r="AS5" s="212"/>
-      <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="212"/>
-      <c r="AW5" s="212"/>
+      <c r="AO5" s="205"/>
+      <c r="AP5" s="205"/>
+      <c r="AQ5" s="205"/>
+      <c r="AR5" s="205"/>
+      <c r="AS5" s="205"/>
+      <c r="AT5" s="205"/>
+      <c r="AU5" s="205"/>
+      <c r="AV5" s="205"/>
+      <c r="AW5" s="205"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
-      <c r="U6" s="212"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="219"/>
+      <c r="O6" s="219"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
       <c r="V6" s="217"/>
       <c r="W6" s="217"/>
       <c r="X6" s="217"/>
@@ -5729,39 +5750,39 @@
       <c r="AK6" s="217"/>
       <c r="AL6" s="217"/>
       <c r="AM6" s="217"/>
-      <c r="AN6" s="212"/>
-      <c r="AO6" s="212"/>
-      <c r="AP6" s="212"/>
-      <c r="AQ6" s="212"/>
-      <c r="AR6" s="212"/>
-      <c r="AS6" s="212"/>
-      <c r="AT6" s="212"/>
-      <c r="AU6" s="212"/>
-      <c r="AV6" s="212"/>
-      <c r="AW6" s="212"/>
+      <c r="AN6" s="205"/>
+      <c r="AO6" s="205"/>
+      <c r="AP6" s="205"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="205"/>
+      <c r="AS6" s="205"/>
+      <c r="AT6" s="205"/>
+      <c r="AU6" s="205"/>
+      <c r="AV6" s="205"/>
+      <c r="AW6" s="205"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="219"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
       <c r="V7" s="217"/>
       <c r="W7" s="217"/>
       <c r="X7" s="217"/>
@@ -5780,39 +5801,39 @@
       <c r="AK7" s="217"/>
       <c r="AL7" s="217"/>
       <c r="AM7" s="217"/>
-      <c r="AN7" s="212"/>
-      <c r="AO7" s="212"/>
-      <c r="AP7" s="212"/>
-      <c r="AQ7" s="212"/>
-      <c r="AR7" s="212"/>
-      <c r="AS7" s="212"/>
-      <c r="AT7" s="212"/>
-      <c r="AU7" s="212"/>
-      <c r="AV7" s="212"/>
-      <c r="AW7" s="212"/>
+      <c r="AN7" s="205"/>
+      <c r="AO7" s="205"/>
+      <c r="AP7" s="205"/>
+      <c r="AQ7" s="205"/>
+      <c r="AR7" s="205"/>
+      <c r="AS7" s="205"/>
+      <c r="AT7" s="205"/>
+      <c r="AU7" s="205"/>
+      <c r="AV7" s="205"/>
+      <c r="AW7" s="205"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="216"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="219"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
       <c r="V8" s="217"/>
       <c r="W8" s="217"/>
       <c r="X8" s="217"/>
@@ -5831,39 +5852,39 @@
       <c r="AK8" s="217"/>
       <c r="AL8" s="217"/>
       <c r="AM8" s="217"/>
-      <c r="AN8" s="212"/>
-      <c r="AO8" s="212"/>
-      <c r="AP8" s="212"/>
-      <c r="AQ8" s="212"/>
-      <c r="AR8" s="212"/>
-      <c r="AS8" s="212"/>
-      <c r="AT8" s="212"/>
-      <c r="AU8" s="212"/>
-      <c r="AV8" s="212"/>
-      <c r="AW8" s="212"/>
+      <c r="AN8" s="205"/>
+      <c r="AO8" s="205"/>
+      <c r="AP8" s="205"/>
+      <c r="AQ8" s="205"/>
+      <c r="AR8" s="205"/>
+      <c r="AS8" s="205"/>
+      <c r="AT8" s="205"/>
+      <c r="AU8" s="205"/>
+      <c r="AV8" s="205"/>
+      <c r="AW8" s="205"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="216"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="216"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="212"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
       <c r="V9" s="217"/>
       <c r="W9" s="217"/>
       <c r="X9" s="217"/>
@@ -5882,39 +5903,39 @@
       <c r="AK9" s="217"/>
       <c r="AL9" s="217"/>
       <c r="AM9" s="217"/>
-      <c r="AN9" s="212"/>
-      <c r="AO9" s="212"/>
-      <c r="AP9" s="212"/>
-      <c r="AQ9" s="212"/>
-      <c r="AR9" s="212"/>
-      <c r="AS9" s="212"/>
-      <c r="AT9" s="212"/>
-      <c r="AU9" s="212"/>
-      <c r="AV9" s="212"/>
-      <c r="AW9" s="212"/>
+      <c r="AN9" s="205"/>
+      <c r="AO9" s="205"/>
+      <c r="AP9" s="205"/>
+      <c r="AQ9" s="205"/>
+      <c r="AR9" s="205"/>
+      <c r="AS9" s="205"/>
+      <c r="AT9" s="205"/>
+      <c r="AU9" s="205"/>
+      <c r="AV9" s="205"/>
+      <c r="AW9" s="205"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="216"/>
-      <c r="N10" s="216"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="216"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="216"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="219"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
       <c r="V10" s="217"/>
       <c r="W10" s="217"/>
       <c r="X10" s="217"/>
@@ -5933,193 +5954,193 @@
       <c r="AK10" s="217"/>
       <c r="AL10" s="217"/>
       <c r="AM10" s="217"/>
-      <c r="AN10" s="212"/>
-      <c r="AO10" s="212"/>
-      <c r="AP10" s="212"/>
-      <c r="AQ10" s="212"/>
-      <c r="AR10" s="212"/>
-      <c r="AS10" s="212"/>
-      <c r="AT10" s="212"/>
-      <c r="AU10" s="212"/>
-      <c r="AV10" s="212"/>
-      <c r="AW10" s="212"/>
+      <c r="AN10" s="205"/>
+      <c r="AO10" s="205"/>
+      <c r="AP10" s="205"/>
+      <c r="AQ10" s="205"/>
+      <c r="AR10" s="205"/>
+      <c r="AS10" s="205"/>
+      <c r="AT10" s="205"/>
+      <c r="AU10" s="205"/>
+      <c r="AV10" s="205"/>
+      <c r="AW10" s="205"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="212"/>
-      <c r="T11" s="212"/>
-      <c r="U11" s="212"/>
-      <c r="V11" s="219"/>
-      <c r="W11" s="220"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="220"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="220"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="220"/>
-      <c r="AD11" s="220"/>
-      <c r="AE11" s="220"/>
-      <c r="AF11" s="220"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="220"/>
-      <c r="AJ11" s="220"/>
-      <c r="AK11" s="220"/>
-      <c r="AL11" s="220"/>
-      <c r="AM11" s="220"/>
-      <c r="AN11" s="212"/>
-      <c r="AO11" s="212"/>
-      <c r="AP11" s="212"/>
-      <c r="AQ11" s="212"/>
-      <c r="AR11" s="212"/>
-      <c r="AS11" s="212"/>
-      <c r="AT11" s="212"/>
-      <c r="AU11" s="212"/>
-      <c r="AV11" s="212"/>
-      <c r="AW11" s="212"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="218"/>
+      <c r="X11" s="218"/>
+      <c r="Y11" s="218"/>
+      <c r="Z11" s="218"/>
+      <c r="AA11" s="218"/>
+      <c r="AB11" s="218"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="218"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="218"/>
+      <c r="AH11" s="218"/>
+      <c r="AI11" s="218"/>
+      <c r="AJ11" s="218"/>
+      <c r="AK11" s="218"/>
+      <c r="AL11" s="218"/>
+      <c r="AM11" s="218"/>
+      <c r="AN11" s="205"/>
+      <c r="AO11" s="205"/>
+      <c r="AP11" s="205"/>
+      <c r="AQ11" s="205"/>
+      <c r="AR11" s="205"/>
+      <c r="AS11" s="205"/>
+      <c r="AT11" s="205"/>
+      <c r="AU11" s="205"/>
+      <c r="AV11" s="205"/>
+      <c r="AW11" s="205"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="213"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="214"/>
-      <c r="I12" s="214"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="212"/>
-      <c r="T12" s="212"/>
-      <c r="U12" s="212"/>
-      <c r="V12" s="219"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="219"/>
-      <c r="Y12" s="219"/>
-      <c r="Z12" s="219"/>
-      <c r="AA12" s="219"/>
-      <c r="AB12" s="219"/>
-      <c r="AC12" s="219"/>
-      <c r="AD12" s="219"/>
-      <c r="AE12" s="219"/>
-      <c r="AF12" s="219"/>
-      <c r="AG12" s="219"/>
-      <c r="AH12" s="219"/>
-      <c r="AI12" s="219"/>
-      <c r="AJ12" s="219"/>
-      <c r="AK12" s="219"/>
-      <c r="AL12" s="219"/>
-      <c r="AM12" s="219"/>
-      <c r="AN12" s="212"/>
-      <c r="AO12" s="212"/>
-      <c r="AP12" s="212"/>
-      <c r="AQ12" s="212"/>
-      <c r="AR12" s="212"/>
-      <c r="AS12" s="212"/>
-      <c r="AT12" s="212"/>
-      <c r="AU12" s="212"/>
-      <c r="AV12" s="212"/>
-      <c r="AW12" s="212"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="205"/>
+      <c r="U12" s="205"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="211"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="211"/>
+      <c r="AD12" s="211"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="211"/>
+      <c r="AG12" s="211"/>
+      <c r="AH12" s="211"/>
+      <c r="AI12" s="211"/>
+      <c r="AJ12" s="211"/>
+      <c r="AK12" s="211"/>
+      <c r="AL12" s="211"/>
+      <c r="AM12" s="211"/>
+      <c r="AN12" s="205"/>
+      <c r="AO12" s="205"/>
+      <c r="AP12" s="205"/>
+      <c r="AQ12" s="205"/>
+      <c r="AR12" s="205"/>
+      <c r="AS12" s="205"/>
+      <c r="AT12" s="205"/>
+      <c r="AU12" s="205"/>
+      <c r="AV12" s="205"/>
+      <c r="AW12" s="205"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="218"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="212"/>
-      <c r="T13" s="212"/>
-      <c r="U13" s="212"/>
-      <c r="V13" s="219"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="219"/>
-      <c r="Y13" s="219"/>
-      <c r="Z13" s="219"/>
-      <c r="AA13" s="219"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="219"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="219"/>
-      <c r="AJ13" s="219"/>
-      <c r="AK13" s="219"/>
-      <c r="AL13" s="219"/>
-      <c r="AM13" s="219"/>
-      <c r="AN13" s="212"/>
-      <c r="AO13" s="212"/>
-      <c r="AP13" s="212"/>
-      <c r="AQ13" s="212"/>
-      <c r="AR13" s="212"/>
-      <c r="AS13" s="212"/>
-      <c r="AT13" s="212"/>
-      <c r="AU13" s="212"/>
-      <c r="AV13" s="212"/>
-      <c r="AW13" s="212"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="213"/>
+      <c r="P13" s="213"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="213"/>
+      <c r="S13" s="205"/>
+      <c r="T13" s="205"/>
+      <c r="U13" s="205"/>
+      <c r="V13" s="211"/>
+      <c r="W13" s="211"/>
+      <c r="X13" s="211"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="211"/>
+      <c r="AA13" s="211"/>
+      <c r="AB13" s="211"/>
+      <c r="AC13" s="211"/>
+      <c r="AD13" s="211"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="211"/>
+      <c r="AG13" s="211"/>
+      <c r="AH13" s="211"/>
+      <c r="AI13" s="211"/>
+      <c r="AJ13" s="211"/>
+      <c r="AK13" s="211"/>
+      <c r="AL13" s="211"/>
+      <c r="AM13" s="211"/>
+      <c r="AN13" s="205"/>
+      <c r="AO13" s="205"/>
+      <c r="AP13" s="205"/>
+      <c r="AQ13" s="205"/>
+      <c r="AR13" s="205"/>
+      <c r="AS13" s="205"/>
+      <c r="AT13" s="205"/>
+      <c r="AU13" s="205"/>
+      <c r="AV13" s="205"/>
+      <c r="AW13" s="205"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="212"/>
-      <c r="T14" s="212"/>
-      <c r="U14" s="212"/>
-      <c r="V14" s="222"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="213"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="216"/>
       <c r="W14" s="217"/>
       <c r="X14" s="217"/>
       <c r="Y14" s="217"/>
@@ -6137,1037 +6158,1270 @@
       <c r="AK14" s="217"/>
       <c r="AL14" s="217"/>
       <c r="AM14" s="217"/>
-      <c r="AN14" s="212"/>
-      <c r="AO14" s="212"/>
-      <c r="AP14" s="212"/>
-      <c r="AQ14" s="212"/>
-      <c r="AR14" s="212"/>
-      <c r="AS14" s="212"/>
-      <c r="AT14" s="212"/>
-      <c r="AU14" s="212"/>
-      <c r="AV14" s="212"/>
-      <c r="AW14" s="212"/>
+      <c r="AN14" s="205"/>
+      <c r="AO14" s="205"/>
+      <c r="AP14" s="205"/>
+      <c r="AQ14" s="205"/>
+      <c r="AR14" s="205"/>
+      <c r="AS14" s="205"/>
+      <c r="AT14" s="205"/>
+      <c r="AU14" s="205"/>
+      <c r="AV14" s="205"/>
+      <c r="AW14" s="205"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="212"/>
-      <c r="T15" s="212"/>
-      <c r="U15" s="212"/>
-      <c r="V15" s="219"/>
-      <c r="W15" s="219"/>
-      <c r="X15" s="219"/>
-      <c r="Y15" s="219"/>
-      <c r="Z15" s="219"/>
-      <c r="AA15" s="219"/>
-      <c r="AB15" s="219"/>
-      <c r="AC15" s="219"/>
-      <c r="AD15" s="219"/>
-      <c r="AE15" s="219"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="219"/>
-      <c r="AJ15" s="219"/>
-      <c r="AK15" s="219"/>
-      <c r="AL15" s="219"/>
-      <c r="AM15" s="219"/>
-      <c r="AN15" s="212"/>
-      <c r="AO15" s="212"/>
-      <c r="AP15" s="212"/>
-      <c r="AQ15" s="212"/>
-      <c r="AR15" s="212"/>
-      <c r="AS15" s="212"/>
-      <c r="AT15" s="212"/>
-      <c r="AU15" s="212"/>
-      <c r="AV15" s="212"/>
-      <c r="AW15" s="212"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="205"/>
+      <c r="T15" s="205"/>
+      <c r="U15" s="205"/>
+      <c r="V15" s="211"/>
+      <c r="W15" s="211"/>
+      <c r="X15" s="211"/>
+      <c r="Y15" s="211"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="211"/>
+      <c r="AB15" s="211"/>
+      <c r="AC15" s="211"/>
+      <c r="AD15" s="211"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="211"/>
+      <c r="AG15" s="211"/>
+      <c r="AH15" s="211"/>
+      <c r="AI15" s="211"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="211"/>
+      <c r="AL15" s="211"/>
+      <c r="AM15" s="211"/>
+      <c r="AN15" s="205"/>
+      <c r="AO15" s="205"/>
+      <c r="AP15" s="205"/>
+      <c r="AQ15" s="205"/>
+      <c r="AR15" s="205"/>
+      <c r="AS15" s="205"/>
+      <c r="AT15" s="205"/>
+      <c r="AU15" s="205"/>
+      <c r="AV15" s="205"/>
+      <c r="AW15" s="205"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="218"/>
-      <c r="S16" s="212"/>
-      <c r="T16" s="212"/>
-      <c r="U16" s="212"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="219"/>
-      <c r="AC16" s="219"/>
-      <c r="AD16" s="219"/>
-      <c r="AE16" s="219"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="219"/>
-      <c r="AJ16" s="219"/>
-      <c r="AK16" s="219"/>
-      <c r="AL16" s="219"/>
-      <c r="AM16" s="219"/>
-      <c r="AN16" s="212"/>
-      <c r="AO16" s="212"/>
-      <c r="AP16" s="212"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
-      <c r="AS16" s="212"/>
-      <c r="AT16" s="212"/>
-      <c r="AU16" s="212"/>
-      <c r="AV16" s="212"/>
-      <c r="AW16" s="212"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="205"/>
+      <c r="U16" s="205"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="211"/>
+      <c r="X16" s="211"/>
+      <c r="Y16" s="211"/>
+      <c r="Z16" s="211"/>
+      <c r="AA16" s="211"/>
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="211"/>
+      <c r="AD16" s="211"/>
+      <c r="AE16" s="211"/>
+      <c r="AF16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AJ16" s="211"/>
+      <c r="AK16" s="211"/>
+      <c r="AL16" s="211"/>
+      <c r="AM16" s="211"/>
+      <c r="AN16" s="205"/>
+      <c r="AO16" s="205"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="205"/>
+      <c r="AR16" s="205"/>
+      <c r="AS16" s="205"/>
+      <c r="AT16" s="205"/>
+      <c r="AU16" s="205"/>
+      <c r="AV16" s="205"/>
+      <c r="AW16" s="205"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="219"/>
-      <c r="W17" s="219"/>
-      <c r="X17" s="219"/>
-      <c r="Y17" s="219"/>
-      <c r="Z17" s="219"/>
-      <c r="AA17" s="219"/>
-      <c r="AB17" s="219"/>
-      <c r="AC17" s="219"/>
-      <c r="AD17" s="219"/>
-      <c r="AE17" s="219"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="219"/>
-      <c r="AJ17" s="219"/>
-      <c r="AK17" s="219"/>
-      <c r="AL17" s="219"/>
-      <c r="AM17" s="219"/>
-      <c r="AN17" s="212"/>
-      <c r="AO17" s="212"/>
-      <c r="AP17" s="212"/>
-      <c r="AQ17" s="212"/>
-      <c r="AR17" s="212"/>
-      <c r="AS17" s="212"/>
-      <c r="AT17" s="212"/>
-      <c r="AU17" s="212"/>
-      <c r="AV17" s="212"/>
-      <c r="AW17" s="212"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="214"/>
+      <c r="S17" s="215"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211"/>
+      <c r="AD17" s="211"/>
+      <c r="AE17" s="211"/>
+      <c r="AF17" s="211"/>
+      <c r="AG17" s="211"/>
+      <c r="AH17" s="211"/>
+      <c r="AI17" s="211"/>
+      <c r="AJ17" s="211"/>
+      <c r="AK17" s="211"/>
+      <c r="AL17" s="211"/>
+      <c r="AM17" s="211"/>
+      <c r="AN17" s="205"/>
+      <c r="AO17" s="205"/>
+      <c r="AP17" s="205"/>
+      <c r="AQ17" s="205"/>
+      <c r="AR17" s="205"/>
+      <c r="AS17" s="205"/>
+      <c r="AT17" s="205"/>
+      <c r="AU17" s="205"/>
+      <c r="AV17" s="205"/>
+      <c r="AW17" s="205"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="218"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="219"/>
-      <c r="W18" s="219"/>
-      <c r="X18" s="219"/>
-      <c r="Y18" s="219"/>
-      <c r="Z18" s="219"/>
-      <c r="AA18" s="219"/>
-      <c r="AB18" s="219"/>
-      <c r="AC18" s="219"/>
-      <c r="AD18" s="219"/>
-      <c r="AE18" s="219"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="219"/>
-      <c r="AH18" s="219"/>
-      <c r="AI18" s="219"/>
-      <c r="AJ18" s="219"/>
-      <c r="AK18" s="219"/>
-      <c r="AL18" s="219"/>
-      <c r="AM18" s="219"/>
-      <c r="AN18" s="212"/>
-      <c r="AO18" s="212"/>
-      <c r="AP18" s="212"/>
-      <c r="AQ18" s="212"/>
-      <c r="AR18" s="212"/>
-      <c r="AS18" s="212"/>
-      <c r="AT18" s="212"/>
-      <c r="AU18" s="212"/>
-      <c r="AV18" s="212"/>
-      <c r="AW18" s="212"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="211"/>
+      <c r="W18" s="211"/>
+      <c r="X18" s="211"/>
+      <c r="Y18" s="211"/>
+      <c r="Z18" s="211"/>
+      <c r="AA18" s="211"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="211"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="211"/>
+      <c r="AG18" s="211"/>
+      <c r="AH18" s="211"/>
+      <c r="AI18" s="211"/>
+      <c r="AJ18" s="211"/>
+      <c r="AK18" s="211"/>
+      <c r="AL18" s="211"/>
+      <c r="AM18" s="211"/>
+      <c r="AN18" s="205"/>
+      <c r="AO18" s="205"/>
+      <c r="AP18" s="205"/>
+      <c r="AQ18" s="205"/>
+      <c r="AR18" s="205"/>
+      <c r="AS18" s="205"/>
+      <c r="AT18" s="205"/>
+      <c r="AU18" s="205"/>
+      <c r="AV18" s="205"/>
+      <c r="AW18" s="205"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="218"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="219"/>
-      <c r="W19" s="219"/>
-      <c r="X19" s="219"/>
-      <c r="Y19" s="219"/>
-      <c r="Z19" s="219"/>
-      <c r="AA19" s="219"/>
-      <c r="AB19" s="219"/>
-      <c r="AC19" s="219"/>
-      <c r="AD19" s="219"/>
-      <c r="AE19" s="219"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="219"/>
-      <c r="AJ19" s="219"/>
-      <c r="AK19" s="219"/>
-      <c r="AL19" s="219"/>
-      <c r="AM19" s="219"/>
-      <c r="AN19" s="212"/>
-      <c r="AO19" s="212"/>
-      <c r="AP19" s="212"/>
-      <c r="AQ19" s="212"/>
-      <c r="AR19" s="212"/>
-      <c r="AS19" s="212"/>
-      <c r="AT19" s="212"/>
-      <c r="AU19" s="212"/>
-      <c r="AV19" s="212"/>
-      <c r="AW19" s="212"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="213"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="211"/>
+      <c r="W19" s="211"/>
+      <c r="X19" s="211"/>
+      <c r="Y19" s="211"/>
+      <c r="Z19" s="211"/>
+      <c r="AA19" s="211"/>
+      <c r="AB19" s="211"/>
+      <c r="AC19" s="211"/>
+      <c r="AD19" s="211"/>
+      <c r="AE19" s="211"/>
+      <c r="AF19" s="211"/>
+      <c r="AG19" s="211"/>
+      <c r="AH19" s="211"/>
+      <c r="AI19" s="211"/>
+      <c r="AJ19" s="211"/>
+      <c r="AK19" s="211"/>
+      <c r="AL19" s="211"/>
+      <c r="AM19" s="211"/>
+      <c r="AN19" s="205"/>
+      <c r="AO19" s="205"/>
+      <c r="AP19" s="205"/>
+      <c r="AQ19" s="205"/>
+      <c r="AR19" s="205"/>
+      <c r="AS19" s="205"/>
+      <c r="AT19" s="205"/>
+      <c r="AU19" s="205"/>
+      <c r="AV19" s="205"/>
+      <c r="AW19" s="205"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="219"/>
-      <c r="W20" s="219"/>
-      <c r="X20" s="219"/>
-      <c r="Y20" s="219"/>
-      <c r="Z20" s="219"/>
-      <c r="AA20" s="219"/>
-      <c r="AB20" s="219"/>
-      <c r="AC20" s="219"/>
-      <c r="AD20" s="219"/>
-      <c r="AE20" s="219"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="219"/>
-      <c r="AJ20" s="219"/>
-      <c r="AK20" s="219"/>
-      <c r="AL20" s="219"/>
-      <c r="AM20" s="219"/>
-      <c r="AN20" s="212"/>
-      <c r="AO20" s="212"/>
-      <c r="AP20" s="212"/>
-      <c r="AQ20" s="212"/>
-      <c r="AR20" s="212"/>
-      <c r="AS20" s="212"/>
-      <c r="AT20" s="212"/>
-      <c r="AU20" s="212"/>
-      <c r="AV20" s="212"/>
-      <c r="AW20" s="212"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="211"/>
+      <c r="W20" s="211"/>
+      <c r="X20" s="211"/>
+      <c r="Y20" s="211"/>
+      <c r="Z20" s="211"/>
+      <c r="AA20" s="211"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="211"/>
+      <c r="AD20" s="211"/>
+      <c r="AE20" s="211"/>
+      <c r="AF20" s="211"/>
+      <c r="AG20" s="211"/>
+      <c r="AH20" s="211"/>
+      <c r="AI20" s="211"/>
+      <c r="AJ20" s="211"/>
+      <c r="AK20" s="211"/>
+      <c r="AL20" s="211"/>
+      <c r="AM20" s="211"/>
+      <c r="AN20" s="205"/>
+      <c r="AO20" s="205"/>
+      <c r="AP20" s="205"/>
+      <c r="AQ20" s="205"/>
+      <c r="AR20" s="205"/>
+      <c r="AS20" s="205"/>
+      <c r="AT20" s="205"/>
+      <c r="AU20" s="205"/>
+      <c r="AV20" s="205"/>
+      <c r="AW20" s="205"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="212"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="219"/>
-      <c r="Z21" s="219"/>
-      <c r="AA21" s="219"/>
-      <c r="AB21" s="219"/>
-      <c r="AC21" s="219"/>
-      <c r="AD21" s="219"/>
-      <c r="AE21" s="219"/>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="219"/>
-      <c r="AJ21" s="219"/>
-      <c r="AK21" s="219"/>
-      <c r="AL21" s="219"/>
-      <c r="AM21" s="219"/>
-      <c r="AN21" s="212"/>
-      <c r="AO21" s="212"/>
-      <c r="AP21" s="212"/>
-      <c r="AQ21" s="212"/>
-      <c r="AR21" s="212"/>
-      <c r="AS21" s="212"/>
-      <c r="AT21" s="212"/>
-      <c r="AU21" s="212"/>
-      <c r="AV21" s="212"/>
-      <c r="AW21" s="212"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="205"/>
+      <c r="U21" s="205"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211"/>
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="211"/>
+      <c r="AG21" s="211"/>
+      <c r="AH21" s="211"/>
+      <c r="AI21" s="211"/>
+      <c r="AJ21" s="211"/>
+      <c r="AK21" s="211"/>
+      <c r="AL21" s="211"/>
+      <c r="AM21" s="211"/>
+      <c r="AN21" s="205"/>
+      <c r="AO21" s="205"/>
+      <c r="AP21" s="205"/>
+      <c r="AQ21" s="205"/>
+      <c r="AR21" s="205"/>
+      <c r="AS21" s="205"/>
+      <c r="AT21" s="205"/>
+      <c r="AU21" s="205"/>
+      <c r="AV21" s="205"/>
+      <c r="AW21" s="205"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="212"/>
-      <c r="U22" s="212"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="219"/>
-      <c r="X22" s="219"/>
-      <c r="Y22" s="219"/>
-      <c r="Z22" s="219"/>
-      <c r="AA22" s="219"/>
-      <c r="AB22" s="219"/>
-      <c r="AC22" s="219"/>
-      <c r="AD22" s="219"/>
-      <c r="AE22" s="219"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="219"/>
-      <c r="AJ22" s="219"/>
-      <c r="AK22" s="219"/>
-      <c r="AL22" s="219"/>
-      <c r="AM22" s="219"/>
-      <c r="AN22" s="212"/>
-      <c r="AO22" s="212"/>
-      <c r="AP22" s="212"/>
-      <c r="AQ22" s="212"/>
-      <c r="AR22" s="212"/>
-      <c r="AS22" s="212"/>
-      <c r="AT22" s="212"/>
-      <c r="AU22" s="212"/>
-      <c r="AV22" s="212"/>
-      <c r="AW22" s="212"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="205"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
+      <c r="Y22" s="211"/>
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="211"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="211"/>
+      <c r="AD22" s="211"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="211"/>
+      <c r="AG22" s="211"/>
+      <c r="AH22" s="211"/>
+      <c r="AI22" s="211"/>
+      <c r="AJ22" s="211"/>
+      <c r="AK22" s="211"/>
+      <c r="AL22" s="211"/>
+      <c r="AM22" s="211"/>
+      <c r="AN22" s="205"/>
+      <c r="AO22" s="205"/>
+      <c r="AP22" s="205"/>
+      <c r="AQ22" s="205"/>
+      <c r="AR22" s="205"/>
+      <c r="AS22" s="205"/>
+      <c r="AT22" s="205"/>
+      <c r="AU22" s="205"/>
+      <c r="AV22" s="205"/>
+      <c r="AW22" s="205"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="218"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="218"/>
-      <c r="S23" s="212"/>
-      <c r="T23" s="212"/>
-      <c r="U23" s="212"/>
-      <c r="V23" s="219"/>
-      <c r="W23" s="219"/>
-      <c r="X23" s="219"/>
-      <c r="Y23" s="219"/>
-      <c r="Z23" s="219"/>
-      <c r="AA23" s="219"/>
-      <c r="AB23" s="219"/>
-      <c r="AC23" s="219"/>
-      <c r="AD23" s="219"/>
-      <c r="AE23" s="219"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="219"/>
-      <c r="AJ23" s="219"/>
-      <c r="AK23" s="219"/>
-      <c r="AL23" s="219"/>
-      <c r="AM23" s="219"/>
-      <c r="AN23" s="212"/>
-      <c r="AO23" s="212"/>
-      <c r="AP23" s="212"/>
-      <c r="AQ23" s="212"/>
-      <c r="AR23" s="212"/>
-      <c r="AS23" s="212"/>
-      <c r="AT23" s="212"/>
-      <c r="AU23" s="212"/>
-      <c r="AV23" s="212"/>
-      <c r="AW23" s="212"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="213"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="205"/>
+      <c r="U23" s="205"/>
+      <c r="V23" s="211"/>
+      <c r="W23" s="211"/>
+      <c r="X23" s="211"/>
+      <c r="Y23" s="211"/>
+      <c r="Z23" s="211"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="211"/>
+      <c r="AD23" s="211"/>
+      <c r="AE23" s="211"/>
+      <c r="AF23" s="211"/>
+      <c r="AG23" s="211"/>
+      <c r="AH23" s="211"/>
+      <c r="AI23" s="211"/>
+      <c r="AJ23" s="211"/>
+      <c r="AK23" s="211"/>
+      <c r="AL23" s="211"/>
+      <c r="AM23" s="211"/>
+      <c r="AN23" s="205"/>
+      <c r="AO23" s="205"/>
+      <c r="AP23" s="205"/>
+      <c r="AQ23" s="205"/>
+      <c r="AR23" s="205"/>
+      <c r="AS23" s="205"/>
+      <c r="AT23" s="205"/>
+      <c r="AU23" s="205"/>
+      <c r="AV23" s="205"/>
+      <c r="AW23" s="205"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="219"/>
-      <c r="W24" s="219"/>
-      <c r="X24" s="219"/>
-      <c r="Y24" s="219"/>
-      <c r="Z24" s="219"/>
-      <c r="AA24" s="219"/>
-      <c r="AB24" s="219"/>
-      <c r="AC24" s="219"/>
-      <c r="AD24" s="219"/>
-      <c r="AE24" s="219"/>
-      <c r="AF24" s="219"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="219"/>
-      <c r="AJ24" s="219"/>
-      <c r="AK24" s="219"/>
-      <c r="AL24" s="219"/>
-      <c r="AM24" s="219"/>
-      <c r="AN24" s="212"/>
-      <c r="AO24" s="212"/>
-      <c r="AP24" s="212"/>
-      <c r="AQ24" s="212"/>
-      <c r="AR24" s="212"/>
-      <c r="AS24" s="212"/>
-      <c r="AT24" s="212"/>
-      <c r="AU24" s="212"/>
-      <c r="AV24" s="212"/>
-      <c r="AW24" s="212"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="211"/>
+      <c r="W24" s="211"/>
+      <c r="X24" s="211"/>
+      <c r="Y24" s="211"/>
+      <c r="Z24" s="211"/>
+      <c r="AA24" s="211"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="211"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="211"/>
+      <c r="AG24" s="211"/>
+      <c r="AH24" s="211"/>
+      <c r="AI24" s="211"/>
+      <c r="AJ24" s="211"/>
+      <c r="AK24" s="211"/>
+      <c r="AL24" s="211"/>
+      <c r="AM24" s="211"/>
+      <c r="AN24" s="205"/>
+      <c r="AO24" s="205"/>
+      <c r="AP24" s="205"/>
+      <c r="AQ24" s="205"/>
+      <c r="AR24" s="205"/>
+      <c r="AS24" s="205"/>
+      <c r="AT24" s="205"/>
+      <c r="AU24" s="205"/>
+      <c r="AV24" s="205"/>
+      <c r="AW24" s="205"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="212"/>
-      <c r="V25" s="219"/>
-      <c r="W25" s="219"/>
-      <c r="X25" s="219"/>
-      <c r="Y25" s="219"/>
-      <c r="Z25" s="219"/>
-      <c r="AA25" s="219"/>
-      <c r="AB25" s="219"/>
-      <c r="AC25" s="219"/>
-      <c r="AD25" s="219"/>
-      <c r="AE25" s="219"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="219"/>
-      <c r="AJ25" s="219"/>
-      <c r="AK25" s="219"/>
-      <c r="AL25" s="219"/>
-      <c r="AM25" s="219"/>
-      <c r="AN25" s="212"/>
-      <c r="AO25" s="212"/>
-      <c r="AP25" s="212"/>
-      <c r="AQ25" s="212"/>
-      <c r="AR25" s="212"/>
-      <c r="AS25" s="212"/>
-      <c r="AT25" s="212"/>
-      <c r="AU25" s="212"/>
-      <c r="AV25" s="212"/>
-      <c r="AW25" s="212"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="208"/>
+      <c r="M25" s="212"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="213"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="205"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="211"/>
+      <c r="Y25" s="211"/>
+      <c r="Z25" s="211"/>
+      <c r="AA25" s="211"/>
+      <c r="AB25" s="211"/>
+      <c r="AC25" s="211"/>
+      <c r="AD25" s="211"/>
+      <c r="AE25" s="211"/>
+      <c r="AF25" s="211"/>
+      <c r="AG25" s="211"/>
+      <c r="AH25" s="211"/>
+      <c r="AI25" s="211"/>
+      <c r="AJ25" s="211"/>
+      <c r="AK25" s="211"/>
+      <c r="AL25" s="211"/>
+      <c r="AM25" s="211"/>
+      <c r="AN25" s="205"/>
+      <c r="AO25" s="205"/>
+      <c r="AP25" s="205"/>
+      <c r="AQ25" s="205"/>
+      <c r="AR25" s="205"/>
+      <c r="AS25" s="205"/>
+      <c r="AT25" s="205"/>
+      <c r="AU25" s="205"/>
+      <c r="AV25" s="205"/>
+      <c r="AW25" s="205"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="212"/>
-      <c r="T26" s="212"/>
-      <c r="U26" s="212"/>
-      <c r="V26" s="219"/>
-      <c r="W26" s="219"/>
-      <c r="X26" s="219"/>
-      <c r="Y26" s="219"/>
-      <c r="Z26" s="219"/>
-      <c r="AA26" s="219"/>
-      <c r="AB26" s="219"/>
-      <c r="AC26" s="219"/>
-      <c r="AD26" s="219"/>
-      <c r="AE26" s="219"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="219"/>
-      <c r="AJ26" s="219"/>
-      <c r="AK26" s="219"/>
-      <c r="AL26" s="219"/>
-      <c r="AM26" s="219"/>
-      <c r="AN26" s="212"/>
-      <c r="AO26" s="212"/>
-      <c r="AP26" s="212"/>
-      <c r="AQ26" s="212"/>
-      <c r="AR26" s="212"/>
-      <c r="AS26" s="212"/>
-      <c r="AT26" s="212"/>
-      <c r="AU26" s="212"/>
-      <c r="AV26" s="212"/>
-      <c r="AW26" s="212"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="212"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="213"/>
+      <c r="P26" s="213"/>
+      <c r="Q26" s="213"/>
+      <c r="R26" s="213"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="211"/>
+      <c r="Y26" s="211"/>
+      <c r="Z26" s="211"/>
+      <c r="AA26" s="211"/>
+      <c r="AB26" s="211"/>
+      <c r="AC26" s="211"/>
+      <c r="AD26" s="211"/>
+      <c r="AE26" s="211"/>
+      <c r="AF26" s="211"/>
+      <c r="AG26" s="211"/>
+      <c r="AH26" s="211"/>
+      <c r="AI26" s="211"/>
+      <c r="AJ26" s="211"/>
+      <c r="AK26" s="211"/>
+      <c r="AL26" s="211"/>
+      <c r="AM26" s="211"/>
+      <c r="AN26" s="205"/>
+      <c r="AO26" s="205"/>
+      <c r="AP26" s="205"/>
+      <c r="AQ26" s="205"/>
+      <c r="AR26" s="205"/>
+      <c r="AS26" s="205"/>
+      <c r="AT26" s="205"/>
+      <c r="AU26" s="205"/>
+      <c r="AV26" s="205"/>
+      <c r="AW26" s="205"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="212"/>
-      <c r="T27" s="212"/>
-      <c r="U27" s="212"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="219"/>
-      <c r="AA27" s="219"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="219"/>
-      <c r="AD27" s="219"/>
-      <c r="AE27" s="219"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="219"/>
-      <c r="AJ27" s="219"/>
-      <c r="AK27" s="219"/>
-      <c r="AL27" s="219"/>
-      <c r="AM27" s="219"/>
-      <c r="AN27" s="212"/>
-      <c r="AO27" s="212"/>
-      <c r="AP27" s="212"/>
-      <c r="AQ27" s="212"/>
-      <c r="AR27" s="212"/>
-      <c r="AS27" s="212"/>
-      <c r="AT27" s="212"/>
-      <c r="AU27" s="212"/>
-      <c r="AV27" s="212"/>
-      <c r="AW27" s="212"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="213"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="213"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="205"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="211"/>
+      <c r="X27" s="211"/>
+      <c r="Y27" s="211"/>
+      <c r="Z27" s="211"/>
+      <c r="AA27" s="211"/>
+      <c r="AB27" s="211"/>
+      <c r="AC27" s="211"/>
+      <c r="AD27" s="211"/>
+      <c r="AE27" s="211"/>
+      <c r="AF27" s="211"/>
+      <c r="AG27" s="211"/>
+      <c r="AH27" s="211"/>
+      <c r="AI27" s="211"/>
+      <c r="AJ27" s="211"/>
+      <c r="AK27" s="211"/>
+      <c r="AL27" s="211"/>
+      <c r="AM27" s="211"/>
+      <c r="AN27" s="205"/>
+      <c r="AO27" s="205"/>
+      <c r="AP27" s="205"/>
+      <c r="AQ27" s="205"/>
+      <c r="AR27" s="205"/>
+      <c r="AS27" s="205"/>
+      <c r="AT27" s="205"/>
+      <c r="AU27" s="205"/>
+      <c r="AV27" s="205"/>
+      <c r="AW27" s="205"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="218"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-      <c r="U28" s="212"/>
-      <c r="V28" s="219"/>
-      <c r="W28" s="219"/>
-      <c r="X28" s="219"/>
-      <c r="Y28" s="219"/>
-      <c r="Z28" s="219"/>
-      <c r="AA28" s="219"/>
-      <c r="AB28" s="219"/>
-      <c r="AC28" s="219"/>
-      <c r="AD28" s="219"/>
-      <c r="AE28" s="219"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="219"/>
-      <c r="AJ28" s="219"/>
-      <c r="AK28" s="219"/>
-      <c r="AL28" s="219"/>
-      <c r="AM28" s="219"/>
-      <c r="AN28" s="212"/>
-      <c r="AO28" s="212"/>
-      <c r="AP28" s="212"/>
-      <c r="AQ28" s="212"/>
-      <c r="AR28" s="212"/>
-      <c r="AS28" s="212"/>
-      <c r="AT28" s="212"/>
-      <c r="AU28" s="212"/>
-      <c r="AV28" s="212"/>
-      <c r="AW28" s="212"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="213"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="205"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="211"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="211"/>
+      <c r="AI28" s="211"/>
+      <c r="AJ28" s="211"/>
+      <c r="AK28" s="211"/>
+      <c r="AL28" s="211"/>
+      <c r="AM28" s="211"/>
+      <c r="AN28" s="205"/>
+      <c r="AO28" s="205"/>
+      <c r="AP28" s="205"/>
+      <c r="AQ28" s="205"/>
+      <c r="AR28" s="205"/>
+      <c r="AS28" s="205"/>
+      <c r="AT28" s="205"/>
+      <c r="AU28" s="205"/>
+      <c r="AV28" s="205"/>
+      <c r="AW28" s="205"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="212"/>
-      <c r="T29" s="212"/>
-      <c r="U29" s="212"/>
-      <c r="V29" s="219"/>
-      <c r="W29" s="219"/>
-      <c r="X29" s="219"/>
-      <c r="Y29" s="219"/>
-      <c r="Z29" s="219"/>
-      <c r="AA29" s="219"/>
-      <c r="AB29" s="219"/>
-      <c r="AC29" s="219"/>
-      <c r="AD29" s="219"/>
-      <c r="AE29" s="219"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="219"/>
-      <c r="AJ29" s="219"/>
-      <c r="AK29" s="219"/>
-      <c r="AL29" s="219"/>
-      <c r="AM29" s="219"/>
-      <c r="AN29" s="212"/>
-      <c r="AO29" s="212"/>
-      <c r="AP29" s="212"/>
-      <c r="AQ29" s="212"/>
-      <c r="AR29" s="212"/>
-      <c r="AS29" s="212"/>
-      <c r="AT29" s="212"/>
-      <c r="AU29" s="212"/>
-      <c r="AV29" s="212"/>
-      <c r="AW29" s="212"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="208"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="213"/>
+      <c r="S29" s="205"/>
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="211"/>
+      <c r="W29" s="211"/>
+      <c r="X29" s="211"/>
+      <c r="Y29" s="211"/>
+      <c r="Z29" s="211"/>
+      <c r="AA29" s="211"/>
+      <c r="AB29" s="211"/>
+      <c r="AC29" s="211"/>
+      <c r="AD29" s="211"/>
+      <c r="AE29" s="211"/>
+      <c r="AF29" s="211"/>
+      <c r="AG29" s="211"/>
+      <c r="AH29" s="211"/>
+      <c r="AI29" s="211"/>
+      <c r="AJ29" s="211"/>
+      <c r="AK29" s="211"/>
+      <c r="AL29" s="211"/>
+      <c r="AM29" s="211"/>
+      <c r="AN29" s="205"/>
+      <c r="AO29" s="205"/>
+      <c r="AP29" s="205"/>
+      <c r="AQ29" s="205"/>
+      <c r="AR29" s="205"/>
+      <c r="AS29" s="205"/>
+      <c r="AT29" s="205"/>
+      <c r="AU29" s="205"/>
+      <c r="AV29" s="205"/>
+      <c r="AW29" s="205"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="215"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="215"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="218"/>
-      <c r="Q30" s="218"/>
-      <c r="R30" s="218"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="219"/>
-      <c r="Y30" s="219"/>
-      <c r="Z30" s="219"/>
-      <c r="AA30" s="219"/>
-      <c r="AB30" s="219"/>
-      <c r="AC30" s="219"/>
-      <c r="AD30" s="219"/>
-      <c r="AE30" s="219"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="219"/>
-      <c r="AJ30" s="219"/>
-      <c r="AK30" s="219"/>
-      <c r="AL30" s="219"/>
-      <c r="AM30" s="219"/>
-      <c r="AN30" s="212"/>
-      <c r="AO30" s="212"/>
-      <c r="AP30" s="212"/>
-      <c r="AQ30" s="212"/>
-      <c r="AR30" s="212"/>
-      <c r="AS30" s="212"/>
-      <c r="AT30" s="212"/>
-      <c r="AU30" s="212"/>
-      <c r="AV30" s="212"/>
-      <c r="AW30" s="212"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="213"/>
+      <c r="Q30" s="213"/>
+      <c r="R30" s="213"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="211"/>
+      <c r="W30" s="211"/>
+      <c r="X30" s="211"/>
+      <c r="Y30" s="211"/>
+      <c r="Z30" s="211"/>
+      <c r="AA30" s="211"/>
+      <c r="AB30" s="211"/>
+      <c r="AC30" s="211"/>
+      <c r="AD30" s="211"/>
+      <c r="AE30" s="211"/>
+      <c r="AF30" s="211"/>
+      <c r="AG30" s="211"/>
+      <c r="AH30" s="211"/>
+      <c r="AI30" s="211"/>
+      <c r="AJ30" s="211"/>
+      <c r="AK30" s="211"/>
+      <c r="AL30" s="211"/>
+      <c r="AM30" s="211"/>
+      <c r="AN30" s="205"/>
+      <c r="AO30" s="205"/>
+      <c r="AP30" s="205"/>
+      <c r="AQ30" s="205"/>
+      <c r="AR30" s="205"/>
+      <c r="AS30" s="205"/>
+      <c r="AT30" s="205"/>
+      <c r="AU30" s="205"/>
+      <c r="AV30" s="205"/>
+      <c r="AW30" s="205"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="218"/>
-      <c r="Q31" s="218"/>
-      <c r="R31" s="218"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="212"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-      <c r="X31" s="219"/>
-      <c r="Y31" s="219"/>
-      <c r="Z31" s="219"/>
-      <c r="AA31" s="219"/>
-      <c r="AB31" s="219"/>
-      <c r="AC31" s="219"/>
-      <c r="AD31" s="219"/>
-      <c r="AE31" s="219"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="219"/>
-      <c r="AJ31" s="219"/>
-      <c r="AK31" s="219"/>
-      <c r="AL31" s="219"/>
-      <c r="AM31" s="219"/>
-      <c r="AN31" s="212"/>
-      <c r="AO31" s="212"/>
-      <c r="AP31" s="212"/>
-      <c r="AQ31" s="212"/>
-      <c r="AR31" s="212"/>
-      <c r="AS31" s="212"/>
-      <c r="AT31" s="212"/>
-      <c r="AU31" s="212"/>
-      <c r="AV31" s="212"/>
-      <c r="AW31" s="212"/>
+      <c r="B31" s="206"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="205"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="211"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="211"/>
+      <c r="AA31" s="211"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="211"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="211"/>
+      <c r="AF31" s="211"/>
+      <c r="AG31" s="211"/>
+      <c r="AH31" s="211"/>
+      <c r="AI31" s="211"/>
+      <c r="AJ31" s="211"/>
+      <c r="AK31" s="211"/>
+      <c r="AL31" s="211"/>
+      <c r="AM31" s="211"/>
+      <c r="AN31" s="205"/>
+      <c r="AO31" s="205"/>
+      <c r="AP31" s="205"/>
+      <c r="AQ31" s="205"/>
+      <c r="AR31" s="205"/>
+      <c r="AS31" s="205"/>
+      <c r="AT31" s="205"/>
+      <c r="AU31" s="205"/>
+      <c r="AV31" s="205"/>
+      <c r="AW31" s="205"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="218"/>
-      <c r="Q32" s="218"/>
-      <c r="R32" s="218"/>
-      <c r="S32" s="212"/>
-      <c r="T32" s="212"/>
-      <c r="U32" s="212"/>
-      <c r="V32" s="219"/>
-      <c r="W32" s="219"/>
-      <c r="X32" s="219"/>
-      <c r="Y32" s="219"/>
-      <c r="Z32" s="219"/>
-      <c r="AA32" s="219"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="219"/>
-      <c r="AD32" s="219"/>
-      <c r="AE32" s="219"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="219"/>
-      <c r="AI32" s="219"/>
-      <c r="AJ32" s="219"/>
-      <c r="AK32" s="219"/>
-      <c r="AL32" s="219"/>
-      <c r="AM32" s="219"/>
-      <c r="AN32" s="212"/>
-      <c r="AO32" s="212"/>
-      <c r="AP32" s="212"/>
-      <c r="AQ32" s="212"/>
-      <c r="AR32" s="212"/>
-      <c r="AS32" s="212"/>
-      <c r="AT32" s="212"/>
-      <c r="AU32" s="212"/>
-      <c r="AV32" s="212"/>
-      <c r="AW32" s="212"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
+      <c r="M32" s="212"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="213"/>
+      <c r="P32" s="213"/>
+      <c r="Q32" s="213"/>
+      <c r="R32" s="213"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="211"/>
+      <c r="W32" s="211"/>
+      <c r="X32" s="211"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="211"/>
+      <c r="AA32" s="211"/>
+      <c r="AB32" s="211"/>
+      <c r="AC32" s="211"/>
+      <c r="AD32" s="211"/>
+      <c r="AE32" s="211"/>
+      <c r="AF32" s="211"/>
+      <c r="AG32" s="211"/>
+      <c r="AH32" s="211"/>
+      <c r="AI32" s="211"/>
+      <c r="AJ32" s="211"/>
+      <c r="AK32" s="211"/>
+      <c r="AL32" s="211"/>
+      <c r="AM32" s="211"/>
+      <c r="AN32" s="205"/>
+      <c r="AO32" s="205"/>
+      <c r="AP32" s="205"/>
+      <c r="AQ32" s="205"/>
+      <c r="AR32" s="205"/>
+      <c r="AS32" s="205"/>
+      <c r="AT32" s="205"/>
+      <c r="AU32" s="205"/>
+      <c r="AV32" s="205"/>
+      <c r="AW32" s="205"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="218"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="212"/>
-      <c r="T33" s="212"/>
-      <c r="U33" s="212"/>
-      <c r="V33" s="219"/>
-      <c r="W33" s="219"/>
-      <c r="X33" s="219"/>
-      <c r="Y33" s="219"/>
-      <c r="Z33" s="219"/>
-      <c r="AA33" s="219"/>
-      <c r="AB33" s="219"/>
-      <c r="AC33" s="219"/>
-      <c r="AD33" s="219"/>
-      <c r="AE33" s="219"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="219"/>
-      <c r="AJ33" s="219"/>
-      <c r="AK33" s="219"/>
-      <c r="AL33" s="219"/>
-      <c r="AM33" s="219"/>
-      <c r="AN33" s="212"/>
-      <c r="AO33" s="212"/>
-      <c r="AP33" s="212"/>
-      <c r="AQ33" s="212"/>
-      <c r="AR33" s="212"/>
-      <c r="AS33" s="212"/>
-      <c r="AT33" s="212"/>
-      <c r="AU33" s="212"/>
-      <c r="AV33" s="212"/>
-      <c r="AW33" s="212"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="208"/>
+      <c r="M33" s="212"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="213"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="213"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="211"/>
+      <c r="Y33" s="211"/>
+      <c r="Z33" s="211"/>
+      <c r="AA33" s="211"/>
+      <c r="AB33" s="211"/>
+      <c r="AC33" s="211"/>
+      <c r="AD33" s="211"/>
+      <c r="AE33" s="211"/>
+      <c r="AF33" s="211"/>
+      <c r="AG33" s="211"/>
+      <c r="AH33" s="211"/>
+      <c r="AI33" s="211"/>
+      <c r="AJ33" s="211"/>
+      <c r="AK33" s="211"/>
+      <c r="AL33" s="211"/>
+      <c r="AM33" s="211"/>
+      <c r="AN33" s="205"/>
+      <c r="AO33" s="205"/>
+      <c r="AP33" s="205"/>
+      <c r="AQ33" s="205"/>
+      <c r="AR33" s="205"/>
+      <c r="AS33" s="205"/>
+      <c r="AT33" s="205"/>
+      <c r="AU33" s="205"/>
+      <c r="AV33" s="205"/>
+      <c r="AW33" s="205"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="214"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="226"/>
-      <c r="O34" s="226"/>
-      <c r="P34" s="226"/>
-      <c r="Q34" s="226"/>
-      <c r="R34" s="226"/>
-      <c r="S34" s="212"/>
-      <c r="T34" s="212"/>
-      <c r="U34" s="212"/>
-      <c r="V34" s="219"/>
-      <c r="W34" s="219"/>
-      <c r="X34" s="219"/>
-      <c r="Y34" s="219"/>
-      <c r="Z34" s="219"/>
-      <c r="AA34" s="219"/>
-      <c r="AB34" s="219"/>
-      <c r="AC34" s="219"/>
-      <c r="AD34" s="219"/>
-      <c r="AE34" s="219"/>
-      <c r="AF34" s="219"/>
-      <c r="AG34" s="219"/>
-      <c r="AH34" s="219"/>
-      <c r="AI34" s="219"/>
-      <c r="AJ34" s="219"/>
-      <c r="AK34" s="219"/>
-      <c r="AL34" s="219"/>
-      <c r="AM34" s="219"/>
-      <c r="AN34" s="212"/>
-      <c r="AO34" s="212"/>
-      <c r="AP34" s="212"/>
-      <c r="AQ34" s="212"/>
-      <c r="AR34" s="212"/>
-      <c r="AS34" s="212"/>
-      <c r="AT34" s="212"/>
-      <c r="AU34" s="212"/>
-      <c r="AV34" s="212"/>
-      <c r="AW34" s="212"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="208"/>
+      <c r="M34" s="209"/>
+      <c r="N34" s="210"/>
+      <c r="O34" s="210"/>
+      <c r="P34" s="210"/>
+      <c r="Q34" s="210"/>
+      <c r="R34" s="210"/>
+      <c r="S34" s="205"/>
+      <c r="T34" s="205"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="211"/>
+      <c r="W34" s="211"/>
+      <c r="X34" s="211"/>
+      <c r="Y34" s="211"/>
+      <c r="Z34" s="211"/>
+      <c r="AA34" s="211"/>
+      <c r="AB34" s="211"/>
+      <c r="AC34" s="211"/>
+      <c r="AD34" s="211"/>
+      <c r="AE34" s="211"/>
+      <c r="AF34" s="211"/>
+      <c r="AG34" s="211"/>
+      <c r="AH34" s="211"/>
+      <c r="AI34" s="211"/>
+      <c r="AJ34" s="211"/>
+      <c r="AK34" s="211"/>
+      <c r="AL34" s="211"/>
+      <c r="AM34" s="211"/>
+      <c r="AN34" s="205"/>
+      <c r="AO34" s="205"/>
+      <c r="AP34" s="205"/>
+      <c r="AQ34" s="205"/>
+      <c r="AR34" s="205"/>
+      <c r="AS34" s="205"/>
+      <c r="AT34" s="205"/>
+      <c r="AU34" s="205"/>
+      <c r="AV34" s="205"/>
+      <c r="AW34" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7184,239 +7438,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7497,14 +7518,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="238">
+      <c r="AO1" s="241">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="239"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="239"/>
-      <c r="AS1" s="240"/>
+      <c r="AP1" s="242"/>
+      <c r="AQ1" s="242"/>
+      <c r="AR1" s="242"/>
+      <c r="AS1" s="243"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7513,17 +7534,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="231" t="str">
+      <c r="AZ1" s="234" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="232"/>
-      <c r="BB1" s="232"/>
-      <c r="BC1" s="232"/>
-      <c r="BD1" s="232"/>
-      <c r="BE1" s="232"/>
-      <c r="BF1" s="232"/>
-      <c r="BG1" s="233"/>
+      <c r="BA1" s="235"/>
+      <c r="BB1" s="235"/>
+      <c r="BC1" s="235"/>
+      <c r="BD1" s="235"/>
+      <c r="BE1" s="235"/>
+      <c r="BF1" s="235"/>
+      <c r="BG1" s="236"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7548,7 +7569,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -7576,11 +7597,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="238"/>
-      <c r="AP2" s="239"/>
-      <c r="AQ2" s="239"/>
-      <c r="AR2" s="239"/>
-      <c r="AS2" s="240"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="242"/>
+      <c r="AQ2" s="242"/>
+      <c r="AR2" s="242"/>
+      <c r="AS2" s="243"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7589,14 +7610,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="231"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="232"/>
-      <c r="BC2" s="232"/>
-      <c r="BD2" s="232"/>
-      <c r="BE2" s="232"/>
-      <c r="BF2" s="232"/>
-      <c r="BG2" s="233"/>
+      <c r="AZ2" s="234"/>
+      <c r="BA2" s="235"/>
+      <c r="BB2" s="235"/>
+      <c r="BC2" s="235"/>
+      <c r="BD2" s="235"/>
+      <c r="BE2" s="235"/>
+      <c r="BF2" s="235"/>
+      <c r="BG2" s="236"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8639,7 +8660,7 @@
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -8817,10 +8838,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="241" t="s">
+      <c r="B41" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="242"/>
+      <c r="C41" s="245"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -8903,10 +8924,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="229">
+      <c r="B42" s="230">
         <v>1</v>
       </c>
-      <c r="C42" s="230"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="110" t="s">
         <v>94</v>
       </c>
@@ -8938,16 +8959,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="111"/>
-      <c r="AE42" s="227" t="s">
+      <c r="AE42" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="228"/>
-      <c r="AG42" s="227"/>
-      <c r="AH42" s="228"/>
-      <c r="AI42" s="227"/>
-      <c r="AJ42" s="228"/>
-      <c r="AK42" s="227"/>
-      <c r="AL42" s="228"/>
+      <c r="AF42" s="233"/>
+      <c r="AG42" s="232"/>
+      <c r="AH42" s="233"/>
+      <c r="AI42" s="232"/>
+      <c r="AJ42" s="233"/>
+      <c r="AK42" s="232"/>
+      <c r="AL42" s="233"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -8981,10 +9002,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="234">
+      <c r="B43" s="237">
         <v>2</v>
       </c>
-      <c r="C43" s="235"/>
+      <c r="C43" s="238"/>
       <c r="D43" s="112" t="s">
         <v>94</v>
       </c>
@@ -8995,7 +9016,7 @@
       <c r="I43" s="113"/>
       <c r="J43" s="114"/>
       <c r="K43" s="112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L43" s="113"/>
       <c r="M43" s="113"/>
@@ -9016,18 +9037,18 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="114"/>
-      <c r="AE43" s="236" t="s">
+      <c r="AE43" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="237"/>
-      <c r="AG43" s="236"/>
-      <c r="AH43" s="237"/>
-      <c r="AI43" s="236"/>
-      <c r="AJ43" s="237"/>
-      <c r="AK43" s="236"/>
-      <c r="AL43" s="237"/>
+      <c r="AF43" s="240"/>
+      <c r="AG43" s="239"/>
+      <c r="AH43" s="240"/>
+      <c r="AI43" s="239"/>
+      <c r="AJ43" s="240"/>
+      <c r="AK43" s="239"/>
+      <c r="AL43" s="240"/>
       <c r="AM43" s="115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN43" s="116"/>
       <c r="AO43" s="116"/>
@@ -9059,10 +9080,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="229">
+      <c r="B44" s="230">
         <v>3</v>
       </c>
-      <c r="C44" s="230"/>
+      <c r="C44" s="231"/>
       <c r="D44" s="82" t="s">
         <v>103</v>
       </c>
@@ -9094,16 +9115,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="227" t="s">
+      <c r="AE44" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="228"/>
-      <c r="AG44" s="227"/>
-      <c r="AH44" s="228"/>
-      <c r="AI44" s="227"/>
-      <c r="AJ44" s="228"/>
-      <c r="AK44" s="227"/>
-      <c r="AL44" s="228"/>
+      <c r="AF44" s="233"/>
+      <c r="AG44" s="232"/>
+      <c r="AH44" s="233"/>
+      <c r="AI44" s="232"/>
+      <c r="AJ44" s="233"/>
+      <c r="AK44" s="232"/>
+      <c r="AL44" s="233"/>
       <c r="AM44" s="83" t="s">
         <v>104</v>
       </c>
@@ -9142,11 +9163,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AZ1:BG1"/>
@@ -9162,6 +9178,11 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9285,20 +9306,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="238">
+      <c r="CD1" s="241">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="245"/>
-      <c r="CF1" s="245"/>
-      <c r="CG1" s="245"/>
-      <c r="CH1" s="245"/>
-      <c r="CI1" s="245"/>
-      <c r="CJ1" s="245"/>
-      <c r="CK1" s="245"/>
-      <c r="CL1" s="245"/>
-      <c r="CM1" s="245"/>
-      <c r="CN1" s="246"/>
+      <c r="CE1" s="248"/>
+      <c r="CF1" s="248"/>
+      <c r="CG1" s="248"/>
+      <c r="CH1" s="248"/>
+      <c r="CI1" s="248"/>
+      <c r="CJ1" s="248"/>
+      <c r="CK1" s="248"/>
+      <c r="CL1" s="248"/>
+      <c r="CM1" s="248"/>
+      <c r="CN1" s="249"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9307,23 +9328,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="231" t="str">
+      <c r="CU1" s="234" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="243"/>
-      <c r="CW1" s="243"/>
-      <c r="CX1" s="243"/>
-      <c r="CY1" s="243"/>
-      <c r="CZ1" s="243"/>
-      <c r="DA1" s="243"/>
-      <c r="DB1" s="243"/>
-      <c r="DC1" s="243"/>
-      <c r="DD1" s="243"/>
-      <c r="DE1" s="243"/>
-      <c r="DF1" s="243"/>
-      <c r="DG1" s="243"/>
-      <c r="DH1" s="244"/>
+      <c r="CV1" s="246"/>
+      <c r="CW1" s="246"/>
+      <c r="CX1" s="246"/>
+      <c r="CY1" s="246"/>
+      <c r="CZ1" s="246"/>
+      <c r="DA1" s="246"/>
+      <c r="DB1" s="246"/>
+      <c r="DC1" s="246"/>
+      <c r="DD1" s="246"/>
+      <c r="DE1" s="246"/>
+      <c r="DF1" s="246"/>
+      <c r="DG1" s="246"/>
+      <c r="DH1" s="247"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9378,39 +9399,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="248" t="str">
+      <c r="AT2" s="251" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="AU2" s="245"/>
-      <c r="AV2" s="245"/>
-      <c r="AW2" s="245"/>
-      <c r="AX2" s="245"/>
-      <c r="AY2" s="245"/>
-      <c r="AZ2" s="245"/>
-      <c r="BA2" s="245"/>
-      <c r="BB2" s="245"/>
-      <c r="BC2" s="245"/>
-      <c r="BD2" s="245"/>
-      <c r="BE2" s="245"/>
-      <c r="BF2" s="245"/>
-      <c r="BG2" s="245"/>
-      <c r="BH2" s="245"/>
-      <c r="BI2" s="245"/>
-      <c r="BJ2" s="245"/>
-      <c r="BK2" s="245"/>
-      <c r="BL2" s="245"/>
-      <c r="BM2" s="245"/>
-      <c r="BN2" s="245"/>
-      <c r="BO2" s="245"/>
-      <c r="BP2" s="245"/>
-      <c r="BQ2" s="245"/>
-      <c r="BR2" s="245"/>
-      <c r="BS2" s="245"/>
-      <c r="BT2" s="245"/>
-      <c r="BU2" s="245"/>
-      <c r="BV2" s="245"/>
-      <c r="BW2" s="246"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
+      <c r="BB2" s="248"/>
+      <c r="BC2" s="248"/>
+      <c r="BD2" s="248"/>
+      <c r="BE2" s="248"/>
+      <c r="BF2" s="248"/>
+      <c r="BG2" s="248"/>
+      <c r="BH2" s="248"/>
+      <c r="BI2" s="248"/>
+      <c r="BJ2" s="248"/>
+      <c r="BK2" s="248"/>
+      <c r="BL2" s="248"/>
+      <c r="BM2" s="248"/>
+      <c r="BN2" s="248"/>
+      <c r="BO2" s="248"/>
+      <c r="BP2" s="248"/>
+      <c r="BQ2" s="248"/>
+      <c r="BR2" s="248"/>
+      <c r="BS2" s="248"/>
+      <c r="BT2" s="248"/>
+      <c r="BU2" s="248"/>
+      <c r="BV2" s="248"/>
+      <c r="BW2" s="249"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -9419,17 +9440,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="247"/>
-      <c r="CE2" s="243"/>
-      <c r="CF2" s="243"/>
-      <c r="CG2" s="243"/>
-      <c r="CH2" s="243"/>
-      <c r="CI2" s="243"/>
-      <c r="CJ2" s="243"/>
-      <c r="CK2" s="243"/>
-      <c r="CL2" s="243"/>
-      <c r="CM2" s="243"/>
-      <c r="CN2" s="244"/>
+      <c r="CD2" s="250"/>
+      <c r="CE2" s="246"/>
+      <c r="CF2" s="246"/>
+      <c r="CG2" s="246"/>
+      <c r="CH2" s="246"/>
+      <c r="CI2" s="246"/>
+      <c r="CJ2" s="246"/>
+      <c r="CK2" s="246"/>
+      <c r="CL2" s="246"/>
+      <c r="CM2" s="246"/>
+      <c r="CN2" s="247"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9438,20 +9459,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="231"/>
-      <c r="CV2" s="243"/>
-      <c r="CW2" s="243"/>
-      <c r="CX2" s="243"/>
-      <c r="CY2" s="243"/>
-      <c r="CZ2" s="243"/>
-      <c r="DA2" s="243"/>
-      <c r="DB2" s="243"/>
-      <c r="DC2" s="243"/>
-      <c r="DD2" s="243"/>
-      <c r="DE2" s="243"/>
-      <c r="DF2" s="243"/>
-      <c r="DG2" s="243"/>
-      <c r="DH2" s="244"/>
+      <c r="CU2" s="234"/>
+      <c r="CV2" s="246"/>
+      <c r="CW2" s="246"/>
+      <c r="CX2" s="246"/>
+      <c r="CY2" s="246"/>
+      <c r="CZ2" s="246"/>
+      <c r="DA2" s="246"/>
+      <c r="DB2" s="246"/>
+      <c r="DC2" s="246"/>
+      <c r="DD2" s="246"/>
+      <c r="DE2" s="246"/>
+      <c r="DF2" s="246"/>
+      <c r="DG2" s="246"/>
+      <c r="DH2" s="247"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -9655,37 +9676,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="204" t="s">
+      <c r="G6" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="249" t="s">
+      <c r="I6" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="249" t="s">
+      <c r="J6" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="204" t="s">
+      <c r="K6" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="204" t="s">
+      <c r="L6" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="204" t="s">
+      <c r="M6" s="222" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -9693,24 +9714,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="249" t="s">
+      <c r="Q6" s="254" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -9720,7 +9741,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="249"/>
+      <c r="Q7" s="254"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -9735,7 +9756,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -9880,37 +9901,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="204" t="s">
+      <c r="C13" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="204" t="s">
+      <c r="D13" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="204" t="s">
+      <c r="E13" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="204" t="s">
+      <c r="F13" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="204" t="s">
+      <c r="G13" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="204" t="s">
+      <c r="H13" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="250" t="s">
+      <c r="I13" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="249" t="s">
+      <c r="J13" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="204" t="s">
+      <c r="K13" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="204" t="s">
+      <c r="L13" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="204" t="s">
+      <c r="M13" s="222" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="68" t="s">
@@ -9918,24 +9939,24 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="250" t="s">
+      <c r="Q13" s="252" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="222"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
       <c r="N14" s="42" t="s">
         <v>64</v>
       </c>
@@ -9945,7 +9966,7 @@
       <c r="P14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="251"/>
+      <c r="Q14" s="253"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -9961,10 +9982,10 @@
         <v>115</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>34</v>
@@ -9973,7 +9994,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -9988,7 +10009,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>33</v>
@@ -10005,13 +10026,13 @@
         <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>34</v>
@@ -10035,7 +10056,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>33</v>
@@ -10060,37 +10081,37 @@
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="204" t="s">
+      <c r="D20" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="204" t="s">
+      <c r="E20" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="204" t="s">
+      <c r="F20" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="204" t="s">
+      <c r="G20" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="204" t="s">
+      <c r="H20" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="249" t="s">
+      <c r="I20" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="249" t="s">
+      <c r="J20" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="204" t="s">
+      <c r="K20" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="204" t="s">
+      <c r="L20" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="204" t="s">
+      <c r="M20" s="222" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="68" t="s">
@@ -10098,24 +10119,24 @@
       </c>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
-      <c r="Q20" s="249" t="s">
+      <c r="Q20" s="254" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="249"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="222"/>
       <c r="N21" s="42" t="s">
         <v>64</v>
       </c>
@@ -10125,7 +10146,7 @@
       <c r="P21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="249"/>
+      <c r="Q21" s="254"/>
     </row>
     <row r="22" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
@@ -10338,7 +10359,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -10357,7 +10378,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>42</v>
@@ -10372,7 +10393,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>34</v>
@@ -10420,6 +10441,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I20:I21"/>
@@ -10436,26 +10477,6 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10532,14 +10553,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="238">
+      <c r="AI1" s="241">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="246"/>
+      <c r="AJ1" s="248"/>
+      <c r="AK1" s="248"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="249"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -10548,16 +10569,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="231" t="str">
+      <c r="AT1" s="234" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="243"/>
-      <c r="AV1" s="243"/>
-      <c r="AW1" s="243"/>
-      <c r="AX1" s="243"/>
-      <c r="AY1" s="243"/>
-      <c r="AZ1" s="244"/>
+      <c r="AU1" s="246"/>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="246"/>
+      <c r="AX1" s="246"/>
+      <c r="AY1" s="246"/>
+      <c r="AZ1" s="247"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10585,32 +10606,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="248" t="str">
+      <c r="S2" s="251" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="246"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="248"/>
+      <c r="AD2" s="249"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="247"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="244"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="247"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -10619,13 +10640,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="231"/>
-      <c r="AU2" s="243"/>
-      <c r="AV2" s="243"/>
-      <c r="AW2" s="243"/>
-      <c r="AX2" s="243"/>
-      <c r="AY2" s="243"/>
-      <c r="AZ2" s="244"/>
+      <c r="AT2" s="234"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="247"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -10964,10 +10985,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>164</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>165</v>
       </c>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
@@ -11047,7 +11068,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
@@ -11063,7 +11084,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="93"/>
       <c r="N14" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL14" s="93"/>
       <c r="AM14" s="93"/>
@@ -11079,7 +11100,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL15" s="93"/>
       <c r="AM15" s="93"/>
@@ -11095,7 +11116,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="93"/>
       <c r="N16" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL16" s="93"/>
       <c r="AM16" s="93"/>
@@ -11111,7 +11132,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="93"/>
       <c r="N17" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL17" s="93"/>
       <c r="AM17" s="93"/>
@@ -11127,7 +11148,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="93"/>
       <c r="N18" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
@@ -11143,7 +11164,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="93"/>
       <c r="N19" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL19" s="93"/>
       <c r="AM19" s="93"/>
@@ -11159,7 +11180,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="93"/>
       <c r="N20" s="93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL20" s="93"/>
       <c r="AM20" s="93"/>
@@ -11175,7 +11196,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="93"/>
       <c r="N21" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL21" s="93"/>
       <c r="AM21" s="93"/>
@@ -11191,7 +11212,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="93"/>
       <c r="N22" s="93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
@@ -11207,7 +11228,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="93"/>
       <c r="N23" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
@@ -11259,7 +11280,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" s="93"/>
       <c r="O25" s="93"/>
@@ -11298,7 +11319,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
@@ -11376,7 +11397,7 @@
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
       <c r="L28" s="108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="108"/>
@@ -11469,7 +11490,7 @@
       <c r="K30" s="72"/>
       <c r="L30" s="23"/>
       <c r="N30" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93"/>
@@ -11557,7 +11578,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="23"/>
       <c r="N32" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -11601,7 +11622,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="23"/>
       <c r="N33" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
@@ -11726,7 +11747,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O36" s="93"/>
       <c r="P36" s="93"/>
@@ -11797,7 +11818,7 @@
       <c r="L38" s="23"/>
       <c r="N38" s="93"/>
       <c r="O38" s="93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P38" s="93"/>
       <c r="Q38" s="93"/>
@@ -11840,7 +11861,7 @@
       <c r="G39" s="71"/>
       <c r="L39" s="71"/>
       <c r="N39" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O39" s="93"/>
       <c r="P39" s="93"/>
@@ -11861,7 +11882,7 @@
       <c r="L40" s="71"/>
       <c r="N40" s="93"/>
       <c r="O40" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P40" s="93"/>
       <c r="Q40" s="93"/>
@@ -11874,7 +11895,7 @@
         <v>98</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AV40" s="72"/>
     </row>
@@ -11886,7 +11907,7 @@
       <c r="L41" s="71"/>
       <c r="N41" s="93"/>
       <c r="O41" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P41" s="93"/>
       <c r="Q41" s="93"/>
@@ -11899,7 +11920,7 @@
         <v>98</v>
       </c>
       <c r="Y41" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AV41" s="72"/>
     </row>
@@ -11911,7 +11932,7 @@
       <c r="L42" s="71"/>
       <c r="N42" s="93"/>
       <c r="O42" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P42" s="93"/>
       <c r="Q42" s="93"/>
@@ -11924,7 +11945,7 @@
         <v>98</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV42" s="72"/>
     </row>
@@ -11936,7 +11957,7 @@
       <c r="L43" s="71"/>
       <c r="N43" s="93"/>
       <c r="O43" s="93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P43" s="93"/>
       <c r="Q43" s="93"/>
@@ -11949,7 +11970,7 @@
         <v>98</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AV43" s="72"/>
     </row>
@@ -11961,7 +11982,7 @@
       <c r="L44" s="71"/>
       <c r="N44" s="93"/>
       <c r="O44" s="93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P44" s="93"/>
       <c r="Q44" s="93"/>
@@ -11974,7 +11995,7 @@
         <v>98</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV44" s="72"/>
     </row>
@@ -12068,7 +12089,7 @@
       <c r="G47" s="71"/>
       <c r="K47" s="72"/>
       <c r="N47" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O47" s="93"/>
       <c r="P47" s="93"/>
@@ -12082,7 +12103,7 @@
         <v>98</v>
       </c>
       <c r="Y47" s="105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z47" s="93"/>
       <c r="AA47" s="93"/>
@@ -12096,7 +12117,7 @@
       <c r="G48" s="71"/>
       <c r="K48" s="72"/>
       <c r="N48" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
@@ -12125,7 +12146,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="104"/>
       <c r="N49" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O49" s="93"/>
       <c r="P49" s="93"/>
@@ -12140,7 +12161,7 @@
         <v>98</v>
       </c>
       <c r="Y49" s="105" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="AA49" s="93"/>
       <c r="AB49" s="93"/>
@@ -12158,7 +12179,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O50" s="93"/>
       <c r="P50" s="93"/>
@@ -12172,13 +12193,13 @@
         <v>98</v>
       </c>
       <c r="Y50" s="93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z50" s="93"/>
       <c r="AA50" s="93"/>
       <c r="AB50" s="93"/>
       <c r="AI50" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV50" s="72"/>
     </row>
@@ -12189,7 +12210,7 @@
       <c r="G51" s="71"/>
       <c r="K51" s="72"/>
       <c r="N51" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O51" s="93"/>
       <c r="P51" s="93"/>
@@ -12203,13 +12224,13 @@
         <v>98</v>
       </c>
       <c r="Y51" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z51" s="93"/>
       <c r="AA51" s="93"/>
       <c r="AB51" s="93"/>
       <c r="AI51" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV51" s="72"/>
     </row>
@@ -12268,7 +12289,7 @@
       <c r="G54" s="71"/>
       <c r="L54" s="71"/>
       <c r="N54" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM54" s="93"/>
       <c r="AN54" s="93"/>
@@ -12298,7 +12319,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM56" s="93"/>
       <c r="AN56" s="93"/>
@@ -12313,7 +12334,7 @@
       <c r="G57" s="71"/>
       <c r="L57" s="71"/>
       <c r="N57" s="93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM57" s="93"/>
       <c r="AN57" s="93"/>
@@ -12328,7 +12349,7 @@
       <c r="G58" s="71"/>
       <c r="L58" s="71"/>
       <c r="N58" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM58" s="93"/>
       <c r="AN58" s="93"/>
@@ -12343,7 +12364,7 @@
       <c r="G59" s="71"/>
       <c r="L59" s="71"/>
       <c r="N59" s="93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AM59" s="93"/>
       <c r="AN59" s="93"/>
@@ -12358,7 +12379,7 @@
       <c r="G60" s="71"/>
       <c r="L60" s="71"/>
       <c r="N60" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM60" s="93"/>
       <c r="AN60" s="93"/>
@@ -12373,7 +12394,7 @@
       <c r="G61" s="71"/>
       <c r="L61" s="71"/>
       <c r="N61" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
@@ -12462,7 +12483,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="23"/>
       <c r="N64" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD64" s="23"/>
       <c r="AE64" s="23"/>
@@ -12497,7 +12518,7 @@
       <c r="K65" s="72"/>
       <c r="L65" s="23"/>
       <c r="N65" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD65" s="23"/>
       <c r="AE65" s="23"/>
@@ -12585,8 +12606,8 @@
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="282" t="s">
-        <v>259</v>
+      <c r="L67" s="199" t="s">
+        <v>258</v>
       </c>
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
@@ -12633,8 +12654,8 @@
         <v>77</v>
       </c>
       <c r="K68" s="72"/>
-      <c r="L68" s="283" t="s">
-        <v>260</v>
+      <c r="L68" s="200" t="s">
+        <v>259</v>
       </c>
       <c r="AV68" s="72"/>
     </row>
@@ -12644,8 +12665,8 @@
       <c r="F69" s="72"/>
       <c r="G69" s="71"/>
       <c r="K69" s="72"/>
-      <c r="L69" s="284" t="s">
-        <v>261</v>
+      <c r="L69" s="201" t="s">
+        <v>260</v>
       </c>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
@@ -12701,8 +12722,8 @@
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="22"/>
-      <c r="L70" s="282" t="s">
-        <v>262</v>
+      <c r="L70" s="199" t="s">
+        <v>261</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
@@ -12749,8 +12770,8 @@
         <v>77</v>
       </c>
       <c r="K71" s="72"/>
-      <c r="L71" s="283" t="s">
-        <v>263</v>
+      <c r="L71" s="200" t="s">
+        <v>262</v>
       </c>
       <c r="AV71" s="72"/>
     </row>
@@ -12760,8 +12781,8 @@
       <c r="F72" s="72"/>
       <c r="G72" s="71"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="284" t="s">
-        <v>264</v>
+      <c r="L72" s="201" t="s">
+        <v>263</v>
       </c>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
@@ -13037,14 +13058,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="238">
+      <c r="AI1" s="241">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="246"/>
+      <c r="AJ1" s="248"/>
+      <c r="AK1" s="248"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="249"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -13053,16 +13074,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="231" t="str">
+      <c r="AT1" s="234" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="243"/>
-      <c r="AV1" s="243"/>
-      <c r="AW1" s="243"/>
-      <c r="AX1" s="243"/>
-      <c r="AY1" s="243"/>
-      <c r="AZ1" s="244"/>
+      <c r="AU1" s="246"/>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="246"/>
+      <c r="AX1" s="246"/>
+      <c r="AY1" s="246"/>
+      <c r="AZ1" s="247"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -13090,32 +13111,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="248" t="str">
+      <c r="S2" s="251" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="246"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="248"/>
+      <c r="AD2" s="249"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="247"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="244"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="247"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -13124,13 +13145,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="231"/>
-      <c r="AU2" s="243"/>
-      <c r="AV2" s="243"/>
-      <c r="AW2" s="243"/>
-      <c r="AX2" s="243"/>
-      <c r="AY2" s="243"/>
-      <c r="AZ2" s="244"/>
+      <c r="AT2" s="234"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="247"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -13860,14 +13881,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="238">
+      <c r="AI1" s="241">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="246"/>
+      <c r="AJ1" s="248"/>
+      <c r="AK1" s="248"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="249"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -13876,16 +13897,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="231" t="str">
+      <c r="AT1" s="234" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="243"/>
-      <c r="AV1" s="243"/>
-      <c r="AW1" s="243"/>
-      <c r="AX1" s="243"/>
-      <c r="AY1" s="243"/>
-      <c r="AZ1" s="244"/>
+      <c r="AU1" s="246"/>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="246"/>
+      <c r="AX1" s="246"/>
+      <c r="AY1" s="246"/>
+      <c r="AZ1" s="247"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -13913,32 +13934,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="248" t="str">
+      <c r="S2" s="251" t="str">
         <f>'１．機能概要'!W2</f>
         <v>品名別集計</v>
       </c>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="246"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="248"/>
+      <c r="AD2" s="249"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="247"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="244"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="247"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -13947,13 +13968,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="231"/>
-      <c r="AU2" s="243"/>
-      <c r="AV2" s="243"/>
-      <c r="AW2" s="243"/>
-      <c r="AX2" s="243"/>
-      <c r="AY2" s="243"/>
-      <c r="AZ2" s="244"/>
+      <c r="AT2" s="234"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="247"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -14297,7 +14318,7 @@
     <row r="1" spans="2:82" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="119"/>
       <c r="D2" s="119"/>
@@ -14376,66 +14397,66 @@
       </c>
       <c r="BX2" s="122"/>
       <c r="BY2" s="123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BZ2" s="122"/>
       <c r="CA2" s="124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CB2" s="125"/>
     </row>
     <row r="3" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="252" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="254"/>
+      <c r="B3" s="264" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
+      <c r="AC3" s="265"/>
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="265"/>
+      <c r="AF3" s="265"/>
+      <c r="AG3" s="265"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="265"/>
+      <c r="AJ3" s="265"/>
+      <c r="AK3" s="265"/>
+      <c r="AL3" s="265"/>
+      <c r="AM3" s="265"/>
+      <c r="AN3" s="265"/>
+      <c r="AO3" s="265"/>
+      <c r="AP3" s="265"/>
+      <c r="AQ3" s="265"/>
+      <c r="AR3" s="265"/>
+      <c r="AS3" s="265"/>
+      <c r="AT3" s="265"/>
+      <c r="AU3" s="265"/>
+      <c r="AV3" s="265"/>
+      <c r="AW3" s="265"/>
+      <c r="AX3" s="266"/>
       <c r="AY3" s="126"/>
       <c r="AZ3" s="126"/>
       <c r="BA3" s="127"/>
@@ -14456,10 +14477,10 @@
       <c r="BP3" s="128"/>
       <c r="BQ3" s="128"/>
       <c r="BR3" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS3" s="130" t="s">
         <v>218</v>
-      </c>
-      <c r="BS3" s="130" t="s">
-        <v>219</v>
       </c>
       <c r="BT3" s="131"/>
       <c r="BU3" s="131"/>
@@ -14472,55 +14493,55 @@
       <c r="CB3" s="132"/>
     </row>
     <row r="4" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="255"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="256"/>
-      <c r="S4" s="256"/>
-      <c r="T4" s="256"/>
-      <c r="U4" s="256"/>
-      <c r="V4" s="256"/>
-      <c r="W4" s="256"/>
-      <c r="X4" s="256"/>
-      <c r="Y4" s="256"/>
-      <c r="Z4" s="256"/>
-      <c r="AA4" s="256"/>
-      <c r="AB4" s="256"/>
-      <c r="AC4" s="256"/>
-      <c r="AD4" s="256"/>
-      <c r="AE4" s="256"/>
-      <c r="AF4" s="256"/>
-      <c r="AG4" s="256"/>
-      <c r="AH4" s="256"/>
-      <c r="AI4" s="256"/>
-      <c r="AJ4" s="256"/>
-      <c r="AK4" s="256"/>
-      <c r="AL4" s="256"/>
-      <c r="AM4" s="256"/>
-      <c r="AN4" s="256"/>
-      <c r="AO4" s="256"/>
-      <c r="AP4" s="256"/>
-      <c r="AQ4" s="256"/>
-      <c r="AR4" s="256"/>
-      <c r="AS4" s="256"/>
-      <c r="AT4" s="256"/>
-      <c r="AU4" s="256"/>
-      <c r="AV4" s="256"/>
-      <c r="AW4" s="256"/>
-      <c r="AX4" s="257"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="268"/>
+      <c r="M4" s="268"/>
+      <c r="N4" s="268"/>
+      <c r="O4" s="268"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="268"/>
+      <c r="U4" s="268"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="268"/>
+      <c r="Y4" s="268"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="268"/>
+      <c r="AC4" s="268"/>
+      <c r="AD4" s="268"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="268"/>
+      <c r="AH4" s="268"/>
+      <c r="AI4" s="268"/>
+      <c r="AJ4" s="268"/>
+      <c r="AK4" s="268"/>
+      <c r="AL4" s="268"/>
+      <c r="AM4" s="268"/>
+      <c r="AN4" s="268"/>
+      <c r="AO4" s="268"/>
+      <c r="AP4" s="268"/>
+      <c r="AQ4" s="268"/>
+      <c r="AR4" s="268"/>
+      <c r="AS4" s="268"/>
+      <c r="AT4" s="268"/>
+      <c r="AU4" s="268"/>
+      <c r="AV4" s="268"/>
+      <c r="AW4" s="268"/>
+      <c r="AX4" s="269"/>
       <c r="AY4" s="133"/>
       <c r="AZ4" s="133"/>
       <c r="BA4" s="134"/>
@@ -14541,10 +14562,10 @@
       <c r="BP4" s="135"/>
       <c r="BQ4" s="135"/>
       <c r="BR4" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="BS4" s="130" t="s">
         <v>220</v>
-      </c>
-      <c r="BS4" s="130" t="s">
-        <v>221</v>
       </c>
       <c r="BT4" s="131"/>
       <c r="BU4" s="131"/>
@@ -14965,7 +14986,7 @@
     <row r="10" spans="2:82" s="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="140"/>
       <c r="C10" s="159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="159"/>
       <c r="E10" s="159"/>
@@ -14980,16 +15001,16 @@
       <c r="N10" s="160"/>
       <c r="O10" s="160"/>
       <c r="P10" s="160"/>
-      <c r="Q10" s="258" t="s">
-        <v>223</v>
-      </c>
-      <c r="R10" s="259"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="260"/>
+      <c r="Q10" s="270" t="s">
+        <v>222</v>
+      </c>
+      <c r="R10" s="271"/>
+      <c r="S10" s="271"/>
+      <c r="T10" s="271"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="272"/>
       <c r="Z10" s="159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA10" s="185"/>
       <c r="AB10" s="185"/>
@@ -15003,7 +15024,7 @@
       <c r="AJ10" s="185"/>
       <c r="AK10" s="185"/>
       <c r="AO10" s="161" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP10" s="186"/>
       <c r="AQ10" s="187"/>
@@ -15127,7 +15148,7 @@
     </row>
     <row r="12" spans="2:82" s="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="163"/>
       <c r="D12" s="163"/>
@@ -15212,7 +15233,7 @@
     </row>
     <row r="13" spans="2:82" s="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="167"/>
       <c r="D13" s="163"/>
@@ -15235,7 +15256,7 @@
       <c r="U13" s="163"/>
       <c r="V13" s="163"/>
       <c r="AQ13" s="167" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AR13" s="190"/>
       <c r="AS13" s="191"/>
@@ -15246,11 +15267,11 @@
       <c r="AX13" s="191"/>
       <c r="AY13" s="190"/>
       <c r="AZ13" s="190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BA13" s="190"/>
       <c r="BB13" s="163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BC13" s="190"/>
       <c r="BD13" s="190"/>
@@ -15293,7 +15314,7 @@
       <c r="U14" s="163"/>
       <c r="V14" s="163"/>
       <c r="AQ14" s="169" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR14" s="163"/>
       <c r="AS14" s="191"/>
@@ -15327,76 +15348,76 @@
     <row r="15" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="168"/>
       <c r="C15" s="163"/>
-      <c r="D15" s="261" t="s">
+      <c r="D15" s="273" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="267" t="s">
+      <c r="E15" s="274"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="279" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="280"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="281"/>
+      <c r="O15" s="279" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="268"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="268"/>
-      <c r="L15" s="268"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="269"/>
-      <c r="O15" s="267" t="s">
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="280"/>
+      <c r="U15" s="280"/>
+      <c r="V15" s="280"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="280"/>
+      <c r="AA15" s="280"/>
+      <c r="AB15" s="280"/>
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="280"/>
+      <c r="AE15" s="280"/>
+      <c r="AF15" s="281"/>
+      <c r="AG15" s="255" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="268"/>
-      <c r="S15" s="268"/>
-      <c r="T15" s="268"/>
-      <c r="U15" s="268"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="268"/>
-      <c r="Y15" s="268"/>
-      <c r="Z15" s="268"/>
-      <c r="AA15" s="268"/>
-      <c r="AB15" s="268"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="269"/>
-      <c r="AG15" s="270" t="s">
+      <c r="AH15" s="280"/>
+      <c r="AI15" s="280"/>
+      <c r="AJ15" s="280"/>
+      <c r="AK15" s="280"/>
+      <c r="AL15" s="280"/>
+      <c r="AM15" s="280"/>
+      <c r="AN15" s="280"/>
+      <c r="AO15" s="280"/>
+      <c r="AP15" s="280"/>
+      <c r="AQ15" s="280"/>
+      <c r="AR15" s="280"/>
+      <c r="AS15" s="280"/>
+      <c r="AT15" s="280"/>
+      <c r="AU15" s="280"/>
+      <c r="AV15" s="280"/>
+      <c r="AW15" s="280"/>
+      <c r="AX15" s="281"/>
+      <c r="AY15" s="255" t="s">
         <v>253</v>
       </c>
-      <c r="AH15" s="268"/>
-      <c r="AI15" s="268"/>
-      <c r="AJ15" s="268"/>
-      <c r="AK15" s="268"/>
-      <c r="AL15" s="268"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="268"/>
-      <c r="AO15" s="268"/>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="268"/>
-      <c r="AR15" s="268"/>
-      <c r="AS15" s="268"/>
-      <c r="AT15" s="268"/>
-      <c r="AU15" s="268"/>
-      <c r="AV15" s="268"/>
-      <c r="AW15" s="268"/>
-      <c r="AX15" s="269"/>
-      <c r="AY15" s="270" t="s">
-        <v>254</v>
-      </c>
-      <c r="AZ15" s="274"/>
-      <c r="BA15" s="274"/>
-      <c r="BB15" s="274"/>
-      <c r="BC15" s="274"/>
-      <c r="BD15" s="274"/>
-      <c r="BE15" s="274"/>
-      <c r="BF15" s="274"/>
-      <c r="BG15" s="274"/>
-      <c r="BH15" s="274"/>
-      <c r="BI15" s="274"/>
-      <c r="BJ15" s="274"/>
-      <c r="BK15" s="275"/>
+      <c r="AZ15" s="256"/>
+      <c r="BA15" s="256"/>
+      <c r="BB15" s="256"/>
+      <c r="BC15" s="256"/>
+      <c r="BD15" s="256"/>
+      <c r="BE15" s="256"/>
+      <c r="BF15" s="256"/>
+      <c r="BG15" s="256"/>
+      <c r="BH15" s="256"/>
+      <c r="BI15" s="256"/>
+      <c r="BJ15" s="256"/>
+      <c r="BK15" s="257"/>
       <c r="BL15" s="163"/>
       <c r="BM15" s="163"/>
       <c r="BN15" s="192"/>
@@ -15420,70 +15441,70 @@
     <row r="16" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="168"/>
       <c r="C16" s="163"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="279" t="s">
+      <c r="D16" s="276"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="261" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="262"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="262"/>
+      <c r="L16" s="262"/>
+      <c r="M16" s="262"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="261" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="280"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
-      <c r="K16" s="280"/>
-      <c r="L16" s="280"/>
-      <c r="M16" s="280"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="P16" s="280"/>
-      <c r="Q16" s="280"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="280"/>
-      <c r="T16" s="280"/>
-      <c r="U16" s="280"/>
-      <c r="V16" s="280"/>
-      <c r="W16" s="280"/>
-      <c r="X16" s="280"/>
-      <c r="Y16" s="280"/>
-      <c r="Z16" s="280"/>
-      <c r="AA16" s="280"/>
-      <c r="AB16" s="280"/>
-      <c r="AC16" s="280"/>
-      <c r="AD16" s="280"/>
-      <c r="AE16" s="280"/>
-      <c r="AF16" s="281"/>
-      <c r="AG16" s="271"/>
-      <c r="AH16" s="272"/>
-      <c r="AI16" s="272"/>
-      <c r="AJ16" s="272"/>
-      <c r="AK16" s="272"/>
-      <c r="AL16" s="272"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="272"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="272"/>
-      <c r="AQ16" s="272"/>
-      <c r="AR16" s="272"/>
-      <c r="AS16" s="272"/>
-      <c r="AT16" s="272"/>
-      <c r="AU16" s="272"/>
-      <c r="AV16" s="272"/>
-      <c r="AW16" s="272"/>
-      <c r="AX16" s="273"/>
-      <c r="AY16" s="276"/>
-      <c r="AZ16" s="277"/>
-      <c r="BA16" s="277"/>
-      <c r="BB16" s="277"/>
-      <c r="BC16" s="277"/>
-      <c r="BD16" s="277"/>
-      <c r="BE16" s="277"/>
-      <c r="BF16" s="277"/>
-      <c r="BG16" s="277"/>
-      <c r="BH16" s="277"/>
-      <c r="BI16" s="277"/>
-      <c r="BJ16" s="277"/>
-      <c r="BK16" s="278"/>
+      <c r="P16" s="262"/>
+      <c r="Q16" s="262"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="262"/>
+      <c r="T16" s="262"/>
+      <c r="U16" s="262"/>
+      <c r="V16" s="262"/>
+      <c r="W16" s="262"/>
+      <c r="X16" s="262"/>
+      <c r="Y16" s="262"/>
+      <c r="Z16" s="262"/>
+      <c r="AA16" s="262"/>
+      <c r="AB16" s="262"/>
+      <c r="AC16" s="262"/>
+      <c r="AD16" s="262"/>
+      <c r="AE16" s="262"/>
+      <c r="AF16" s="263"/>
+      <c r="AG16" s="282"/>
+      <c r="AH16" s="283"/>
+      <c r="AI16" s="283"/>
+      <c r="AJ16" s="283"/>
+      <c r="AK16" s="283"/>
+      <c r="AL16" s="283"/>
+      <c r="AM16" s="283"/>
+      <c r="AN16" s="283"/>
+      <c r="AO16" s="283"/>
+      <c r="AP16" s="283"/>
+      <c r="AQ16" s="283"/>
+      <c r="AR16" s="283"/>
+      <c r="AS16" s="283"/>
+      <c r="AT16" s="283"/>
+      <c r="AU16" s="283"/>
+      <c r="AV16" s="283"/>
+      <c r="AW16" s="283"/>
+      <c r="AX16" s="284"/>
+      <c r="AY16" s="258"/>
+      <c r="AZ16" s="259"/>
+      <c r="BA16" s="259"/>
+      <c r="BB16" s="259"/>
+      <c r="BC16" s="259"/>
+      <c r="BD16" s="259"/>
+      <c r="BE16" s="259"/>
+      <c r="BF16" s="259"/>
+      <c r="BG16" s="259"/>
+      <c r="BH16" s="259"/>
+      <c r="BI16" s="259"/>
+      <c r="BJ16" s="259"/>
+      <c r="BK16" s="260"/>
       <c r="BL16" s="163"/>
       <c r="BM16" s="163"/>
       <c r="BN16" s="193"/>
@@ -15510,7 +15531,7 @@
       <c r="D17" s="170"/>
       <c r="E17" s="171"/>
       <c r="F17" s="172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="170"/>
       <c r="H17" s="171"/>
@@ -15570,7 +15591,7 @@
       <c r="BJ17" s="171"/>
       <c r="BK17" s="197"/>
       <c r="BL17" s="174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BM17" s="175"/>
       <c r="BN17" s="194"/>
@@ -15597,7 +15618,7 @@
       <c r="D18" s="170"/>
       <c r="E18" s="171"/>
       <c r="F18" s="172" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="170"/>
       <c r="H18" s="171"/>
@@ -15682,7 +15703,7 @@
       <c r="D19" s="170"/>
       <c r="E19" s="171"/>
       <c r="F19" s="172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="170"/>
       <c r="H19" s="171"/>
@@ -15767,7 +15788,7 @@
       <c r="D20" s="170"/>
       <c r="E20" s="171"/>
       <c r="F20" s="172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="170"/>
       <c r="H20" s="171"/>
@@ -15852,7 +15873,7 @@
       <c r="D21" s="170"/>
       <c r="E21" s="171"/>
       <c r="F21" s="172" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="170"/>
       <c r="H21" s="171"/>
@@ -15937,7 +15958,7 @@
       <c r="D22" s="170"/>
       <c r="E22" s="171"/>
       <c r="F22" s="172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G22" s="170"/>
       <c r="H22" s="171"/>
@@ -16022,7 +16043,7 @@
       <c r="D23" s="170"/>
       <c r="E23" s="171"/>
       <c r="F23" s="172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G23" s="170"/>
       <c r="H23" s="171"/>
@@ -16107,7 +16128,7 @@
       <c r="D24" s="170"/>
       <c r="E24" s="171"/>
       <c r="F24" s="172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G24" s="170"/>
       <c r="H24" s="171"/>
@@ -16192,7 +16213,7 @@
       <c r="D25" s="170"/>
       <c r="E25" s="171"/>
       <c r="F25" s="172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G25" s="170"/>
       <c r="H25" s="171"/>
@@ -16277,7 +16298,7 @@
       <c r="D26" s="170"/>
       <c r="E26" s="171"/>
       <c r="F26" s="172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" s="170"/>
       <c r="H26" s="171"/>
@@ -16362,7 +16383,7 @@
       <c r="D27" s="170"/>
       <c r="E27" s="171"/>
       <c r="F27" s="172" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G27" s="170"/>
       <c r="H27" s="171"/>
@@ -16447,7 +16468,7 @@
       <c r="D28" s="170"/>
       <c r="E28" s="171"/>
       <c r="F28" s="172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G28" s="170"/>
       <c r="H28" s="171"/>
@@ -16532,7 +16553,7 @@
       <c r="D29" s="170"/>
       <c r="E29" s="171"/>
       <c r="F29" s="172" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G29" s="170"/>
       <c r="H29" s="171"/>
@@ -16617,7 +16638,7 @@
       <c r="D30" s="170"/>
       <c r="E30" s="171"/>
       <c r="F30" s="172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="170"/>
       <c r="H30" s="171"/>
@@ -16702,7 +16723,7 @@
       <c r="D31" s="170"/>
       <c r="E31" s="171"/>
       <c r="F31" s="172" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G31" s="170"/>
       <c r="H31" s="171"/>
@@ -16787,7 +16808,7 @@
       <c r="D32" s="170"/>
       <c r="E32" s="171"/>
       <c r="F32" s="172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G32" s="170"/>
       <c r="H32" s="171"/>
@@ -16847,7 +16868,7 @@
       <c r="BJ32" s="171"/>
       <c r="BK32" s="197"/>
       <c r="BL32" s="174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BM32" s="175"/>
       <c r="BN32" s="194"/>
@@ -17024,10 +17045,10 @@
       <c r="BV34" s="155"/>
       <c r="BW34" s="155"/>
       <c r="BX34" s="156" t="s">
+        <v>243</v>
+      </c>
+      <c r="BY34" s="154" t="s">
         <v>244</v>
-      </c>
-      <c r="BY34" s="154" t="s">
-        <v>245</v>
       </c>
       <c r="BZ34" s="155"/>
       <c r="CA34" s="155"/>
@@ -17053,6 +17074,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -17210,22 +17246,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17241,21 +17279,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>